--- a/index/data/IC_raw_data.xlsx
+++ b/index/data/IC_raw_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B539A54-2DA4-4BF9-8A32-477C6D3B6975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1B57E-5A5D-4202-A8AB-D03A5227D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="362">
   <si>
     <t>Core</t>
   </si>
@@ -588,18 +588,6 @@
     <t>BL-D3.2-inc-4</t>
   </si>
   <si>
-    <t>BL-A-sw1</t>
-  </si>
-  <si>
-    <t>BL-B-sw1</t>
-  </si>
-  <si>
-    <t>BL-C-sw1</t>
-  </si>
-  <si>
-    <t>BL-D-sw1</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -913,6 +901,272 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-14</t>
+  </si>
+  <si>
+    <r>
+      <t>BL-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BL-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>BL-A3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-B3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-C3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-D3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-A1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-B1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-C1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-D1.-sw1</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1054,11 +1308,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1363,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L285"/>
+  <dimension ref="A1:L355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O275" sqref="O275"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1669,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1429,10 +1707,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>11</v>
@@ -1467,10 +1745,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>12</v>
@@ -1505,10 +1783,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>13</v>
@@ -1543,10 +1821,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>13</v>
@@ -1581,10 +1859,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>14</v>
@@ -1619,10 +1897,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>14</v>
@@ -1657,10 +1935,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>15</v>
@@ -1695,10 +1973,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
@@ -1733,10 +2011,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>17</v>
@@ -1771,10 +2049,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>18</v>
@@ -1809,10 +2087,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
@@ -1847,10 +2125,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>20</v>
@@ -1885,10 +2163,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>21</v>
@@ -1923,10 +2201,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>22</v>
@@ -1961,10 +2239,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
@@ -1999,10 +2277,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>24</v>
@@ -2037,10 +2315,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>25</v>
@@ -2075,10 +2353,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>26</v>
@@ -2113,10 +2391,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>27</v>
@@ -2151,10 +2429,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>28</v>
@@ -2189,10 +2467,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>29</v>
@@ -2227,10 +2505,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>30</v>
@@ -2265,10 +2543,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>31</v>
@@ -2303,10 +2581,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>32</v>
@@ -2341,10 +2619,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>33</v>
@@ -2379,10 +2657,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>34</v>
@@ -2417,10 +2695,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>35</v>
@@ -2455,10 +2733,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>36</v>
@@ -2493,10 +2771,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>37</v>
@@ -2531,10 +2809,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>38</v>
@@ -2569,10 +2847,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>39</v>
@@ -2607,10 +2885,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>40</v>
@@ -2645,10 +2923,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>40</v>
@@ -2683,10 +2961,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>41</v>
@@ -2721,10 +2999,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>41</v>
@@ -2759,10 +3037,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>42</v>
@@ -2797,10 +3075,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>43</v>
@@ -2835,10 +3113,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>44</v>
@@ -2873,10 +3151,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>45</v>
@@ -2911,10 +3189,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>46</v>
@@ -2949,10 +3227,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>47</v>
@@ -2987,10 +3265,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>48</v>
@@ -3025,10 +3303,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>49</v>
@@ -3063,10 +3341,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>50</v>
@@ -3101,10 +3379,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>51</v>
@@ -3139,10 +3417,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>52</v>
@@ -3177,10 +3455,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>53</v>
@@ -3215,10 +3493,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>54</v>
@@ -3253,10 +3531,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>55</v>
@@ -3291,10 +3569,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>56</v>
@@ -3329,10 +3607,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>57</v>
@@ -3367,10 +3645,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>58</v>
@@ -3405,10 +3683,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>59</v>
@@ -3443,10 +3721,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>60</v>
@@ -3481,10 +3759,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>61</v>
@@ -3519,10 +3797,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>62</v>
@@ -3557,10 +3835,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>63</v>
@@ -3595,10 +3873,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>64</v>
@@ -3633,10 +3911,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>65</v>
@@ -3671,10 +3949,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>66</v>
@@ -3709,10 +3987,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>67</v>
@@ -3747,10 +4025,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>68</v>
@@ -3785,10 +4063,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -3823,10 +4101,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>70</v>
@@ -3861,10 +4139,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>71</v>
@@ -3899,10 +4177,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>72</v>
@@ -3937,10 +4215,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>73</v>
@@ -3975,10 +4253,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>74</v>
@@ -4013,10 +4291,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>75</v>
@@ -4051,10 +4329,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>75</v>
@@ -4089,10 +4367,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>76</v>
@@ -4127,10 +4405,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>76</v>
@@ -4165,10 +4443,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>77</v>
@@ -4203,10 +4481,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>78</v>
@@ -4241,10 +4519,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>79</v>
@@ -4279,10 +4557,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>80</v>
@@ -4317,10 +4595,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>81</v>
@@ -4355,10 +4633,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>82</v>
@@ -4393,10 +4671,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>82</v>
@@ -4431,10 +4709,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>83</v>
@@ -4469,10 +4747,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>83</v>
@@ -4507,10 +4785,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>84</v>
@@ -4545,10 +4823,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>85</v>
@@ -4583,10 +4861,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>86</v>
@@ -4621,10 +4899,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>87</v>
@@ -4659,10 +4937,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>88</v>
@@ -4697,10 +4975,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>89</v>
@@ -4735,10 +5013,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>90</v>
@@ -4773,10 +5051,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>91</v>
@@ -4811,10 +5089,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>92</v>
@@ -4849,10 +5127,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>92</v>
@@ -4887,10 +5165,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>93</v>
@@ -4925,10 +5203,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>94</v>
@@ -4963,10 +5241,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>95</v>
@@ -5001,10 +5279,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>96</v>
@@ -5039,10 +5317,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>97</v>
@@ -5077,10 +5355,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>98</v>
@@ -5115,10 +5393,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>99</v>
@@ -5153,10 +5431,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>100</v>
@@ -5191,10 +5469,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>101</v>
@@ -5229,10 +5507,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>102</v>
@@ -5267,10 +5545,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>103</v>
@@ -5305,10 +5583,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>104</v>
@@ -5343,10 +5621,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>105</v>
@@ -5381,10 +5659,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>106</v>
@@ -5419,10 +5697,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>107</v>
@@ -5457,10 +5735,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>108</v>
@@ -5495,10 +5773,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>109</v>
@@ -5533,10 +5811,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>110</v>
@@ -5571,10 +5849,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>111</v>
@@ -5609,10 +5887,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>112</v>
@@ -5647,10 +5925,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>113</v>
@@ -5685,10 +5963,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>114</v>
@@ -5723,10 +6001,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>115</v>
@@ -5761,10 +6039,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>116</v>
@@ -5799,10 +6077,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>117</v>
@@ -5837,10 +6115,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>118</v>
@@ -5875,10 +6153,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>119</v>
@@ -5913,10 +6191,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>120</v>
@@ -5951,10 +6229,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>121</v>
@@ -5989,10 +6267,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>122</v>
@@ -6027,10 +6305,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>123</v>
@@ -6065,10 +6343,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>124</v>
@@ -6103,10 +6381,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>125</v>
@@ -6141,10 +6419,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>126</v>
@@ -6179,10 +6457,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>127</v>
@@ -6217,10 +6495,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>128</v>
@@ -6255,10 +6533,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>128</v>
@@ -6293,10 +6571,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>129</v>
@@ -6331,10 +6609,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>130</v>
@@ -6369,10 +6647,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>131</v>
@@ -6407,10 +6685,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>132</v>
@@ -6445,10 +6723,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>133</v>
@@ -6483,10 +6761,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>134</v>
@@ -6521,10 +6799,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>135</v>
@@ -6559,10 +6837,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>136</v>
@@ -6597,10 +6875,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>137</v>
@@ -6635,10 +6913,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>138</v>
@@ -6673,10 +6951,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>139</v>
@@ -6711,10 +6989,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>140</v>
@@ -6749,10 +7027,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>141</v>
@@ -6787,10 +7065,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>142</v>
@@ -6825,10 +7103,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>143</v>
@@ -6863,10 +7141,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>144</v>
@@ -6901,10 +7179,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>144</v>
@@ -6939,10 +7217,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>145</v>
@@ -6977,10 +7255,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>145</v>
@@ -7015,10 +7293,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>146</v>
@@ -7053,10 +7331,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>147</v>
@@ -7091,10 +7369,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>148</v>
@@ -7129,10 +7407,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>149</v>
@@ -7167,10 +7445,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>150</v>
@@ -7205,10 +7483,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>150</v>
@@ -7243,10 +7521,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>151</v>
@@ -7281,10 +7559,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>151</v>
@@ -7319,10 +7597,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>152</v>
@@ -7357,10 +7635,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>153</v>
@@ -7395,10 +7673,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>154</v>
@@ -7433,10 +7711,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>155</v>
@@ -7471,10 +7749,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>156</v>
@@ -7509,10 +7787,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>157</v>
@@ -7547,10 +7825,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>158</v>
@@ -7585,10 +7863,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>159</v>
@@ -7623,10 +7901,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>160</v>
@@ -7661,10 +7939,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>161</v>
@@ -7699,10 +7977,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>162</v>
@@ -7737,10 +8015,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>163</v>
@@ -7775,10 +8053,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>164</v>
@@ -7813,10 +8091,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>165</v>
@@ -7851,10 +8129,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>166</v>
@@ -7889,10 +8167,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>167</v>
@@ -7927,10 +8205,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>168</v>
@@ -7965,10 +8243,10 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>169</v>
@@ -8003,10 +8281,10 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>170</v>
@@ -8041,10 +8319,10 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>171</v>
@@ -8079,10 +8357,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>172</v>
@@ -8117,10 +8395,10 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>173</v>
@@ -8155,10 +8433,10 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>174</v>
@@ -8193,10 +8471,10 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>175</v>
@@ -8231,10 +8509,10 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>176</v>
@@ -8269,10 +8547,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>177</v>
@@ -8307,10 +8585,10 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>178</v>
@@ -8345,10 +8623,10 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>179</v>
@@ -8383,10 +8661,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>180</v>
@@ -8421,10 +8699,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>181</v>
@@ -8459,10 +8737,10 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>181</v>
@@ -8497,10 +8775,10 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>182</v>
@@ -8535,10 +8813,10 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>182</v>
@@ -8573,10 +8851,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>183</v>
@@ -8611,10 +8889,10 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>184</v>
@@ -8649,10 +8927,10 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>185</v>
@@ -8687,10 +8965,10 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>186</v>
@@ -8725,11 +9003,11 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="13" t="s">
-        <v>187</v>
+        <v>358</v>
       </c>
       <c r="D194" s="13">
         <v>0</v>
@@ -8761,11 +9039,11 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="13" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="D195" s="13">
         <v>0</v>
@@ -8797,11 +9075,11 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="13" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
       <c r="D196" s="13">
         <v>0</v>
@@ -8833,11 +9111,11 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="13" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
       <c r="D197" s="13">
         <v>0</v>
@@ -8869,13 +9147,13 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D198" s="21">
         <v>0</v>
@@ -8907,13 +9185,13 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D199" s="21">
         <v>0</v>
@@ -8945,13 +9223,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D200" s="21">
         <v>0</v>
@@ -8983,13 +9261,13 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D201" s="21">
         <v>0</v>
@@ -9021,13 +9299,13 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D202" s="21">
         <v>0</v>
@@ -9059,13 +9337,13 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D203" s="21">
         <v>0</v>
@@ -9097,13 +9375,13 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D204" s="21">
         <v>0</v>
@@ -9135,13 +9413,13 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D205" s="21">
         <v>0</v>
@@ -9173,13 +9451,13 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D206" s="21">
         <v>0</v>
@@ -9211,13 +9489,13 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D207" s="21">
         <v>0</v>
@@ -9249,13 +9527,13 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D208" s="21">
         <v>0</v>
@@ -9287,13 +9565,13 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D209" s="21">
         <v>0</v>
@@ -9325,13 +9603,13 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D210" s="21">
         <v>0</v>
@@ -9363,13 +9641,13 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D211" s="21">
         <v>0</v>
@@ -9401,13 +9679,13 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D212" s="21">
         <v>0</v>
@@ -9439,13 +9717,13 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D213" s="21">
         <v>0</v>
@@ -9477,13 +9755,13 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D214" s="21">
         <v>0</v>
@@ -9515,13 +9793,13 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D215" s="21">
         <v>0</v>
@@ -9553,13 +9831,13 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D216" s="21">
         <v>0</v>
@@ -9591,13 +9869,13 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D217" s="21">
         <v>0</v>
@@ -9629,13 +9907,13 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D218" s="21">
         <v>0</v>
@@ -9667,13 +9945,13 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D219" s="21">
         <v>0</v>
@@ -9705,13 +9983,13 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D220" s="21">
         <v>0</v>
@@ -9743,13 +10021,13 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D221" s="21">
         <v>0</v>
@@ -9781,13 +10059,13 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D222" s="21">
         <v>0</v>
@@ -9819,13 +10097,13 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D223" s="21">
         <v>0</v>
@@ -9857,13 +10135,13 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D224" s="21">
         <v>0</v>
@@ -9895,13 +10173,13 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D225" s="21">
         <v>0</v>
@@ -9933,13 +10211,13 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D226" s="21">
         <v>0</v>
@@ -9971,13 +10249,13 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D227" s="21">
         <v>0</v>
@@ -10009,13 +10287,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D228" s="21">
         <v>0</v>
@@ -10047,13 +10325,13 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D229" s="21">
         <v>0</v>
@@ -10085,13 +10363,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B230" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D230" s="21">
         <v>0</v>
@@ -10123,13 +10401,13 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D231" s="21">
         <v>0</v>
@@ -10161,13 +10439,13 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D232" s="21">
         <v>0</v>
@@ -10199,13 +10477,13 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B233" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D233" s="21">
         <v>0</v>
@@ -10237,13 +10515,13 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D234" s="21">
         <v>0</v>
@@ -10275,13 +10553,13 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D235" s="21">
         <v>0</v>
@@ -10313,13 +10591,13 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D236" s="21">
         <v>0</v>
@@ -10351,13 +10629,13 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D237" s="21">
         <v>0</v>
@@ -10389,13 +10667,13 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D238" s="21">
         <v>0</v>
@@ -10427,13 +10705,13 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D239" s="21">
         <v>0</v>
@@ -10465,13 +10743,13 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D240" s="21">
         <v>0</v>
@@ -10503,13 +10781,13 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D241" s="21">
         <v>0</v>
@@ -10541,13 +10819,13 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D242" s="21">
         <v>0</v>
@@ -10579,13 +10857,13 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D243" s="21">
         <v>0</v>
@@ -10617,13 +10895,13 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D244" s="21">
         <v>0</v>
@@ -10655,13 +10933,13 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B245" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D245" s="21">
         <v>0</v>
@@ -10693,13 +10971,13 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D246" s="21">
         <v>0</v>
@@ -10731,13 +11009,13 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B247" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D247" s="21">
         <v>0</v>
@@ -10769,13 +11047,13 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D248" s="21">
         <v>0</v>
@@ -10807,13 +11085,13 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D249" s="21">
         <v>0</v>
@@ -10845,13 +11123,13 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D250" s="21">
         <v>0</v>
@@ -10883,13 +11161,13 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D251" s="21">
         <v>0</v>
@@ -10921,13 +11199,13 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D252" s="21">
         <v>0</v>
@@ -10959,13 +11237,13 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D253" s="21">
         <v>0</v>
@@ -10997,13 +11275,13 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D254" s="21">
         <v>0</v>
@@ -11035,13 +11313,13 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D255" s="21">
         <v>0</v>
@@ -11073,13 +11351,13 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D256" s="21">
         <v>0</v>
@@ -11111,13 +11389,13 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D257" s="21">
         <v>0</v>
@@ -11149,13 +11427,13 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D258" s="21">
         <v>0</v>
@@ -11187,13 +11465,13 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D259" s="21">
         <v>0</v>
@@ -11225,13 +11503,13 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D260" s="21">
         <v>0</v>
@@ -11263,13 +11541,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D261" s="21">
         <v>0</v>
@@ -11301,13 +11579,13 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D262" s="21">
         <v>0</v>
@@ -11339,13 +11617,13 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D263" s="21">
         <v>0</v>
@@ -11377,13 +11655,13 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D264" s="21">
         <v>0</v>
@@ -11415,13 +11693,13 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D265" s="21">
         <v>0</v>
@@ -11453,13 +11731,13 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D266" s="21">
         <v>0</v>
@@ -11491,13 +11769,13 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D267" s="21">
         <v>0</v>
@@ -11529,13 +11807,13 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D268" s="21">
         <v>0</v>
@@ -11567,13 +11845,13 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D269" s="21">
         <v>0</v>
@@ -11605,13 +11883,13 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D270" s="21">
         <v>0</v>
@@ -11643,13 +11921,13 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D271" s="21">
         <v>0</v>
@@ -11681,13 +11959,13 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D272" s="21">
         <v>0</v>
@@ -11719,13 +11997,13 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D273" s="21">
         <v>0</v>
@@ -11757,13 +12035,13 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D274" s="21">
         <v>0</v>
@@ -11795,13 +12073,13 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D275" s="21">
         <v>0</v>
@@ -11833,13 +12111,13 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D276" s="21">
         <v>0</v>
@@ -11871,13 +12149,13 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D277" s="21">
         <v>0</v>
@@ -11909,13 +12187,13 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D278" s="21">
         <v>0</v>
@@ -11947,13 +12225,13 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D279" s="21">
         <v>0</v>
@@ -11985,13 +12263,13 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D280" s="21">
         <v>0</v>
@@ -12023,13 +12301,13 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D281" s="21">
         <v>0</v>
@@ -12061,13 +12339,13 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D282" s="21">
         <v>0</v>
@@ -12099,13 +12377,13 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D283" s="21">
         <v>0</v>
@@ -12137,13 +12415,13 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D284" s="21">
         <v>0</v>
@@ -12175,13 +12453,13 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D285" s="21">
         <v>0</v>
@@ -12209,6 +12487,2666 @@
       </c>
       <c r="L285" s="25">
         <v>56.870188170556887</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>274</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286" s="30">
+        <v>0.19493515598940986</v>
+      </c>
+      <c r="F286" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G286" s="33">
+        <v>18.761951551781191</v>
+      </c>
+      <c r="H286" s="33">
+        <v>2.3999258778189293E-2</v>
+      </c>
+      <c r="I286" s="33">
+        <v>0.17227254186726176</v>
+      </c>
+      <c r="J286" s="33">
+        <v>5.2514115060964504E-2</v>
+      </c>
+      <c r="K286" s="33">
+        <v>0</v>
+      </c>
+      <c r="L286" s="34">
+        <v>48.535978030893951</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C287" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D287" s="28">
+        <v>1</v>
+      </c>
+      <c r="E287" s="30">
+        <v>0.23364673790383503</v>
+      </c>
+      <c r="F287" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G287" s="31">
+        <v>19.460770892795274</v>
+      </c>
+      <c r="H287" s="31">
+        <v>2.6863162573364675E-2</v>
+      </c>
+      <c r="I287" s="31">
+        <v>0.21487337011713112</v>
+      </c>
+      <c r="J287" s="31">
+        <v>0.1037844106638539</v>
+      </c>
+      <c r="K287" s="31">
+        <v>0</v>
+      </c>
+      <c r="L287" s="32">
+        <v>15.32902949176407</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C288" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D288" s="28">
+        <v>2</v>
+      </c>
+      <c r="E288" s="30">
+        <v>0.25593016736231916</v>
+      </c>
+      <c r="F288" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G288" s="31">
+        <v>20.266792250397579</v>
+      </c>
+      <c r="H288" s="31">
+        <v>2.4834601059515397E-2</v>
+      </c>
+      <c r="I288" s="31">
+        <v>0.21015993967623661</v>
+      </c>
+      <c r="J288" s="31">
+        <v>6.1923960280076497E-2</v>
+      </c>
+      <c r="K288" s="31">
+        <v>9.4985435674686661E-2</v>
+      </c>
+      <c r="L288" s="32">
+        <v>4.9015311726321276</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D289" s="28">
+        <v>2</v>
+      </c>
+      <c r="E289" s="30">
+        <v>0.25764341617698078</v>
+      </c>
+      <c r="F289" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G289" s="31">
+        <v>20.518748288179737</v>
+      </c>
+      <c r="H289" s="31">
+        <v>2.5669912863884679E-2</v>
+      </c>
+      <c r="I289" s="31">
+        <v>0.21312767242151204</v>
+      </c>
+      <c r="J289" s="31">
+        <v>4.9104617664804777E-2</v>
+      </c>
+      <c r="K289" s="31">
+        <v>0.2561962192629953</v>
+      </c>
+      <c r="L289" s="32">
+        <v>4.9362834552194395</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B290" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C290" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D290" s="28">
+        <v>3</v>
+      </c>
+      <c r="E290" s="30">
+        <v>0.29396712032271943</v>
+      </c>
+      <c r="F290" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G290" s="31">
+        <v>21.222218719349303</v>
+      </c>
+      <c r="H290" s="31">
+        <v>8.5018170518895347E-2</v>
+      </c>
+      <c r="I290" s="31">
+        <v>0.2429763041681707</v>
+      </c>
+      <c r="J290" s="31">
+        <v>7.6105895695678313E-2</v>
+      </c>
+      <c r="K290" s="31">
+        <v>0</v>
+      </c>
+      <c r="L290" s="32">
+        <v>3.6750015035172265</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D291" s="28">
+        <v>3</v>
+      </c>
+      <c r="E291" s="30">
+        <v>0.2944821981063232</v>
+      </c>
+      <c r="F291" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G291" s="31">
+        <v>21.3709749394243</v>
+      </c>
+      <c r="H291" s="31">
+        <v>8.5018170518895347E-2</v>
+      </c>
+      <c r="I291" s="31">
+        <v>0.24419805131187572</v>
+      </c>
+      <c r="J291" s="31">
+        <v>6.6969597031120376E-2</v>
+      </c>
+      <c r="K291" s="31">
+        <v>0</v>
+      </c>
+      <c r="L291" s="32">
+        <v>3.7016913595599434</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C292" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D292" s="28">
+        <v>4</v>
+      </c>
+      <c r="E292" s="30">
+        <v>0.33073257623515212</v>
+      </c>
+      <c r="F292" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G292" s="31">
+        <v>22.150282261494521</v>
+      </c>
+      <c r="H292" s="31">
+        <v>0</v>
+      </c>
+      <c r="I292" s="31">
+        <v>0.24070731875496063</v>
+      </c>
+      <c r="J292" s="31">
+        <v>5.5241661970359152E-2</v>
+      </c>
+      <c r="K292" s="31">
+        <v>0</v>
+      </c>
+      <c r="L292" s="32">
+        <v>2.3349895310250606</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B293" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C293" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D293" s="28">
+        <v>5</v>
+      </c>
+      <c r="E293" s="30">
+        <v>0.3563842220969291</v>
+      </c>
+      <c r="F293" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G293" s="31">
+        <v>23.036813961605183</v>
+      </c>
+      <c r="H293" s="31">
+        <v>0</v>
+      </c>
+      <c r="I293" s="31">
+        <v>0.25257547762466381</v>
+      </c>
+      <c r="J293" s="31">
+        <v>7.1333265839487806E-2</v>
+      </c>
+      <c r="K293" s="31">
+        <v>0.19867989773793776</v>
+      </c>
+      <c r="L293" s="32">
+        <v>2.9694139895173346</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B294" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C294" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D294" s="28">
+        <v>6</v>
+      </c>
+      <c r="E294" s="30">
+        <v>0.35361998341938766</v>
+      </c>
+      <c r="F294" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G294" s="31">
+        <v>24.339866819494379</v>
+      </c>
+      <c r="H294" s="31">
+        <v>0</v>
+      </c>
+      <c r="I294" s="31">
+        <v>0.26007985756094765</v>
+      </c>
+      <c r="J294" s="31">
+        <v>4.5558665221699809E-2</v>
+      </c>
+      <c r="K294" s="31">
+        <v>1.7562444492243579</v>
+      </c>
+      <c r="L294" s="32">
+        <v>2.5006470215388883</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B295" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C295" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D295" s="28">
+        <v>7</v>
+      </c>
+      <c r="E295" s="30">
+        <v>0.31826057408850095</v>
+      </c>
+      <c r="F295" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G295" s="31">
+        <v>25.076360394622636</v>
+      </c>
+      <c r="H295" s="31">
+        <v>0</v>
+      </c>
+      <c r="I295" s="31">
+        <v>0.27107396787304905</v>
+      </c>
+      <c r="J295" s="31">
+        <v>0</v>
+      </c>
+      <c r="K295" s="31">
+        <v>3.5861304953799493</v>
+      </c>
+      <c r="L295" s="32">
+        <v>2.906583117399526</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B296" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C296" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D296" s="28">
+        <v>8</v>
+      </c>
+      <c r="E296" s="30">
+        <v>0.30743164441271925</v>
+      </c>
+      <c r="F296" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G296" s="31">
+        <v>26.31493320637632</v>
+      </c>
+      <c r="H296" s="31">
+        <v>0</v>
+      </c>
+      <c r="I296" s="31">
+        <v>0.27404049430052141</v>
+      </c>
+      <c r="J296" s="31">
+        <v>0</v>
+      </c>
+      <c r="K296" s="31">
+        <v>3.2695437251091</v>
+      </c>
+      <c r="L296" s="32">
+        <v>4.1067204130935258</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B297" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C297" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D297" s="28">
+        <v>9</v>
+      </c>
+      <c r="E297" s="30">
+        <v>0.29017669038104987</v>
+      </c>
+      <c r="F297" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G297" s="31">
+        <v>26.974037564080483</v>
+      </c>
+      <c r="H297" s="31">
+        <v>0</v>
+      </c>
+      <c r="I297" s="31">
+        <v>0.28416114223641775</v>
+      </c>
+      <c r="J297" s="31">
+        <v>0.11482724342570186</v>
+      </c>
+      <c r="K297" s="31">
+        <v>3.9122533162882642</v>
+      </c>
+      <c r="L297" s="32">
+        <v>3.8955827024604832</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B298" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C298" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D298" s="28">
+        <v>10</v>
+      </c>
+      <c r="E298" s="30">
+        <v>0.29200118124932006</v>
+      </c>
+      <c r="F298" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G298" s="31">
+        <v>29.037853234048974</v>
+      </c>
+      <c r="H298" s="31">
+        <v>0</v>
+      </c>
+      <c r="I298" s="31">
+        <v>0.30544716919672271</v>
+      </c>
+      <c r="J298" s="31">
+        <v>4.1876248890343873E-2</v>
+      </c>
+      <c r="K298" s="31">
+        <v>5.7013224546489756</v>
+      </c>
+      <c r="L298" s="32">
+        <v>2.6519831838087855</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B299" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C299" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D299" s="28">
+        <v>12</v>
+      </c>
+      <c r="E299" s="30">
+        <v>0.2385241435353298</v>
+      </c>
+      <c r="F299" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G299" s="31">
+        <v>29.47837252366633</v>
+      </c>
+      <c r="H299" s="31">
+        <v>1.5524779094260312E-2</v>
+      </c>
+      <c r="I299" s="31">
+        <v>0.31608904782725145</v>
+      </c>
+      <c r="J299" s="31">
+        <v>7.1878716279328431E-2</v>
+      </c>
+      <c r="K299" s="31">
+        <v>7.3738351937006179</v>
+      </c>
+      <c r="L299" s="32">
+        <v>1.5509844934979462</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B300" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C300" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D300" s="28">
+        <v>14</v>
+      </c>
+      <c r="E300" s="30">
+        <v>0.22226390691527093</v>
+      </c>
+      <c r="F300" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G300" s="31">
+        <v>30.58406795962906</v>
+      </c>
+      <c r="H300" s="31">
+        <v>0</v>
+      </c>
+      <c r="I300" s="31">
+        <v>0.33405640431090183</v>
+      </c>
+      <c r="J300" s="31">
+        <v>0</v>
+      </c>
+      <c r="K300" s="31">
+        <v>7.7218786725045456</v>
+      </c>
+      <c r="L300" s="32">
+        <v>1.673381592596598</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B301" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C301" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D301" s="28">
+        <v>16</v>
+      </c>
+      <c r="E301" s="30">
+        <v>0.21558137048309611</v>
+      </c>
+      <c r="F301" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G301" s="31">
+        <v>31.383860654384108</v>
+      </c>
+      <c r="H301" s="31">
+        <v>0</v>
+      </c>
+      <c r="I301" s="31">
+        <v>0.35027750416287379</v>
+      </c>
+      <c r="J301" s="31">
+        <v>7.6242254508411003E-2</v>
+      </c>
+      <c r="K301" s="31">
+        <v>8.1381175930180518</v>
+      </c>
+      <c r="L301" s="32">
+        <v>1.8095039460468978</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B302" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C302" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D302" s="28">
+        <v>18</v>
+      </c>
+      <c r="E302" s="30">
+        <v>0.20535557728794465</v>
+      </c>
+      <c r="F302" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G302" s="31">
+        <v>32.057817329503081</v>
+      </c>
+      <c r="H302" s="31">
+        <v>0</v>
+      </c>
+      <c r="I302" s="31">
+        <v>0.36754319420023346</v>
+      </c>
+      <c r="J302" s="31">
+        <v>0</v>
+      </c>
+      <c r="K302" s="31">
+        <v>8.4523027202857843</v>
+      </c>
+      <c r="L302" s="32">
+        <v>2.0870630566121831</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B303" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C303" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D303" s="28">
+        <v>20</v>
+      </c>
+      <c r="E303" s="30">
+        <v>0.20713362219205575</v>
+      </c>
+      <c r="F303" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G303" s="31">
+        <v>31.642629403577093</v>
+      </c>
+      <c r="H303" s="31">
+        <v>0</v>
+      </c>
+      <c r="I303" s="31">
+        <v>0.36754319420023346</v>
+      </c>
+      <c r="J303" s="31">
+        <v>4.010320414867187E-2</v>
+      </c>
+      <c r="K303" s="31">
+        <v>8.8559026586726617</v>
+      </c>
+      <c r="L303" s="32">
+        <v>2.2303615014543956</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>289</v>
+      </c>
+      <c r="B304" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C304" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304" s="30">
+        <v>0.1645527153752217</v>
+      </c>
+      <c r="F304" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G304" s="31">
+        <v>19.264596754837026</v>
+      </c>
+      <c r="H304" s="31">
+        <v>3.9746296187404127E-2</v>
+      </c>
+      <c r="I304" s="31">
+        <v>0.22936187626406085</v>
+      </c>
+      <c r="J304" s="31">
+        <v>0</v>
+      </c>
+      <c r="K304" s="31">
+        <v>3.6107274068253692</v>
+      </c>
+      <c r="L304" s="32">
+        <v>22.322425227391367</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>289</v>
+      </c>
+      <c r="B305" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C305" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D305" s="28">
+        <v>1</v>
+      </c>
+      <c r="E305" s="30">
+        <v>0.20831953327268982</v>
+      </c>
+      <c r="F305" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G305" s="31">
+        <v>19.068969474076365</v>
+      </c>
+      <c r="H305" s="31">
+        <v>0</v>
+      </c>
+      <c r="I305" s="31">
+        <v>0.18781277098819396</v>
+      </c>
+      <c r="J305" s="31">
+        <v>0</v>
+      </c>
+      <c r="K305" s="31">
+        <v>3.7045754039654222</v>
+      </c>
+      <c r="L305" s="32">
+        <v>25.518274797691781</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>289</v>
+      </c>
+      <c r="B306" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C306" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D306" s="28">
+        <v>2</v>
+      </c>
+      <c r="E306" s="30">
+        <v>0.21516988549314375</v>
+      </c>
+      <c r="F306" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G306" s="31">
+        <v>20.080066869291961</v>
+      </c>
+      <c r="H306" s="31">
+        <v>0</v>
+      </c>
+      <c r="I306" s="31">
+        <v>0.140837942533663</v>
+      </c>
+      <c r="J306" s="31">
+        <v>8.3215383558664317E-3</v>
+      </c>
+      <c r="K306" s="31">
+        <v>5.1539267910464943</v>
+      </c>
+      <c r="L306" s="32">
+        <v>20.247225627398233</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B307" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C307" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D307" s="28">
+        <v>3</v>
+      </c>
+      <c r="E307" s="30">
+        <v>0.23562442999413166</v>
+      </c>
+      <c r="F307" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G307" s="31">
+        <v>21.052199418845113</v>
+      </c>
+      <c r="H307" s="31">
+        <v>0</v>
+      </c>
+      <c r="I307" s="31">
+        <v>0.1579531524576471</v>
+      </c>
+      <c r="J307" s="31">
+        <v>6.9573806444194076E-3</v>
+      </c>
+      <c r="K307" s="31">
+        <v>5.9723781388162909</v>
+      </c>
+      <c r="L307" s="32">
+        <v>16.685024375660305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B308" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C308" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D308" s="28">
+        <v>4</v>
+      </c>
+      <c r="E308" s="30">
+        <v>0.23226766261011245</v>
+      </c>
+      <c r="F308" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G308" s="31">
+        <v>22.374218410528627</v>
+      </c>
+      <c r="H308" s="31">
+        <v>0</v>
+      </c>
+      <c r="I308" s="31">
+        <v>4.1950666063706898E-2</v>
+      </c>
+      <c r="J308" s="31">
+        <v>0</v>
+      </c>
+      <c r="K308" s="31">
+        <v>6.0568724423534128</v>
+      </c>
+      <c r="L308" s="32">
+        <v>10.070233464993278</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B309" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C309" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D309" s="28">
+        <v>5</v>
+      </c>
+      <c r="E309" s="30">
+        <v>0.26051625516653293</v>
+      </c>
+      <c r="F309" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G309" s="31">
+        <v>23.261019620153643</v>
+      </c>
+      <c r="H309" s="31">
+        <v>9.7630619799523505E-2</v>
+      </c>
+      <c r="I309" s="31">
+        <v>0.17366948227177148</v>
+      </c>
+      <c r="J309" s="31">
+        <v>0</v>
+      </c>
+      <c r="K309" s="31">
+        <v>5.8442946321952549</v>
+      </c>
+      <c r="L309" s="32">
+        <v>7.1791326651534177</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B310" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C310" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D310" s="28">
+        <v>6</v>
+      </c>
+      <c r="E310" s="30">
+        <v>0.24871649939522991</v>
+      </c>
+      <c r="F310" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G310" s="31">
+        <v>24.715847295295777</v>
+      </c>
+      <c r="H310" s="31">
+        <v>1.6241053592835293E-2</v>
+      </c>
+      <c r="I310" s="31">
+        <v>0.1174323521784877</v>
+      </c>
+      <c r="J310" s="31">
+        <v>0</v>
+      </c>
+      <c r="K310" s="31">
+        <v>6.2038777059780381</v>
+      </c>
+      <c r="L310" s="32">
+        <v>8.9141078814016979</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B311" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C311" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D311" s="28">
+        <v>6</v>
+      </c>
+      <c r="E311" s="30">
+        <v>0.24797752807108817</v>
+      </c>
+      <c r="F311" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G311" s="31">
+        <v>24.75792147578818</v>
+      </c>
+      <c r="H311" s="31">
+        <v>0</v>
+      </c>
+      <c r="I311" s="31">
+        <v>0.12476882555840438</v>
+      </c>
+      <c r="J311" s="31">
+        <v>0</v>
+      </c>
+      <c r="K311" s="31">
+        <v>5.8368919752547734</v>
+      </c>
+      <c r="L311" s="32">
+        <v>9.7579297901222084</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B312" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C312" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D312" s="28">
+        <v>7</v>
+      </c>
+      <c r="E312" s="30">
+        <v>0.25102685447373396</v>
+      </c>
+      <c r="F312" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G312" s="31">
+        <v>25.638750840526804</v>
+      </c>
+      <c r="H312" s="31">
+        <v>2.4237931111318875E-2</v>
+      </c>
+      <c r="I312" s="31">
+        <v>0.24646698386099872</v>
+      </c>
+      <c r="J312" s="31">
+        <v>0</v>
+      </c>
+      <c r="K312" s="31">
+        <v>5.8425863488213814</v>
+      </c>
+      <c r="L312" s="32">
+        <v>9.5573176756382878</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B313" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D313" s="28">
+        <v>8</v>
+      </c>
+      <c r="E313" s="30">
+        <v>0.25616163560862382</v>
+      </c>
+      <c r="F313" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G313" s="31">
+        <v>27.136527516414233</v>
+      </c>
+      <c r="H313" s="31">
+        <v>0.1304377938476729</v>
+      </c>
+      <c r="I313" s="31">
+        <v>0.25362262297536958</v>
+      </c>
+      <c r="J313" s="31">
+        <v>0</v>
+      </c>
+      <c r="K313" s="31">
+        <v>6.0312715349257831</v>
+      </c>
+      <c r="L313" s="32">
+        <v>10.023114227324278</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B314" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C314" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D314" s="28">
+        <v>9</v>
+      </c>
+      <c r="E314" s="30">
+        <v>0.26854558093320108</v>
+      </c>
+      <c r="F314" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G314" s="31">
+        <v>27.779154256808493</v>
+      </c>
+      <c r="H314" s="31">
+        <v>2.3163886019906363E-2</v>
+      </c>
+      <c r="I314" s="31">
+        <v>0.25100474587427485</v>
+      </c>
+      <c r="J314" s="31">
+        <v>0</v>
+      </c>
+      <c r="K314" s="31">
+        <v>6.1305295374682247</v>
+      </c>
+      <c r="L314" s="32">
+        <v>9.9280865492462791</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B315" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C315" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D315" s="28">
+        <v>10</v>
+      </c>
+      <c r="E315" s="30">
+        <v>0.25338508634352924</v>
+      </c>
+      <c r="F315" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G315" s="31">
+        <v>28.413450479881902</v>
+      </c>
+      <c r="H315" s="31">
+        <v>3.2232016567370188E-2</v>
+      </c>
+      <c r="I315" s="31">
+        <v>0.28259074169986687</v>
+      </c>
+      <c r="J315" s="31">
+        <v>0</v>
+      </c>
+      <c r="K315" s="31">
+        <v>6.3252179635305694</v>
+      </c>
+      <c r="L315" s="32">
+        <v>8.8160091421666706</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B316" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C316" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D316" s="28">
+        <v>12</v>
+      </c>
+      <c r="E316" s="30">
+        <v>0.22749138559419485</v>
+      </c>
+      <c r="F316" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G316" s="31">
+        <v>30.228688141261287</v>
+      </c>
+      <c r="H316" s="31">
+        <v>1.8509108451712261E-2</v>
+      </c>
+      <c r="I316" s="31">
+        <v>0.31643794907133643</v>
+      </c>
+      <c r="J316" s="31">
+        <v>0</v>
+      </c>
+      <c r="K316" s="31">
+        <v>7.2301611626938289</v>
+      </c>
+      <c r="L316" s="32">
+        <v>0.50561767553491466</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B317" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C317" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D317" s="28">
+        <v>14</v>
+      </c>
+      <c r="E317" s="30">
+        <v>0.22373041878538977</v>
+      </c>
+      <c r="F317" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G317" s="31">
+        <v>31.60646155953917</v>
+      </c>
+      <c r="H317" s="31">
+        <v>0</v>
+      </c>
+      <c r="I317" s="31">
+        <v>0.30823855482083073</v>
+      </c>
+      <c r="J317" s="31">
+        <v>0</v>
+      </c>
+      <c r="K317" s="31">
+        <v>7.3399050109033563</v>
+      </c>
+      <c r="L317" s="32">
+        <v>0.86468967579571654</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B318" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C318" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D318" s="28">
+        <v>16</v>
+      </c>
+      <c r="E318" s="30">
+        <v>0.22299707986827474</v>
+      </c>
+      <c r="F318" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G318" s="31">
+        <v>31.4033425850612</v>
+      </c>
+      <c r="H318" s="31">
+        <v>0.11629848191785033</v>
+      </c>
+      <c r="I318" s="31">
+        <v>0.30823855482083073</v>
+      </c>
+      <c r="J318" s="31">
+        <v>0</v>
+      </c>
+      <c r="K318" s="31">
+        <v>7.0425067694988108</v>
+      </c>
+      <c r="L318" s="32">
+        <v>8.6815708958212543</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B319" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C319" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D319" s="28">
+        <v>18</v>
+      </c>
+      <c r="E319" s="30">
+        <v>0.2315323943602037</v>
+      </c>
+      <c r="F319" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G319" s="31">
+        <v>32.426884297723397</v>
+      </c>
+      <c r="H319" s="31">
+        <v>7.4065851444177724E-2</v>
+      </c>
+      <c r="I319" s="31">
+        <v>0.32010136303162501</v>
+      </c>
+      <c r="J319" s="31">
+        <v>0</v>
+      </c>
+      <c r="K319" s="31">
+        <v>6.9411118211180645</v>
+      </c>
+      <c r="L319" s="32">
+        <v>1.2272660168870608</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C320" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D320" s="28">
+        <v>20</v>
+      </c>
+      <c r="E320" s="30">
+        <v>0.23668275735590183</v>
+      </c>
+      <c r="F320" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G320" s="31">
+        <v>32.261122184317337</v>
+      </c>
+      <c r="H320" s="31">
+        <v>0.15607992407675783</v>
+      </c>
+      <c r="I320" s="31">
+        <v>0.3403357483472923</v>
+      </c>
+      <c r="J320" s="31">
+        <v>0</v>
+      </c>
+      <c r="K320" s="31">
+        <v>6.7605801973703716</v>
+      </c>
+      <c r="L320" s="32">
+        <v>6.9514255149537503</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B321" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C321" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321" s="30">
+        <v>0.18812798036978223</v>
+      </c>
+      <c r="F321" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G321" s="31">
+        <v>17.861694131624446</v>
+      </c>
+      <c r="H321" s="31">
+        <v>0</v>
+      </c>
+      <c r="I321" s="31">
+        <v>0.1755902540806758</v>
+      </c>
+      <c r="J321" s="31">
+        <v>4.5695049424848998E-2</v>
+      </c>
+      <c r="K321" s="31">
+        <v>0.12613375415336822</v>
+      </c>
+      <c r="L321" s="32">
+        <v>14.658929885116487</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>290</v>
+      </c>
+      <c r="B322" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D322" s="28">
+        <v>1</v>
+      </c>
+      <c r="E322" s="30">
+        <v>0.25153535009475225</v>
+      </c>
+      <c r="F322" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G322" s="31">
+        <v>20.045447010943903</v>
+      </c>
+      <c r="H322" s="31">
+        <v>0</v>
+      </c>
+      <c r="I322" s="31">
+        <v>0.22395067037701011</v>
+      </c>
+      <c r="J322" s="31">
+        <v>3.3556411465682778E-2</v>
+      </c>
+      <c r="K322" s="31">
+        <v>0</v>
+      </c>
+      <c r="L322" s="32">
+        <v>1.451492838814606</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>290</v>
+      </c>
+      <c r="B323" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C323" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D323" s="28">
+        <v>2</v>
+      </c>
+      <c r="E323" s="30">
+        <v>0.26743052687356489</v>
+      </c>
+      <c r="F323" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G323" s="31">
+        <v>23.645554341438793</v>
+      </c>
+      <c r="H323" s="31">
+        <v>0</v>
+      </c>
+      <c r="I323" s="31">
+        <v>0.21347681358722315</v>
+      </c>
+      <c r="J323" s="31">
+        <v>0.12532406160439261</v>
+      </c>
+      <c r="K323" s="31">
+        <v>0</v>
+      </c>
+      <c r="L323" s="32">
+        <v>0.97276962679320689</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B324" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C324" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D324" s="28">
+        <v>3</v>
+      </c>
+      <c r="E324" s="30">
+        <v>0.31915667139161252</v>
+      </c>
+      <c r="F324" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G324" s="31">
+        <v>23.409235173191995</v>
+      </c>
+      <c r="H324" s="31">
+        <v>0</v>
+      </c>
+      <c r="I324" s="31">
+        <v>0.24908494025822411</v>
+      </c>
+      <c r="J324" s="31">
+        <v>4.5558665221699809E-2</v>
+      </c>
+      <c r="K324" s="31">
+        <v>0</v>
+      </c>
+      <c r="L324" s="32">
+        <v>1.252013340080447</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B325" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C325" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D325" s="28">
+        <v>4</v>
+      </c>
+      <c r="E325" s="30">
+        <v>0.35485885520384608</v>
+      </c>
+      <c r="F325" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G325" s="31">
+        <v>25.425567769090193</v>
+      </c>
+      <c r="H325" s="31">
+        <v>0</v>
+      </c>
+      <c r="I325" s="31">
+        <v>0.25466976100643252</v>
+      </c>
+      <c r="J325" s="31">
+        <v>3.0419314088082027E-2</v>
+      </c>
+      <c r="K325" s="31">
+        <v>0</v>
+      </c>
+      <c r="L325" s="32">
+        <v>2.1547897236187068</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B326" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C326" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D326" s="28">
+        <v>5</v>
+      </c>
+      <c r="E326" s="30">
+        <v>0.34477006709878921</v>
+      </c>
+      <c r="F326" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G326" s="31">
+        <v>26.938894457905096</v>
+      </c>
+      <c r="H326" s="31">
+        <v>0</v>
+      </c>
+      <c r="I326" s="31">
+        <v>0.24891041125500632</v>
+      </c>
+      <c r="J326" s="31">
+        <v>4.4194816955953876E-2</v>
+      </c>
+      <c r="K326" s="31">
+        <v>0.52538459426032158</v>
+      </c>
+      <c r="L326" s="32">
+        <v>2.1076088089230169</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B327" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C327" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D327" s="28">
+        <v>6</v>
+      </c>
+      <c r="E327" s="30">
+        <v>0.21905822662078164</v>
+      </c>
+      <c r="F327" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G327" s="31">
+        <v>52.118714579700359</v>
+      </c>
+      <c r="H327" s="31">
+        <v>0</v>
+      </c>
+      <c r="I327" s="31">
+        <v>0.42787025602338918</v>
+      </c>
+      <c r="J327" s="31">
+        <v>0.10364807474783611</v>
+      </c>
+      <c r="K327" s="31">
+        <v>9.8389448788240728</v>
+      </c>
+      <c r="L327" s="32">
+        <v>1.3343250061960226</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B328" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C328" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D328" s="28">
+        <v>7</v>
+      </c>
+      <c r="E328" s="30">
+        <v>0.30113842649379197</v>
+      </c>
+      <c r="F328" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G328" s="31">
+        <v>31.103894867327593</v>
+      </c>
+      <c r="H328" s="31">
+        <v>0</v>
+      </c>
+      <c r="I328" s="31">
+        <v>0.28974465520844045</v>
+      </c>
+      <c r="J328" s="31">
+        <v>8.660519261377983E-2</v>
+      </c>
+      <c r="K328" s="31">
+        <v>3.2015570417879182</v>
+      </c>
+      <c r="L328" s="32">
+        <v>1.9936549555248788</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B329" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C329" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D329" s="28">
+        <v>8</v>
+      </c>
+      <c r="E329" s="30">
+        <v>0.27822502490087009</v>
+      </c>
+      <c r="F329" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G329" s="31">
+        <v>34.998744059852662</v>
+      </c>
+      <c r="H329" s="31">
+        <v>0</v>
+      </c>
+      <c r="I329" s="31">
+        <v>0.31329780859600009</v>
+      </c>
+      <c r="J329" s="31">
+        <v>0.10869242814934599</v>
+      </c>
+      <c r="K329" s="31">
+        <v>2.1352446537851826</v>
+      </c>
+      <c r="L329" s="32">
+        <v>3.3094042400113333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B330" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C330" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D330" s="28">
+        <v>9</v>
+      </c>
+      <c r="E330" s="30">
+        <v>0.26756988820965416</v>
+      </c>
+      <c r="F330" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G330" s="31">
+        <v>36.228029006364267</v>
+      </c>
+      <c r="H330" s="31">
+        <v>0</v>
+      </c>
+      <c r="I330" s="31">
+        <v>0.33859151254700515</v>
+      </c>
+      <c r="J330" s="31">
+        <v>0.31605810857579503</v>
+      </c>
+      <c r="K330" s="31">
+        <v>2.8602678228080287</v>
+      </c>
+      <c r="L330" s="32">
+        <v>2.9982273201547192</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B331" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C331" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D331" s="28">
+        <v>10</v>
+      </c>
+      <c r="E331" s="30">
+        <v>0.25963560419512238</v>
+      </c>
+      <c r="F331" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G331" s="31">
+        <v>39.155136922158768</v>
+      </c>
+      <c r="H331" s="31">
+        <v>0</v>
+      </c>
+      <c r="I331" s="31">
+        <v>0.33300982135275353</v>
+      </c>
+      <c r="J331" s="31">
+        <v>4.9922903500837314E-2</v>
+      </c>
+      <c r="K331" s="31">
+        <v>5.1093681723527062</v>
+      </c>
+      <c r="L331" s="32">
+        <v>1.8234767527586135</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C332" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D332" s="28">
+        <v>12</v>
+      </c>
+      <c r="E332" s="30">
+        <v>0.22790444011193395</v>
+      </c>
+      <c r="F332" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G332" s="31">
+        <v>42.671054553915575</v>
+      </c>
+      <c r="H332" s="31">
+        <v>0</v>
+      </c>
+      <c r="I332" s="31">
+        <v>0.3520216037364749</v>
+      </c>
+      <c r="J332" s="31">
+        <v>2.4690546762656199E-2</v>
+      </c>
+      <c r="K332" s="31">
+        <v>7.6970369425738303</v>
+      </c>
+      <c r="L332" s="32">
+        <v>1.1293407169555678</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C333" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D333" s="28">
+        <v>12</v>
+      </c>
+      <c r="E333" s="30">
+        <v>0.21869206542731492</v>
+      </c>
+      <c r="F333" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G333" s="31">
+        <v>40.992453736404613</v>
+      </c>
+      <c r="H333" s="31">
+        <v>0</v>
+      </c>
+      <c r="I333" s="31">
+        <v>0.34644041353111032</v>
+      </c>
+      <c r="J333" s="31">
+        <v>2.9055340003754329E-2</v>
+      </c>
+      <c r="K333" s="31">
+        <v>7.5004610676403622</v>
+      </c>
+      <c r="L333" s="32">
+        <v>1.0807110335970795</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B334" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C334" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D334" s="28">
+        <v>14</v>
+      </c>
+      <c r="E334" s="30">
+        <v>0.21297618575078431</v>
+      </c>
+      <c r="F334" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G334" s="31">
+        <v>46.024530302779979</v>
+      </c>
+      <c r="H334" s="31">
+        <v>0</v>
+      </c>
+      <c r="I334" s="31">
+        <v>0.38062193572509145</v>
+      </c>
+      <c r="J334" s="31">
+        <v>0.10542043281476188</v>
+      </c>
+      <c r="K334" s="31">
+        <v>8.7427126801042263</v>
+      </c>
+      <c r="L334" s="32">
+        <v>1.2930242077159235</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B335" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C335" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D335" s="28">
+        <v>16</v>
+      </c>
+      <c r="E335" s="30">
+        <v>0.21096660647404306</v>
+      </c>
+      <c r="F335" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G335" s="31">
+        <v>49.426567713203795</v>
+      </c>
+      <c r="H335" s="31">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31">
+        <v>0.40346339414571269</v>
+      </c>
+      <c r="J335" s="31">
+        <v>0.16403378823146431</v>
+      </c>
+      <c r="K335" s="31">
+        <v>10.626795331767157</v>
+      </c>
+      <c r="L335" s="32">
+        <v>1.1316092471322086</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B336" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C336" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D336" s="28">
+        <v>18</v>
+      </c>
+      <c r="E336" s="30">
+        <v>0.31962839555425482</v>
+      </c>
+      <c r="F336" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G336" s="31">
+        <v>29.893770794377158</v>
+      </c>
+      <c r="H336" s="31">
+        <v>0</v>
+      </c>
+      <c r="I336" s="31">
+        <v>0.27246998762914948</v>
+      </c>
+      <c r="J336" s="31">
+        <v>0.36329854758630548</v>
+      </c>
+      <c r="K336" s="31">
+        <v>3.614527935518284</v>
+      </c>
+      <c r="L336" s="32">
+        <v>1.2340692748162947</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C337" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D337" s="28">
+        <v>20</v>
+      </c>
+      <c r="E337" s="30">
+        <v>0.22212645546305609</v>
+      </c>
+      <c r="F337" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G337" s="31">
+        <v>55.980580518116383</v>
+      </c>
+      <c r="H337" s="31">
+        <v>0</v>
+      </c>
+      <c r="I337" s="31">
+        <v>0.47946021536877886</v>
+      </c>
+      <c r="J337" s="31">
+        <v>0.25423012293658653</v>
+      </c>
+      <c r="K337" s="31">
+        <v>9.8378268625025598</v>
+      </c>
+      <c r="L337" s="32">
+        <v>1.127565333235083</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B338" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C338" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338" s="30">
+        <v>0.15489395962651303</v>
+      </c>
+      <c r="F338" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G338" s="31">
+        <v>19.179036285848397</v>
+      </c>
+      <c r="H338" s="31">
+        <v>0</v>
+      </c>
+      <c r="I338" s="31">
+        <v>0.17855867121255584</v>
+      </c>
+      <c r="J338" s="31">
+        <v>8.8377734874575301E-2</v>
+      </c>
+      <c r="K338" s="31">
+        <v>5.6454754825250655</v>
+      </c>
+      <c r="L338" s="32">
+        <v>22.648353946756739</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>291</v>
+      </c>
+      <c r="B339" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D339" s="28">
+        <v>1</v>
+      </c>
+      <c r="E339" s="30">
+        <v>0.20307747500059842</v>
+      </c>
+      <c r="F339" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G339" s="31">
+        <v>19.886424694896547</v>
+      </c>
+      <c r="H339" s="31">
+        <v>0</v>
+      </c>
+      <c r="I339" s="31">
+        <v>0.18973336163593821</v>
+      </c>
+      <c r="J339" s="31">
+        <v>7.1605991286108256E-2</v>
+      </c>
+      <c r="K339" s="31">
+        <v>7.3449948760540673</v>
+      </c>
+      <c r="L339" s="32">
+        <v>16.445202398851606</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>291</v>
+      </c>
+      <c r="B340" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C340" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D340" s="28">
+        <v>2</v>
+      </c>
+      <c r="E340" s="30">
+        <v>0.21420995806357421</v>
+      </c>
+      <c r="F340" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G340" s="31">
+        <v>20.81917477059039</v>
+      </c>
+      <c r="H340" s="31">
+        <v>1.9822090217206399E-2</v>
+      </c>
+      <c r="I340" s="31">
+        <v>0.2054463610125748</v>
+      </c>
+      <c r="J340" s="31">
+        <v>7.9651187987954272E-2</v>
+      </c>
+      <c r="K340" s="31">
+        <v>8.376332207220063</v>
+      </c>
+      <c r="L340" s="32">
+        <v>17.895777019664486</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C341" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D341" s="28">
+        <v>3</v>
+      </c>
+      <c r="E341" s="30">
+        <v>0.214621320525335</v>
+      </c>
+      <c r="F341" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G341" s="31">
+        <v>21.711786019261506</v>
+      </c>
+      <c r="H341" s="31">
+        <v>0</v>
+      </c>
+      <c r="I341" s="31">
+        <v>0.21679361409845799</v>
+      </c>
+      <c r="J341" s="31">
+        <v>3.887570041354934E-2</v>
+      </c>
+      <c r="K341" s="31">
+        <v>9.2735975355880242</v>
+      </c>
+      <c r="L341" s="32">
+        <v>13.227315375096307</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A342" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C342" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D342" s="28">
+        <v>4</v>
+      </c>
+      <c r="E342" s="30">
+        <v>0.20863889190350748</v>
+      </c>
+      <c r="F342" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G342" s="31">
+        <v>23.356356370229069</v>
+      </c>
+      <c r="H342" s="31">
+        <v>0</v>
+      </c>
+      <c r="I342" s="31">
+        <v>0.23512197749881761</v>
+      </c>
+      <c r="J342" s="31">
+        <v>7.4196860415662938E-2</v>
+      </c>
+      <c r="K342" s="31">
+        <v>9.6292138988441458</v>
+      </c>
+      <c r="L342" s="32">
+        <v>6.5011681022555923</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C343" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D343" s="28">
+        <v>5</v>
+      </c>
+      <c r="E343" s="30">
+        <v>0.21352447065415531</v>
+      </c>
+      <c r="F343" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G343" s="31">
+        <v>25.089333634535222</v>
+      </c>
+      <c r="H343" s="31">
+        <v>0</v>
+      </c>
+      <c r="I343" s="31">
+        <v>0.24838682302541243</v>
+      </c>
+      <c r="J343" s="31">
+        <v>0.15149501874181276</v>
+      </c>
+      <c r="K343" s="31">
+        <v>11.04630133166199</v>
+      </c>
+      <c r="L343" s="32">
+        <v>8.3860579588442121</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A344" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C344" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D344" s="28">
+        <v>6</v>
+      </c>
+      <c r="E344" s="30">
+        <v>0.22817983896380567</v>
+      </c>
+      <c r="F344" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G344" s="31">
+        <v>27.560311529855205</v>
+      </c>
+      <c r="H344" s="31">
+        <v>0</v>
+      </c>
+      <c r="I344" s="31">
+        <v>0.26915441946111451</v>
+      </c>
+      <c r="J344" s="31">
+        <v>0.17602649609767804</v>
+      </c>
+      <c r="K344" s="31">
+        <v>11.557586693778278</v>
+      </c>
+      <c r="L344" s="32">
+        <v>9.7656795192747872</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C345" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D345" s="28">
+        <v>7</v>
+      </c>
+      <c r="E345" s="30">
+        <v>0.21768533608339366</v>
+      </c>
+      <c r="F345" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G345" s="31">
+        <v>28.778333541405541</v>
+      </c>
+      <c r="H345" s="31">
+        <v>0</v>
+      </c>
+      <c r="I345" s="31">
+        <v>0.26461720723434429</v>
+      </c>
+      <c r="J345" s="31">
+        <v>2.40085373338528E-2</v>
+      </c>
+      <c r="K345" s="31">
+        <v>12.222989187494306</v>
+      </c>
+      <c r="L345" s="32">
+        <v>9.0026740383772399</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A346" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C346" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D346" s="28">
+        <v>8</v>
+      </c>
+      <c r="E346" s="30">
+        <v>0.19479886952746051</v>
+      </c>
+      <c r="F346" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G346" s="31">
+        <v>25.953164413454633</v>
+      </c>
+      <c r="H346" s="31">
+        <v>0</v>
+      </c>
+      <c r="I346" s="31">
+        <v>0.24088185731437878</v>
+      </c>
+      <c r="J346" s="31">
+        <v>3.3283622769721209E-2</v>
+      </c>
+      <c r="K346" s="31">
+        <v>10.370173587501633</v>
+      </c>
+      <c r="L346" s="32">
+        <v>5.1383855987799274</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A347" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C347" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D347" s="28">
+        <v>9</v>
+      </c>
+      <c r="E347" s="30">
+        <v>0.18554507826430233</v>
+      </c>
+      <c r="F347" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G347" s="31">
+        <v>25.905742763919992</v>
+      </c>
+      <c r="H347" s="31">
+        <v>0</v>
+      </c>
+      <c r="I347" s="31">
+        <v>0.24245269519958873</v>
+      </c>
+      <c r="J347" s="31">
+        <v>9.8194545160063318E-2</v>
+      </c>
+      <c r="K347" s="31">
+        <v>9.9965262515949931</v>
+      </c>
+      <c r="L347" s="32">
+        <v>4.5343779104048467</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B348" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C348" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D348" s="28">
+        <v>10</v>
+      </c>
+      <c r="E348" s="30">
+        <v>0.22661955405938555</v>
+      </c>
+      <c r="F348" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G348" s="31">
+        <v>35.620538266071591</v>
+      </c>
+      <c r="H348" s="31">
+        <v>0</v>
+      </c>
+      <c r="I348" s="31">
+        <v>0.32638129263944188</v>
+      </c>
+      <c r="J348" s="31">
+        <v>2.946453341922841E-2</v>
+      </c>
+      <c r="K348" s="31">
+        <v>14.884615539305511</v>
+      </c>
+      <c r="L348" s="32">
+        <v>3.9165862475176541</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B349" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D349" s="28">
+        <v>12</v>
+      </c>
+      <c r="E349" s="30">
+        <v>0.20936897377493857</v>
+      </c>
+      <c r="F349" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G349" s="31">
+        <v>38.322317713650072</v>
+      </c>
+      <c r="H349" s="31">
+        <v>0</v>
+      </c>
+      <c r="I349" s="31">
+        <v>0.35097514643219518</v>
+      </c>
+      <c r="J349" s="31">
+        <v>7.2151440819148288E-2</v>
+      </c>
+      <c r="K349" s="31">
+        <v>16.21899410575859</v>
+      </c>
+      <c r="L349" s="32">
+        <v>2.4097287889367238</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B350" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C350" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D350" s="28">
+        <v>14</v>
+      </c>
+      <c r="E350" s="30">
+        <v>0.20476311477773165</v>
+      </c>
+      <c r="F350" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G350" s="31">
+        <v>40.454979951676428</v>
+      </c>
+      <c r="H350" s="31">
+        <v>5.6793357057654634E-2</v>
+      </c>
+      <c r="I350" s="31">
+        <v>0.36789197548350544</v>
+      </c>
+      <c r="J350" s="31">
+        <v>7.515138083274743E-2</v>
+      </c>
+      <c r="K350" s="31">
+        <v>16.689934463178531</v>
+      </c>
+      <c r="L350" s="32">
+        <v>2.0805746223471013</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B351" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C351" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D351" s="28">
+        <v>14</v>
+      </c>
+      <c r="E351" s="30">
+        <v>0.20932333879574433</v>
+      </c>
+      <c r="F351" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G351" s="31">
+        <v>41.222665083330234</v>
+      </c>
+      <c r="H351" s="31">
+        <v>5.3098920120544173E-2</v>
+      </c>
+      <c r="I351" s="31">
+        <v>0.37661124324486872</v>
+      </c>
+      <c r="J351" s="31">
+        <v>8.9741215886082568E-2</v>
+      </c>
+      <c r="K351" s="31">
+        <v>14.774927811253663</v>
+      </c>
+      <c r="L351" s="32">
+        <v>2.1075105073484739</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A352" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B352" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C352" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D352" s="28">
+        <v>16</v>
+      </c>
+      <c r="E352" s="30">
+        <v>0.21156021517389961</v>
+      </c>
+      <c r="F352" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G352" s="31">
+        <v>43.573716247192486</v>
+      </c>
+      <c r="H352" s="31">
+        <v>0</v>
+      </c>
+      <c r="I352" s="31">
+        <v>0.39788412331335693</v>
+      </c>
+      <c r="J352" s="31">
+        <v>0.11182802907927429</v>
+      </c>
+      <c r="K352" s="31">
+        <v>16.424017109234498</v>
+      </c>
+      <c r="L352" s="32">
+        <v>1.939267780504073</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A353" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B353" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C353" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D353" s="28">
+        <v>16</v>
+      </c>
+      <c r="E353" s="30">
+        <v>0.21384434662622609</v>
+      </c>
+      <c r="F353" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G353" s="31">
+        <v>44.160912418416416</v>
+      </c>
+      <c r="H353" s="31">
+        <v>0</v>
+      </c>
+      <c r="I353" s="31">
+        <v>0.40869377146027308</v>
+      </c>
+      <c r="J353" s="31">
+        <v>0.12123447209592542</v>
+      </c>
+      <c r="K353" s="31">
+        <v>16.073156070709292</v>
+      </c>
+      <c r="L353" s="32">
+        <v>1.9522508155328713</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A354" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B354" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C354" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D354" s="28">
+        <v>18</v>
+      </c>
+      <c r="E354" s="30">
+        <v>0.20754408027906951</v>
+      </c>
+      <c r="F354" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G354" s="31">
+        <v>45.550556900462894</v>
+      </c>
+      <c r="H354" s="31">
+        <v>0</v>
+      </c>
+      <c r="I354" s="31">
+        <v>0.41514431812886177</v>
+      </c>
+      <c r="J354" s="31">
+        <v>7.1333265839487806E-2</v>
+      </c>
+      <c r="K354" s="31">
+        <v>15.853927886225842</v>
+      </c>
+      <c r="L354" s="32">
+        <v>1.1309188267678474</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B355" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C355" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D355" s="28">
+        <v>20</v>
+      </c>
+      <c r="E355" s="30">
+        <v>0.21055571078634522</v>
+      </c>
+      <c r="F355" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G355" s="31">
+        <v>49.320372370002609</v>
+      </c>
+      <c r="H355" s="31">
+        <v>0</v>
+      </c>
+      <c r="I355" s="31">
+        <v>0.46656439563093721</v>
+      </c>
+      <c r="J355" s="31">
+        <v>0.24292424267075721</v>
+      </c>
+      <c r="K355" s="31">
+        <v>16.862063412035329</v>
+      </c>
+      <c r="L355" s="32">
+        <v>1.2214486127273814</v>
       </c>
     </row>
   </sheetData>

--- a/index/data/IC_raw_data.xlsx
+++ b/index/data/IC_raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1B57E-5A5D-4202-A8AB-D03A5227D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B97571-5BCA-4E99-9AAD-B25701BB3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="554">
   <si>
     <t>Core</t>
   </si>
@@ -1167,6 +1167,582 @@
   </si>
   <si>
     <t>BL-D1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-A2.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-A2.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-A3.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-A3.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-B2.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-B2.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-B3.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-B3.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-C2.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-C2.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-C3.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-C3.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-D2.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-D2.2-inc-21</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-10</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-11</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-12</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-13</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-14</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-15</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-16</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-17</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-18</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-19</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-20</t>
+  </si>
+  <si>
+    <t>BL-D3.1-inc-21</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-10</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-11</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-12</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-13</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-14</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-15</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-16</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-17</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-18</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-19</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-20</t>
+  </si>
+  <si>
+    <t>BL-D3.2-inc-21</t>
   </si>
 </sst>
 </file>
@@ -1656,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L355"/>
+  <dimension ref="A1:L570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15149,6 +15725,8176 @@
         <v>1.2214486127273814</v>
       </c>
     </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>288</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356" s="30">
+        <v>0.20413169923345081</v>
+      </c>
+      <c r="F356" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G356" s="31">
+        <v>21.520967384067408</v>
+      </c>
+      <c r="H356" s="31">
+        <v>7.3764115240380901E-2</v>
+      </c>
+      <c r="I356" s="31">
+        <v>0.18685611820420625</v>
+      </c>
+      <c r="J356" s="31">
+        <v>8.5937165367278183</v>
+      </c>
+      <c r="K356" s="31">
+        <v>0</v>
+      </c>
+      <c r="L356" s="32">
+        <v>82.549820830944654</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>288</v>
+      </c>
+      <c r="B357" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357" s="30">
+        <v>0.21395041219065253</v>
+      </c>
+      <c r="F357" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G357" s="31">
+        <v>24.228112814987746</v>
+      </c>
+      <c r="H357" s="31">
+        <v>5.8332667344359872E-2</v>
+      </c>
+      <c r="I357" s="31">
+        <v>0.20300478582000628</v>
+      </c>
+      <c r="J357" s="31">
+        <v>8.3567927847765446</v>
+      </c>
+      <c r="K357" s="31">
+        <v>0</v>
+      </c>
+      <c r="L357" s="32">
+        <v>84.102478332608769</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A358" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B358" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D358" s="28">
+        <v>0</v>
+      </c>
+      <c r="E358" s="30">
+        <v>0.2156525318833771</v>
+      </c>
+      <c r="F358" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G358" s="31">
+        <v>24.316057900008918</v>
+      </c>
+      <c r="H358" s="31">
+        <v>5.8558022742306419E-2</v>
+      </c>
+      <c r="I358" s="31">
+        <v>0.20980335285361681</v>
+      </c>
+      <c r="J358" s="31">
+        <v>7.2239727885657832</v>
+      </c>
+      <c r="K358" s="31">
+        <v>0</v>
+      </c>
+      <c r="L358" s="32">
+        <v>82.115460425907003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A359" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B359" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D359" s="28">
+        <v>0</v>
+      </c>
+      <c r="E359" s="30">
+        <v>0.22570651292361504</v>
+      </c>
+      <c r="F359" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G359" s="31">
+        <v>25.188144034109978</v>
+      </c>
+      <c r="H359" s="31">
+        <v>6.0473449373062309E-2</v>
+      </c>
+      <c r="I359" s="31">
+        <v>0.20759387524525691</v>
+      </c>
+      <c r="J359" s="31">
+        <v>7.447469822099281</v>
+      </c>
+      <c r="K359" s="31">
+        <v>0</v>
+      </c>
+      <c r="L359" s="32">
+        <v>84.707050830432195</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D360" s="28">
+        <v>0</v>
+      </c>
+      <c r="E360" s="30">
+        <v>0.23108235171718214</v>
+      </c>
+      <c r="F360" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G360" s="31">
+        <v>26.284904094239941</v>
+      </c>
+      <c r="H360" s="31">
+        <v>0</v>
+      </c>
+      <c r="I360" s="31">
+        <v>0.23546328631828964</v>
+      </c>
+      <c r="J360" s="31">
+        <v>7.2366431425413964</v>
+      </c>
+      <c r="K360" s="31">
+        <v>0</v>
+      </c>
+      <c r="L360" s="32">
+        <v>86.620829973787195</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B361" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D361" s="28">
+        <v>0</v>
+      </c>
+      <c r="E361" s="30">
+        <v>0.23838707996121247</v>
+      </c>
+      <c r="F361" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G361" s="31">
+        <v>26.2328418115905</v>
+      </c>
+      <c r="H361" s="31">
+        <v>0</v>
+      </c>
+      <c r="I361" s="31">
+        <v>0.2142221443351531</v>
+      </c>
+      <c r="J361" s="31">
+        <v>7.1825973157133101</v>
+      </c>
+      <c r="K361" s="31">
+        <v>0</v>
+      </c>
+      <c r="L361" s="32">
+        <v>86.512992324797196</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A362" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B362" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D362" s="28">
+        <v>0</v>
+      </c>
+      <c r="E362" s="30">
+        <v>0.22127352657868729</v>
+      </c>
+      <c r="F362" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G362" s="31">
+        <v>25.144761449223385</v>
+      </c>
+      <c r="H362" s="31">
+        <v>2.9467903521103716E-2</v>
+      </c>
+      <c r="I362" s="31">
+        <v>0.21371229492133448</v>
+      </c>
+      <c r="J362" s="31">
+        <v>6.9548073015486684</v>
+      </c>
+      <c r="K362" s="31">
+        <v>0</v>
+      </c>
+      <c r="L362" s="32">
+        <v>85.314142807281272</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A363" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B363" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D363" s="28">
+        <v>0</v>
+      </c>
+      <c r="E363" s="30">
+        <v>0.20459883066771184</v>
+      </c>
+      <c r="F363" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G363" s="31">
+        <v>19.548910622931714</v>
+      </c>
+      <c r="H363" s="31">
+        <v>0.15008384834185085</v>
+      </c>
+      <c r="I363" s="31">
+        <v>0.14859764768411846</v>
+      </c>
+      <c r="J363" s="31">
+        <v>1.5968574839893348</v>
+      </c>
+      <c r="K363" s="31">
+        <v>0</v>
+      </c>
+      <c r="L363" s="32">
+        <v>76.704872267072602</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A364" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B364" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D364" s="28">
+        <v>0</v>
+      </c>
+      <c r="E364" s="30">
+        <v>0.20702010365270401</v>
+      </c>
+      <c r="F364" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G364" s="31">
+        <v>20.050368061621345</v>
+      </c>
+      <c r="H364" s="31">
+        <v>0.2307180639609199</v>
+      </c>
+      <c r="I364" s="31">
+        <v>0.1676439077425621</v>
+      </c>
+      <c r="J364" s="31">
+        <v>3.1400014758380435</v>
+      </c>
+      <c r="K364" s="31">
+        <v>0</v>
+      </c>
+      <c r="L364" s="32">
+        <v>77.9641458077528</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B365" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D365" s="28">
+        <v>0</v>
+      </c>
+      <c r="E365" s="30">
+        <v>0.20769996499120208</v>
+      </c>
+      <c r="F365" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G365" s="31">
+        <v>20.603075146617854</v>
+      </c>
+      <c r="H365" s="31">
+        <v>0.36154779588255648</v>
+      </c>
+      <c r="I365" s="31">
+        <v>0.1696843381889942</v>
+      </c>
+      <c r="J365" s="31">
+        <v>5.5884612866138053</v>
+      </c>
+      <c r="K365" s="31">
+        <v>0</v>
+      </c>
+      <c r="L365" s="32">
+        <v>79.476700652504505</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D366" s="28">
+        <v>0</v>
+      </c>
+      <c r="E366" s="30">
+        <v>0.21258912232663638</v>
+      </c>
+      <c r="F366" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G366" s="31">
+        <v>21.365115472182509</v>
+      </c>
+      <c r="H366" s="31">
+        <v>0.53503002344831485</v>
+      </c>
+      <c r="I366" s="31">
+        <v>0.17818563114472064</v>
+      </c>
+      <c r="J366" s="31">
+        <v>8.1971488235771162</v>
+      </c>
+      <c r="K366" s="31">
+        <v>0</v>
+      </c>
+      <c r="L366" s="32">
+        <v>80.825404998636515</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D367" s="28">
+        <v>0</v>
+      </c>
+      <c r="E367" s="30">
+        <v>0.20493858939737775</v>
+      </c>
+      <c r="F367" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G367" s="31">
+        <v>21.404119690542014</v>
+      </c>
+      <c r="H367" s="31">
+        <v>0.12931647978936867</v>
+      </c>
+      <c r="I367" s="31">
+        <v>0.18345602731470118</v>
+      </c>
+      <c r="J367" s="31">
+        <v>8.4850195843864942</v>
+      </c>
+      <c r="K367" s="31">
+        <v>0</v>
+      </c>
+      <c r="L367" s="32">
+        <v>81.7775460004043</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A368" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D368" s="28">
+        <v>0</v>
+      </c>
+      <c r="E368" s="30">
+        <v>0.23112503947771859</v>
+      </c>
+      <c r="F368" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G368" s="31">
+        <v>27.90394564278051</v>
+      </c>
+      <c r="H368" s="31">
+        <v>3.2288413265187096E-2</v>
+      </c>
+      <c r="I368" s="31">
+        <v>0.21694129212059229</v>
+      </c>
+      <c r="J368" s="31">
+        <v>7.163084387622777</v>
+      </c>
+      <c r="K368" s="31">
+        <v>0</v>
+      </c>
+      <c r="L368" s="32">
+        <v>87.716637678365501</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A369" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D369" s="28">
+        <v>0</v>
+      </c>
+      <c r="E369" s="30">
+        <v>0.23202156383841793</v>
+      </c>
+      <c r="F369" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G369" s="31">
+        <v>28.412462654480873</v>
+      </c>
+      <c r="H369" s="31">
+        <v>2.3600074881378764E-2</v>
+      </c>
+      <c r="I369" s="31">
+        <v>0.22254927332372942</v>
+      </c>
+      <c r="J369" s="31">
+        <v>7.3963836953133972</v>
+      </c>
+      <c r="K369" s="31">
+        <v>0</v>
+      </c>
+      <c r="L369" s="32">
+        <v>88.461204172697435</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A370" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D370" s="28">
+        <v>0</v>
+      </c>
+      <c r="E370" s="30">
+        <v>0.19056108081865017</v>
+      </c>
+      <c r="F370" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G370" s="31">
+        <v>22.27344996463296</v>
+      </c>
+      <c r="H370" s="31">
+        <v>3.4206151545102238E-2</v>
+      </c>
+      <c r="I370" s="31">
+        <v>0.13311957846745626</v>
+      </c>
+      <c r="J370" s="31">
+        <v>5.6275514071055035</v>
+      </c>
+      <c r="K370" s="31">
+        <v>0</v>
+      </c>
+      <c r="L370" s="32">
+        <v>80.858330897160926</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A371" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D371" s="28">
+        <v>0</v>
+      </c>
+      <c r="E371" s="30">
+        <v>0.19386559371753317</v>
+      </c>
+      <c r="F371" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G371" s="31">
+        <v>23.51131440448609</v>
+      </c>
+      <c r="H371" s="31">
+        <v>6.2050732897843464E-2</v>
+      </c>
+      <c r="I371" s="31">
+        <v>0.13805244030728572</v>
+      </c>
+      <c r="J371" s="31">
+        <v>5.6653672989423489</v>
+      </c>
+      <c r="K371" s="31">
+        <v>0</v>
+      </c>
+      <c r="L371" s="32">
+        <v>85.742738077438446</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A372" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D372" s="28">
+        <v>0</v>
+      </c>
+      <c r="E372" s="30">
+        <v>0.20676517890489118</v>
+      </c>
+      <c r="F372" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G372" s="31">
+        <v>24.668798189119478</v>
+      </c>
+      <c r="H372" s="31">
+        <v>4.6272750276746231E-2</v>
+      </c>
+      <c r="I372" s="31">
+        <v>0.15591053019437387</v>
+      </c>
+      <c r="J372" s="31">
+        <v>6.4229519066187963</v>
+      </c>
+      <c r="K372" s="31">
+        <v>0</v>
+      </c>
+      <c r="L372" s="32">
+        <v>86.486700676281856</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A373" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D373" s="28">
+        <v>0</v>
+      </c>
+      <c r="E373" s="30">
+        <v>0.2095275392756312</v>
+      </c>
+      <c r="F373" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G373" s="31">
+        <v>26.00048156270401</v>
+      </c>
+      <c r="H373" s="31">
+        <v>2.1568535759645877E-2</v>
+      </c>
+      <c r="I373" s="31">
+        <v>0.15063851217411392</v>
+      </c>
+      <c r="J373" s="31">
+        <v>6.6684813918472079</v>
+      </c>
+      <c r="K373" s="31">
+        <v>0</v>
+      </c>
+      <c r="L373" s="32">
+        <v>89.87541093146433</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A374" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B374" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D374" s="28">
+        <v>0</v>
+      </c>
+      <c r="E374" s="30">
+        <v>0.19963243569758105</v>
+      </c>
+      <c r="F374" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G374" s="31">
+        <v>25.163291345359816</v>
+      </c>
+      <c r="H374" s="31">
+        <v>9.6272109001125789E-2</v>
+      </c>
+      <c r="I374" s="31">
+        <v>0.13669167796195203</v>
+      </c>
+      <c r="J374" s="31">
+        <v>6.2618798255611807</v>
+      </c>
+      <c r="K374" s="31">
+        <v>0</v>
+      </c>
+      <c r="L374" s="32">
+        <v>89.463174083433785</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B375" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D375" s="28">
+        <v>0</v>
+      </c>
+      <c r="E375" s="30">
+        <v>0.18941771040419891</v>
+      </c>
+      <c r="F375" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G375" s="31">
+        <v>20.197164449376682</v>
+      </c>
+      <c r="H375" s="31">
+        <v>0.16657124607151655</v>
+      </c>
+      <c r="I375" s="31">
+        <v>0.13397009126506132</v>
+      </c>
+      <c r="J375" s="31">
+        <v>4.8320563333975111</v>
+      </c>
+      <c r="K375" s="31">
+        <v>0</v>
+      </c>
+      <c r="L375" s="32">
+        <v>67.797630985768507</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A376" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B376" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D376" s="28">
+        <v>0</v>
+      </c>
+      <c r="E376" s="30">
+        <v>0.18717406357833152</v>
+      </c>
+      <c r="F376" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G376" s="31">
+        <v>20.586761880642353</v>
+      </c>
+      <c r="H376" s="31">
+        <v>0.32374117885098558</v>
+      </c>
+      <c r="I376" s="31">
+        <v>0.13567109263909041</v>
+      </c>
+      <c r="J376" s="31">
+        <v>6.5512870278464028</v>
+      </c>
+      <c r="K376" s="31">
+        <v>0</v>
+      </c>
+      <c r="L376" s="32">
+        <v>68.274298519932969</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A377" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D377" s="28">
+        <v>0</v>
+      </c>
+      <c r="E377" s="30">
+        <v>0.19310282355677683</v>
+      </c>
+      <c r="F377" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G377" s="31">
+        <v>21.083256726682073</v>
+      </c>
+      <c r="H377" s="31">
+        <v>5.2359898698258939E-2</v>
+      </c>
+      <c r="I377" s="31">
+        <v>0.13431029412345977</v>
+      </c>
+      <c r="J377" s="31">
+        <v>6.3632353962504222</v>
+      </c>
+      <c r="K377" s="31">
+        <v>0</v>
+      </c>
+      <c r="L377" s="32">
+        <v>70.52905800393799</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A378" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B378" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D378" s="28">
+        <v>0</v>
+      </c>
+      <c r="E378" s="30">
+        <v>0.19823252965873067</v>
+      </c>
+      <c r="F378" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G378" s="31">
+        <v>21.603184035208688</v>
+      </c>
+      <c r="H378" s="31">
+        <v>2.5518577096852967E-2</v>
+      </c>
+      <c r="I378" s="31">
+        <v>0.13107831481239798</v>
+      </c>
+      <c r="J378" s="31">
+        <v>6.4237028477534777</v>
+      </c>
+      <c r="K378" s="31">
+        <v>0</v>
+      </c>
+      <c r="L378" s="32">
+        <v>72.650628024332747</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A379" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B379" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D379" s="28">
+        <v>0</v>
+      </c>
+      <c r="E379" s="30">
+        <v>0.19920818122786499</v>
+      </c>
+      <c r="F379" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G379" s="31">
+        <v>22.393883685268772</v>
+      </c>
+      <c r="H379" s="31">
+        <v>5.1232777383102342E-2</v>
+      </c>
+      <c r="I379" s="31">
+        <v>0.13720196626357029</v>
+      </c>
+      <c r="J379" s="31">
+        <v>6.537160126744058</v>
+      </c>
+      <c r="K379" s="31">
+        <v>0</v>
+      </c>
+      <c r="L379" s="32">
+        <v>76.440701279190947</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A380" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B380" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D380" s="28">
+        <v>0</v>
+      </c>
+      <c r="E380" s="30">
+        <v>0.21114314716622629</v>
+      </c>
+      <c r="F380" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G380" s="31">
+        <v>26.317657355587855</v>
+      </c>
+      <c r="H380" s="31">
+        <v>7.3426317627034873E-2</v>
+      </c>
+      <c r="I380" s="31">
+        <v>0.15761111496408986</v>
+      </c>
+      <c r="J380" s="31">
+        <v>7.2868128727774586</v>
+      </c>
+      <c r="K380" s="31">
+        <v>0</v>
+      </c>
+      <c r="L380" s="32">
+        <v>91.68147073844122</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A381" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D381" s="28">
+        <v>0</v>
+      </c>
+      <c r="E381" s="30">
+        <v>0.21352497035127421</v>
+      </c>
+      <c r="F381" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G381" s="31">
+        <v>26.595278414381465</v>
+      </c>
+      <c r="H381" s="31">
+        <v>7.1962467274551065E-2</v>
+      </c>
+      <c r="I381" s="31">
+        <v>0.16339286161521249</v>
+      </c>
+      <c r="J381" s="31">
+        <v>7.366985630227088</v>
+      </c>
+      <c r="K381" s="31">
+        <v>0</v>
+      </c>
+      <c r="L381" s="32">
+        <v>92.334388319682134</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A382" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B382" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D382" s="28">
+        <v>0</v>
+      </c>
+      <c r="E382" s="30">
+        <v>0.21390786642120627</v>
+      </c>
+      <c r="F382" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G382" s="31">
+        <v>26.507657581453998</v>
+      </c>
+      <c r="H382" s="31">
+        <v>3.4657359570251497E-2</v>
+      </c>
+      <c r="I382" s="31">
+        <v>0.15301946196904279</v>
+      </c>
+      <c r="J382" s="31">
+        <v>7.6850930469226464</v>
+      </c>
+      <c r="K382" s="31">
+        <v>0</v>
+      </c>
+      <c r="L382" s="32">
+        <v>91.881391903256272</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A383" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B383" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D383" s="28">
+        <v>0</v>
+      </c>
+      <c r="E383" s="30">
+        <v>0.16555055034624155</v>
+      </c>
+      <c r="F383" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G383" s="31">
+        <v>16.85056312257305</v>
+      </c>
+      <c r="H383" s="31">
+        <v>0</v>
+      </c>
+      <c r="I383" s="31">
+        <v>0.144005532548938</v>
+      </c>
+      <c r="J383" s="31">
+        <v>4.3546506513148377E-2</v>
+      </c>
+      <c r="K383" s="31">
+        <v>0</v>
+      </c>
+      <c r="L383" s="32">
+        <v>60.788989428422916</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A384" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B384" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D384" s="28">
+        <v>0</v>
+      </c>
+      <c r="E384" s="30">
+        <v>0.17031498442120568</v>
+      </c>
+      <c r="F384" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G384" s="31">
+        <v>17.108399849096831</v>
+      </c>
+      <c r="H384" s="31">
+        <v>0</v>
+      </c>
+      <c r="I384" s="31">
+        <v>0.15369972171285559</v>
+      </c>
+      <c r="J384" s="31">
+        <v>9.2765610674660007E-2</v>
+      </c>
+      <c r="K384" s="31">
+        <v>0</v>
+      </c>
+      <c r="L384" s="32">
+        <v>58.621457479963844</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A385" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B385" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D385" s="28">
+        <v>0</v>
+      </c>
+      <c r="E385" s="30">
+        <v>0.17153844074820201</v>
+      </c>
+      <c r="F385" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G385" s="31">
+        <v>17.195183838471991</v>
+      </c>
+      <c r="H385" s="31">
+        <v>1.411794123406883E-2</v>
+      </c>
+      <c r="I385" s="31">
+        <v>0.16747386977285711</v>
+      </c>
+      <c r="J385" s="31">
+        <v>0.28164933075102749</v>
+      </c>
+      <c r="K385" s="31">
+        <v>0</v>
+      </c>
+      <c r="L385" s="32">
+        <v>54.077290330432767</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A386" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B386" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D386" s="28">
+        <v>0</v>
+      </c>
+      <c r="E386" s="30">
+        <v>0.17677311350165603</v>
+      </c>
+      <c r="F386" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G386" s="31">
+        <v>17.225019409188135</v>
+      </c>
+      <c r="H386" s="31">
+        <v>0</v>
+      </c>
+      <c r="I386" s="31">
+        <v>0.15403984964706752</v>
+      </c>
+      <c r="J386" s="31">
+        <v>0.11062242400109178</v>
+      </c>
+      <c r="K386" s="31">
+        <v>0</v>
+      </c>
+      <c r="L386" s="32">
+        <v>49.574482690233843</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A387" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B387" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D387" s="28">
+        <v>0</v>
+      </c>
+      <c r="E387" s="30">
+        <v>0.16222233491735011</v>
+      </c>
+      <c r="F387" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G387" s="31">
+        <v>19.037797581341355</v>
+      </c>
+      <c r="H387" s="31">
+        <v>0</v>
+      </c>
+      <c r="I387" s="31">
+        <v>0.16288272251606919</v>
+      </c>
+      <c r="J387" s="31">
+        <v>0.10837393356906201</v>
+      </c>
+      <c r="K387" s="31">
+        <v>0</v>
+      </c>
+      <c r="L387" s="32">
+        <v>49.611651062454392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A388" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B388" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D388" s="28">
+        <v>0</v>
+      </c>
+      <c r="E388" s="30">
+        <v>0.1595276714127829</v>
+      </c>
+      <c r="F388" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G388" s="31">
+        <v>16.581163992499608</v>
+      </c>
+      <c r="H388" s="31">
+        <v>0</v>
+      </c>
+      <c r="I388" s="31">
+        <v>0.13414019285573509</v>
+      </c>
+      <c r="J388" s="31">
+        <v>0.12067398684822879</v>
+      </c>
+      <c r="K388" s="31">
+        <v>0</v>
+      </c>
+      <c r="L388" s="32">
+        <v>72.584722733595214</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A389" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B389" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D389" s="28">
+        <v>0</v>
+      </c>
+      <c r="E389" s="30">
+        <v>0.16462348462908161</v>
+      </c>
+      <c r="F389" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G389" s="31">
+        <v>16.763737964121304</v>
+      </c>
+      <c r="H389" s="31">
+        <v>0</v>
+      </c>
+      <c r="I389" s="31">
+        <v>0.13958327324018152</v>
+      </c>
+      <c r="J389" s="31">
+        <v>0.10678673864225276</v>
+      </c>
+      <c r="K389" s="31">
+        <v>0</v>
+      </c>
+      <c r="L389" s="32">
+        <v>70.569930323221996</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A390" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B390" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D390" s="28">
+        <v>0</v>
+      </c>
+      <c r="E390" s="30">
+        <v>0.16352808136597355</v>
+      </c>
+      <c r="F390" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G390" s="31">
+        <v>16.60305632936014</v>
+      </c>
+      <c r="H390" s="31">
+        <v>9.4882614726500281E-3</v>
+      </c>
+      <c r="I390" s="31">
+        <v>0.13482059598893933</v>
+      </c>
+      <c r="J390" s="31">
+        <v>0.17118364159920002</v>
+      </c>
+      <c r="K390" s="31">
+        <v>0</v>
+      </c>
+      <c r="L390" s="32">
+        <v>67.744534832009066</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A391" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B391" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D391" s="28">
+        <v>0</v>
+      </c>
+      <c r="E391" s="30">
+        <v>0.16727871876914685</v>
+      </c>
+      <c r="F391" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G391" s="31">
+        <v>16.679864946025706</v>
+      </c>
+      <c r="H391" s="31">
+        <v>0</v>
+      </c>
+      <c r="I391" s="31">
+        <v>0.14689689175139009</v>
+      </c>
+      <c r="J391" s="31">
+        <v>0.10744807239725342</v>
+      </c>
+      <c r="K391" s="31">
+        <v>0</v>
+      </c>
+      <c r="L391" s="32">
+        <v>63.302249623010383</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A392" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B392" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D392" s="28">
+        <v>0</v>
+      </c>
+      <c r="E392" s="30">
+        <v>0.16947139408132389</v>
+      </c>
+      <c r="F392" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G392" s="31">
+        <v>17.066193073214794</v>
+      </c>
+      <c r="H392" s="31">
+        <v>0</v>
+      </c>
+      <c r="I392" s="31">
+        <v>0.15148885865294281</v>
+      </c>
+      <c r="J392" s="31">
+        <v>8.1521077233858513E-2</v>
+      </c>
+      <c r="K392" s="31">
+        <v>0</v>
+      </c>
+      <c r="L392" s="32">
+        <v>63.417323211750329</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A393" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B393" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D393" s="28">
+        <v>0</v>
+      </c>
+      <c r="E393" s="30">
+        <v>0.181505861483058</v>
+      </c>
+      <c r="F393" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G393" s="31">
+        <v>17.477029071390362</v>
+      </c>
+      <c r="H393" s="31">
+        <v>1.3779217443692818E-2</v>
+      </c>
+      <c r="I393" s="31">
+        <v>0.15795122804264411</v>
+      </c>
+      <c r="J393" s="31">
+        <v>0.1272864007529752</v>
+      </c>
+      <c r="K393" s="31">
+        <v>0</v>
+      </c>
+      <c r="L393" s="32">
+        <v>46.902826525577453</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A394" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B394" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D394" s="28">
+        <v>0</v>
+      </c>
+      <c r="E394" s="30">
+        <v>0.17626629549818881</v>
+      </c>
+      <c r="F394" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G394" s="31">
+        <v>17.310931163223724</v>
+      </c>
+      <c r="H394" s="31">
+        <v>0</v>
+      </c>
+      <c r="I394" s="31">
+        <v>0.16118223786056796</v>
+      </c>
+      <c r="J394" s="31">
+        <v>6.9217035545794475E-2</v>
+      </c>
+      <c r="K394" s="31">
+        <v>0</v>
+      </c>
+      <c r="L394" s="32">
+        <v>46.316582050518065</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A395" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B395" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D395" s="28">
+        <v>0</v>
+      </c>
+      <c r="E395" s="30">
+        <v>0.19327231817155896</v>
+      </c>
+      <c r="F395" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G395" s="31">
+        <v>16.281108087852303</v>
+      </c>
+      <c r="H395" s="31">
+        <v>0</v>
+      </c>
+      <c r="I395" s="31">
+        <v>0.14026363503590358</v>
+      </c>
+      <c r="J395" s="31">
+        <v>4.950149639894813E-2</v>
+      </c>
+      <c r="K395" s="31">
+        <v>0</v>
+      </c>
+      <c r="L395" s="32">
+        <v>77.0199617977581</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A396" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B396" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D396" s="28">
+        <v>0</v>
+      </c>
+      <c r="E396" s="30">
+        <v>0.19785080369403557</v>
+      </c>
+      <c r="F396" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G396" s="31">
+        <v>16.593607131864353</v>
+      </c>
+      <c r="H396" s="31">
+        <v>0</v>
+      </c>
+      <c r="I396" s="31">
+        <v>0.13294947493908799</v>
+      </c>
+      <c r="J396" s="31">
+        <v>4.0635071343898828E-2</v>
+      </c>
+      <c r="K396" s="31">
+        <v>0</v>
+      </c>
+      <c r="L396" s="32">
+        <v>75.92559641978896</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A397" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B397" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D397" s="28">
+        <v>0</v>
+      </c>
+      <c r="E397" s="30">
+        <v>0.20319756426261049</v>
+      </c>
+      <c r="F397" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G397" s="31">
+        <v>16.764265718699633</v>
+      </c>
+      <c r="H397" s="31">
+        <v>8.1330476642283035E-3</v>
+      </c>
+      <c r="I397" s="31">
+        <v>0.1502983713219388</v>
+      </c>
+      <c r="J397" s="31">
+        <v>0.24862594566407151</v>
+      </c>
+      <c r="K397" s="31">
+        <v>0</v>
+      </c>
+      <c r="L397" s="32">
+        <v>73.337277071207907</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A398" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B398" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D398" s="28">
+        <v>0</v>
+      </c>
+      <c r="E398" s="30">
+        <v>0.20468376823611703</v>
+      </c>
+      <c r="F398" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G398" s="31">
+        <v>16.585918307163833</v>
+      </c>
+      <c r="H398" s="31">
+        <v>0</v>
+      </c>
+      <c r="I398" s="31">
+        <v>0.14604650167443539</v>
+      </c>
+      <c r="J398" s="31">
+        <v>4.9236836411879308E-2</v>
+      </c>
+      <c r="K398" s="31">
+        <v>0</v>
+      </c>
+      <c r="L398" s="32">
+        <v>69.311242235544341</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A399" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B399" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D399" s="28">
+        <v>0</v>
+      </c>
+      <c r="E399" s="30">
+        <v>0.20476870721386312</v>
+      </c>
+      <c r="F399" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G399" s="31">
+        <v>16.871369448570888</v>
+      </c>
+      <c r="H399" s="31">
+        <v>1.0617542116735998E-2</v>
+      </c>
+      <c r="I399" s="31">
+        <v>0.14638665867406453</v>
+      </c>
+      <c r="J399" s="31">
+        <v>0.14077460196602171</v>
+      </c>
+      <c r="K399" s="31">
+        <v>0</v>
+      </c>
+      <c r="L399" s="32">
+        <v>70.112290740253101</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A400" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B400" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D400" s="28">
+        <v>0</v>
+      </c>
+      <c r="E400" s="30">
+        <v>0.122747744126514</v>
+      </c>
+      <c r="F400" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G400" s="31">
+        <v>10.680809008464854</v>
+      </c>
+      <c r="H400" s="31">
+        <v>0</v>
+      </c>
+      <c r="I400" s="31">
+        <v>8.9902905585033818E-2</v>
+      </c>
+      <c r="J400" s="31">
+        <v>0.10440590713294548</v>
+      </c>
+      <c r="K400" s="31">
+        <v>0</v>
+      </c>
+      <c r="L400" s="32">
+        <v>58.367319346308186</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A401" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B401" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D401" s="28">
+        <v>0</v>
+      </c>
+      <c r="E401" s="30">
+        <v>0.18890962822199336</v>
+      </c>
+      <c r="F401" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G401" s="31">
+        <v>16.402996834695632</v>
+      </c>
+      <c r="H401" s="31">
+        <v>0</v>
+      </c>
+      <c r="I401" s="31">
+        <v>0.13039788325967466</v>
+      </c>
+      <c r="J401" s="31">
+        <v>3.7855908721070641E-2</v>
+      </c>
+      <c r="K401" s="31">
+        <v>0</v>
+      </c>
+      <c r="L401" s="32">
+        <v>81.568159328956739</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A402" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B402" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D402" s="28">
+        <v>0</v>
+      </c>
+      <c r="E402" s="30">
+        <v>0.1920859742527149</v>
+      </c>
+      <c r="F402" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G402" s="31">
+        <v>16.522282794402912</v>
+      </c>
+      <c r="H402" s="31">
+        <v>0</v>
+      </c>
+      <c r="I402" s="31">
+        <v>0.14162434312579184</v>
+      </c>
+      <c r="J402" s="31">
+        <v>0.12781537821771757</v>
+      </c>
+      <c r="K402" s="31">
+        <v>0</v>
+      </c>
+      <c r="L402" s="32">
+        <v>82.187925803452273</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A403" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B403" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D403" s="28">
+        <v>0</v>
+      </c>
+      <c r="E403" s="30">
+        <v>0.18865560615699198</v>
+      </c>
+      <c r="F403" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G403" s="31">
+        <v>16.373736555188565</v>
+      </c>
+      <c r="H403" s="31">
+        <v>0</v>
+      </c>
+      <c r="I403" s="31">
+        <v>0.13635148414612783</v>
+      </c>
+      <c r="J403" s="31">
+        <v>0.13469187430603524</v>
+      </c>
+      <c r="K403" s="31">
+        <v>0</v>
+      </c>
+      <c r="L403" s="32">
+        <v>81.426136314347261</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A404" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B404" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D404" s="28">
+        <v>0</v>
+      </c>
+      <c r="E404" s="30">
+        <v>0.19628178567644256</v>
+      </c>
+      <c r="F404" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G404" s="31">
+        <v>16.492042580168505</v>
+      </c>
+      <c r="H404" s="31">
+        <v>0</v>
+      </c>
+      <c r="I404" s="31">
+        <v>0.15199906266485122</v>
+      </c>
+      <c r="J404" s="31">
+        <v>3.5870753442814277E-2</v>
+      </c>
+      <c r="K404" s="31">
+        <v>0</v>
+      </c>
+      <c r="L404" s="32">
+        <v>79.072241553728745</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A405" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B405" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D405" s="28">
+        <v>0</v>
+      </c>
+      <c r="E405" s="30">
+        <v>0.19657858992781699</v>
+      </c>
+      <c r="F405" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G405" s="31">
+        <v>16.440358837470175</v>
+      </c>
+      <c r="H405" s="31">
+        <v>0</v>
+      </c>
+      <c r="I405" s="31">
+        <v>0.13209895245301057</v>
+      </c>
+      <c r="J405" s="31">
+        <v>3.1635646561948075E-2</v>
+      </c>
+      <c r="K405" s="31">
+        <v>0</v>
+      </c>
+      <c r="L405" s="32">
+        <v>78.037305087602718</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A406" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B406" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D406" s="28">
+        <v>0</v>
+      </c>
+      <c r="E406" s="30">
+        <v>0.20192401866929308</v>
+      </c>
+      <c r="F406" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G406" s="31">
+        <v>16.7713023058899</v>
+      </c>
+      <c r="H406" s="31">
+        <v>0</v>
+      </c>
+      <c r="I406" s="31">
+        <v>0.15148885865294281</v>
+      </c>
+      <c r="J406" s="31">
+        <v>6.3924589209179192E-2</v>
+      </c>
+      <c r="K406" s="31">
+        <v>0</v>
+      </c>
+      <c r="L406" s="32">
+        <v>68.552954259678856</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A407" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B407" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D407" s="28">
+        <v>0</v>
+      </c>
+      <c r="E407" s="30">
+        <v>0.2038769182384042</v>
+      </c>
+      <c r="F407" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G407" s="31">
+        <v>17.443085019751202</v>
+      </c>
+      <c r="H407" s="31">
+        <v>0</v>
+      </c>
+      <c r="I407" s="31">
+        <v>0.15506022569892536</v>
+      </c>
+      <c r="J407" s="31">
+        <v>9.6734019608578387E-2</v>
+      </c>
+      <c r="K407" s="31">
+        <v>0</v>
+      </c>
+      <c r="L407" s="32">
+        <v>68.721255834856137</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>289</v>
+      </c>
+      <c r="B408" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D408" s="28">
+        <v>0</v>
+      </c>
+      <c r="E408" s="30">
+        <v>0.18112538807003914</v>
+      </c>
+      <c r="F408" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G408" s="31">
+        <v>26.513267113137278</v>
+      </c>
+      <c r="H408" s="31">
+        <v>5.8896051462208138E-2</v>
+      </c>
+      <c r="I408" s="31">
+        <v>0.11236456431937086</v>
+      </c>
+      <c r="J408" s="31">
+        <v>5.0813033214519931</v>
+      </c>
+      <c r="K408" s="31">
+        <v>8.3485117502470382E-2</v>
+      </c>
+      <c r="L408" s="32">
+        <v>107.92560420376876</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>289</v>
+      </c>
+      <c r="B409" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D409" s="28">
+        <v>0</v>
+      </c>
+      <c r="E409" s="30">
+        <v>0.18501601706340184</v>
+      </c>
+      <c r="F409" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G409" s="31">
+        <v>28.201951348920513</v>
+      </c>
+      <c r="H409" s="31">
+        <v>4.1198826617776588E-2</v>
+      </c>
+      <c r="I409" s="31">
+        <v>0.12223230158654314</v>
+      </c>
+      <c r="J409" s="31">
+        <v>5.2700533185346288</v>
+      </c>
+      <c r="K409" s="31">
+        <v>4.9901030824345521E-2</v>
+      </c>
+      <c r="L409" s="32">
+        <v>111.10424956588933</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A410" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B410" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D410" s="28">
+        <v>0</v>
+      </c>
+      <c r="E410" s="30">
+        <v>0.18357782851116247</v>
+      </c>
+      <c r="F410" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G410" s="31">
+        <v>27.926362727341306</v>
+      </c>
+      <c r="H410" s="31">
+        <v>0</v>
+      </c>
+      <c r="I410" s="31">
+        <v>0.11236456431937086</v>
+      </c>
+      <c r="J410" s="31">
+        <v>5.0237661808375549</v>
+      </c>
+      <c r="K410" s="31">
+        <v>7.1038350919644375E-2</v>
+      </c>
+      <c r="L410" s="32">
+        <v>109.86342465065455</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A411" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B411" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D411" s="28">
+        <v>0</v>
+      </c>
+      <c r="E411" s="30">
+        <v>0.1967906035345694</v>
+      </c>
+      <c r="F411" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G411" s="31">
+        <v>29.911343302015901</v>
+      </c>
+      <c r="H411" s="31">
+        <v>0</v>
+      </c>
+      <c r="I411" s="31">
+        <v>0.12325303998726866</v>
+      </c>
+      <c r="J411" s="31">
+        <v>5.2193212341659807</v>
+      </c>
+      <c r="K411" s="31">
+        <v>8.6124467999088572E-2</v>
+      </c>
+      <c r="L411" s="32">
+        <v>116.47729967562429</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A412" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B412" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D412" s="28">
+        <v>0</v>
+      </c>
+      <c r="E412" s="30">
+        <v>0.1909422613684382</v>
+      </c>
+      <c r="F412" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G412" s="31">
+        <v>29.253864864542145</v>
+      </c>
+      <c r="H412" s="31">
+        <v>0</v>
+      </c>
+      <c r="I412" s="31">
+        <v>0.12410364644010688</v>
+      </c>
+      <c r="J412" s="31">
+        <v>5.2450064729300871</v>
+      </c>
+      <c r="K412" s="31">
+        <v>5.8584795838135383E-2</v>
+      </c>
+      <c r="L412" s="32">
+        <v>115.10196783025894</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A413" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B413" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D413" s="28">
+        <v>0</v>
+      </c>
+      <c r="E413" s="30">
+        <v>0.16289622628802713</v>
+      </c>
+      <c r="F413" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G413" s="31">
+        <v>23.148814113761293</v>
+      </c>
+      <c r="H413" s="31">
+        <v>0.13695221250338402</v>
+      </c>
+      <c r="I413" s="31">
+        <v>5.5518866793983206E-2</v>
+      </c>
+      <c r="J413" s="31">
+        <v>3.9017131433729495</v>
+      </c>
+      <c r="K413" s="31">
+        <v>0</v>
+      </c>
+      <c r="L413" s="32">
+        <v>99.12348226426947</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A414" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B414" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D414" s="28">
+        <v>0</v>
+      </c>
+      <c r="E414" s="30">
+        <v>0.16812194268040886</v>
+      </c>
+      <c r="F414" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G414" s="31">
+        <v>24.03022915852732</v>
+      </c>
+      <c r="H414" s="31">
+        <v>9.6834509748907574E-2</v>
+      </c>
+      <c r="I414" s="31">
+        <v>7.5606192960038995E-2</v>
+      </c>
+      <c r="J414" s="31">
+        <v>4.4315877607474032</v>
+      </c>
+      <c r="K414" s="31">
+        <v>0</v>
+      </c>
+      <c r="L414" s="32">
+        <v>101.10623720815737</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A415" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B415" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D415" s="28">
+        <v>0</v>
+      </c>
+      <c r="E415" s="30">
+        <v>0.16601414715366236</v>
+      </c>
+      <c r="F415" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G415" s="31">
+        <v>24.10199774394848</v>
+      </c>
+      <c r="H415" s="31">
+        <v>8.7271712788411879E-2</v>
+      </c>
+      <c r="I415" s="31">
+        <v>7.9691200519089345E-2</v>
+      </c>
+      <c r="J415" s="31">
+        <v>4.4844635900428145</v>
+      </c>
+      <c r="K415" s="31">
+        <v>0</v>
+      </c>
+      <c r="L415" s="32">
+        <v>100.62082915835374</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A416" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B416" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D416" s="28">
+        <v>0</v>
+      </c>
+      <c r="E416" s="30">
+        <v>0.17250897887641403</v>
+      </c>
+      <c r="F416" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G416" s="31">
+        <v>25.60272197661028</v>
+      </c>
+      <c r="H416" s="31">
+        <v>4.6272750276746231E-2</v>
+      </c>
+      <c r="I416" s="31">
+        <v>9.2966190394563053E-2</v>
+      </c>
+      <c r="J416" s="31">
+        <v>4.8768732235131829</v>
+      </c>
+      <c r="K416" s="31">
+        <v>7.5565233304982438E-2</v>
+      </c>
+      <c r="L416" s="32">
+        <v>104.65988805282942</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A417" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B417" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D417" s="28">
+        <v>0</v>
+      </c>
+      <c r="E417" s="30">
+        <v>0.1766041685298036</v>
+      </c>
+      <c r="F417" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G417" s="31">
+        <v>25.612102144101662</v>
+      </c>
+      <c r="H417" s="31">
+        <v>6.0811448329240937E-2</v>
+      </c>
+      <c r="I417" s="31">
+        <v>9.4157439562446585E-2</v>
+      </c>
+      <c r="J417" s="31">
+        <v>4.9352477445496374</v>
+      </c>
+      <c r="K417" s="31">
+        <v>4.612445225794342E-2</v>
+      </c>
+      <c r="L417" s="32">
+        <v>105.60949680946071</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A418" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B418" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D418" s="28">
+        <v>0</v>
+      </c>
+      <c r="E418" s="30">
+        <v>0.19670579703486282</v>
+      </c>
+      <c r="F418" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G418" s="31">
+        <v>30.059398760114075</v>
+      </c>
+      <c r="H418" s="31">
+        <v>0</v>
+      </c>
+      <c r="I418" s="31">
+        <v>0.13379998935143844</v>
+      </c>
+      <c r="J418" s="31">
+        <v>5.2840922472651863</v>
+      </c>
+      <c r="K418" s="31">
+        <v>5.2921844851107992E-2</v>
+      </c>
+      <c r="L418" s="32">
+        <v>116.95478501192704</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A419" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B419" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D419" s="28">
+        <v>0</v>
+      </c>
+      <c r="E419" s="30">
+        <v>0.19776597957756839</v>
+      </c>
+      <c r="F419" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G419" s="31">
+        <v>30.371114577892968</v>
+      </c>
+      <c r="H419" s="31">
+        <v>0</v>
+      </c>
+      <c r="I419" s="31">
+        <v>0.13805244030728572</v>
+      </c>
+      <c r="J419" s="31">
+        <v>5.5005207180331208</v>
+      </c>
+      <c r="K419" s="31">
+        <v>6.3114146768449078E-2</v>
+      </c>
+      <c r="L419" s="32">
+        <v>119.59423025840893</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A420" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B420" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D420" s="28">
+        <v>0</v>
+      </c>
+      <c r="E420" s="30">
+        <v>0.18154813806840281</v>
+      </c>
+      <c r="F420" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G420" s="31">
+        <v>22.698444186025359</v>
+      </c>
+      <c r="H420" s="31">
+        <v>4.9091086101839924E-2</v>
+      </c>
+      <c r="I420" s="31">
+        <v>8.071242334343473E-2</v>
+      </c>
+      <c r="J420" s="31">
+        <v>7.3904303140156724</v>
+      </c>
+      <c r="K420" s="31">
+        <v>0.4010007401854549</v>
+      </c>
+      <c r="L420" s="32">
+        <v>108.51071120911712</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A421" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B421" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D421" s="28">
+        <v>0</v>
+      </c>
+      <c r="E421" s="30">
+        <v>0.18167496993844851</v>
+      </c>
+      <c r="F421" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G421" s="31">
+        <v>23.481077999174659</v>
+      </c>
+      <c r="H421" s="31">
+        <v>5.7205855338482339E-2</v>
+      </c>
+      <c r="I421" s="31">
+        <v>0.10317638405881348</v>
+      </c>
+      <c r="J421" s="31">
+        <v>7.6190232261934403</v>
+      </c>
+      <c r="K421" s="31">
+        <v>0.38910040575457866</v>
+      </c>
+      <c r="L421" s="32">
+        <v>112.25109454800905</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A422" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B422" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D422" s="28">
+        <v>0</v>
+      </c>
+      <c r="E422" s="30">
+        <v>0.19556104722805911</v>
+      </c>
+      <c r="F422" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G422" s="31">
+        <v>24.53243990907227</v>
+      </c>
+      <c r="H422" s="31">
+        <v>3.567254348609615E-2</v>
+      </c>
+      <c r="I422" s="31">
+        <v>7.1520999382318623E-2</v>
+      </c>
+      <c r="J422" s="31">
+        <v>7.6004568551586198</v>
+      </c>
+      <c r="K422" s="31">
+        <v>0.48523548860908866</v>
+      </c>
+      <c r="L422" s="32">
+        <v>115.48271837656964</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A423" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B423" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D423" s="28">
+        <v>0</v>
+      </c>
+      <c r="E423" s="30">
+        <v>0.18717406357833152</v>
+      </c>
+      <c r="F423" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G423" s="31">
+        <v>24.741707044283853</v>
+      </c>
+      <c r="H423" s="31">
+        <v>3.8717811602857241E-2</v>
+      </c>
+      <c r="I423" s="31">
+        <v>7.6967882815130229E-2</v>
+      </c>
+      <c r="J423" s="31">
+        <v>7.6395662100809343</v>
+      </c>
+      <c r="K423" s="31">
+        <v>0.5037462295849251</v>
+      </c>
+      <c r="L423" s="32">
+        <v>116.63652417951445</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A424" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B424" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D424" s="28">
+        <v>0</v>
+      </c>
+      <c r="E424" s="30">
+        <v>0.19810528449948209</v>
+      </c>
+      <c r="F424" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G424" s="31">
+        <v>25.733049205897295</v>
+      </c>
+      <c r="H424" s="31">
+        <v>0</v>
+      </c>
+      <c r="I424" s="31">
+        <v>8.4627003133240591E-2</v>
+      </c>
+      <c r="J424" s="31">
+        <v>5.5063267125902762</v>
+      </c>
+      <c r="K424" s="31">
+        <v>0.40917851728921878</v>
+      </c>
+      <c r="L424" s="32">
+        <v>116.37143144454531</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A425" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B425" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D425" s="28">
+        <v>0</v>
+      </c>
+      <c r="E425" s="30">
+        <v>0.20880493204128681</v>
+      </c>
+      <c r="F425" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G425" s="31">
+        <v>26.964642321564462</v>
+      </c>
+      <c r="H425" s="31">
+        <v>0</v>
+      </c>
+      <c r="I425" s="31">
+        <v>8.9222161417601129E-2</v>
+      </c>
+      <c r="J425" s="31">
+        <v>4.9119016150684578</v>
+      </c>
+      <c r="K425" s="31">
+        <v>0.50448633507158802</v>
+      </c>
+      <c r="L425" s="32">
+        <v>122.92734025964921</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A426" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B426" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D426" s="28">
+        <v>0</v>
+      </c>
+      <c r="E426" s="30">
+        <v>0.22294412595433835</v>
+      </c>
+      <c r="F426" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G426" s="31">
+        <v>18.707609531735102</v>
+      </c>
+      <c r="H426" s="31">
+        <v>2.702421042258063E-2</v>
+      </c>
+      <c r="I426" s="31">
+        <v>0.18320819081950968</v>
+      </c>
+      <c r="J426" s="31">
+        <v>0.23020723673888338</v>
+      </c>
+      <c r="K426" s="31">
+        <v>0</v>
+      </c>
+      <c r="L426" s="32">
+        <v>31.028068348239639</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A427" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B427" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D427" s="28">
+        <v>0</v>
+      </c>
+      <c r="E427" s="30">
+        <v>0.22277001241158356</v>
+      </c>
+      <c r="F427" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G427" s="31">
+        <v>18.840192431334909</v>
+      </c>
+      <c r="H427" s="31">
+        <v>0</v>
+      </c>
+      <c r="I427" s="31">
+        <v>0.18886645691038631</v>
+      </c>
+      <c r="J427" s="31">
+        <v>0.17625254694294559</v>
+      </c>
+      <c r="K427" s="31">
+        <v>0</v>
+      </c>
+      <c r="L427" s="32">
+        <v>24.602455384320244</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B428" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D428" s="28">
+        <v>0</v>
+      </c>
+      <c r="E428" s="30">
+        <v>0.21637653189723491</v>
+      </c>
+      <c r="F428" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G428" s="31">
+        <v>18.57565899980461</v>
+      </c>
+      <c r="H428" s="31">
+        <v>8.8918222908362706E-3</v>
+      </c>
+      <c r="I428" s="31">
+        <v>0.16658490370710929</v>
+      </c>
+      <c r="J428" s="31">
+        <v>0.1810832777891733</v>
+      </c>
+      <c r="K428" s="31">
+        <v>0</v>
+      </c>
+      <c r="L428" s="32">
+        <v>23.957409599962407</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B429" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D429" s="28">
+        <v>0</v>
+      </c>
+      <c r="E429" s="30">
+        <v>0.21259739728093224</v>
+      </c>
+      <c r="F429" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G429" s="31">
+        <v>17.855750737300237</v>
+      </c>
+      <c r="H429" s="31">
+        <v>1.3883503419706875E-2</v>
+      </c>
+      <c r="I429" s="31">
+        <v>0.16623118221076924</v>
+      </c>
+      <c r="J429" s="31">
+        <v>0.17183570199729506</v>
+      </c>
+      <c r="K429" s="31">
+        <v>3.4124733709766659E-2</v>
+      </c>
+      <c r="L429" s="32">
+        <v>23.18255255183006</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B430" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D430" s="28">
+        <v>0</v>
+      </c>
+      <c r="E430" s="30">
+        <v>0.19773255038857207</v>
+      </c>
+      <c r="F430" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G430" s="31">
+        <v>17.402930675119375</v>
+      </c>
+      <c r="H430" s="31">
+        <v>2.3861781573492731E-2</v>
+      </c>
+      <c r="I430" s="31">
+        <v>0.14925085809786282</v>
+      </c>
+      <c r="J430" s="31">
+        <v>0.21710035911661837</v>
+      </c>
+      <c r="K430" s="31">
+        <v>0</v>
+      </c>
+      <c r="L430" s="32">
+        <v>61.90058203897955</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B431" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D431" s="28">
+        <v>0</v>
+      </c>
+      <c r="E431" s="30">
+        <v>0.19967961217804614</v>
+      </c>
+      <c r="F431" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G431" s="31">
+        <v>17.310566961380861</v>
+      </c>
+      <c r="H431" s="31">
+        <v>2.3740136084647274E-2</v>
+      </c>
+      <c r="I431" s="31">
+        <v>0.14553597023886897</v>
+      </c>
+      <c r="J431" s="31">
+        <v>0.20799365237954995</v>
+      </c>
+      <c r="K431" s="31">
+        <v>0</v>
+      </c>
+      <c r="L431" s="32">
+        <v>61.741476244192555</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B432" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D432" s="28">
+        <v>0</v>
+      </c>
+      <c r="E432" s="30">
+        <v>0.19794884380466712</v>
+      </c>
+      <c r="F432" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G432" s="31">
+        <v>24.593019650307905</v>
+      </c>
+      <c r="H432" s="31">
+        <v>0</v>
+      </c>
+      <c r="I432" s="31">
+        <v>7.810974009642016E-2</v>
+      </c>
+      <c r="J432" s="31">
+        <v>8.30021732664013</v>
+      </c>
+      <c r="K432" s="31">
+        <v>0.46815169167433018</v>
+      </c>
+      <c r="L432" s="32">
+        <v>119.72530313629017</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B433" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D433" s="28">
+        <v>0</v>
+      </c>
+      <c r="E433" s="30">
+        <v>0.19289064307286799</v>
+      </c>
+      <c r="F433" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G433" s="31">
+        <v>24.599834118843482</v>
+      </c>
+      <c r="H433" s="31">
+        <v>0</v>
+      </c>
+      <c r="I433" s="31">
+        <v>9.4926941973617951E-2</v>
+      </c>
+      <c r="J433" s="31">
+        <v>8.1512976131409509</v>
+      </c>
+      <c r="K433" s="31">
+        <v>0.45539244375025234</v>
+      </c>
+      <c r="L433" s="32">
+        <v>120.50661870140911</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B434" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D434" s="28">
+        <v>0</v>
+      </c>
+      <c r="E434" s="30">
+        <v>0.21225006842394267</v>
+      </c>
+      <c r="F434" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G434" s="31">
+        <v>28.800466233638055</v>
+      </c>
+      <c r="H434" s="31">
+        <v>4.2461664343508752E-2</v>
+      </c>
+      <c r="I434" s="31">
+        <v>0.11634204518854038</v>
+      </c>
+      <c r="J434" s="31">
+        <v>5.183731980361113</v>
+      </c>
+      <c r="K434" s="31">
+        <v>0.44143412494957757</v>
+      </c>
+      <c r="L434" s="32">
+        <v>135.79608447615723</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B435" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D435" s="28">
+        <v>0</v>
+      </c>
+      <c r="E435" s="30">
+        <v>0.21190276950790379</v>
+      </c>
+      <c r="F435" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G435" s="31">
+        <v>29.036688417264866</v>
+      </c>
+      <c r="H435" s="31">
+        <v>0</v>
+      </c>
+      <c r="I435" s="31">
+        <v>0.11315666084801039</v>
+      </c>
+      <c r="J435" s="31">
+        <v>5.3271488482516949</v>
+      </c>
+      <c r="K435" s="31">
+        <v>0.43545106357112801</v>
+      </c>
+      <c r="L435" s="32">
+        <v>137.84439080941169</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B436" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D436" s="28">
+        <v>0</v>
+      </c>
+      <c r="E436" s="30">
+        <v>0.16494904682304462</v>
+      </c>
+      <c r="F436" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G436" s="31">
+        <v>23.95919424668811</v>
+      </c>
+      <c r="H436" s="31">
+        <v>0</v>
+      </c>
+      <c r="I436" s="31">
+        <v>0.16039456976251545</v>
+      </c>
+      <c r="J436" s="31">
+        <v>0.2055098804439662</v>
+      </c>
+      <c r="K436" s="31">
+        <v>0.55102525184819684</v>
+      </c>
+      <c r="L436" s="32">
+        <v>86.89879698052647</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B437" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D437" s="28">
+        <v>0</v>
+      </c>
+      <c r="E437" s="30">
+        <v>0.15946148764436843</v>
+      </c>
+      <c r="F437" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G437" s="31">
+        <v>23.077737736730608</v>
+      </c>
+      <c r="H437" s="31">
+        <v>0</v>
+      </c>
+      <c r="I437" s="31">
+        <v>0.15314247521449148</v>
+      </c>
+      <c r="J437" s="31">
+        <v>0.18536175644548802</v>
+      </c>
+      <c r="K437" s="31">
+        <v>0.6604298875797151</v>
+      </c>
+      <c r="L437" s="32">
+        <v>82.538701491380209</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B438" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D438" s="28">
+        <v>0</v>
+      </c>
+      <c r="E438" s="30">
+        <v>0.16615047212832157</v>
+      </c>
+      <c r="F438" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G438" s="31">
+        <v>23.743476885947683</v>
+      </c>
+      <c r="H438" s="31">
+        <v>0</v>
+      </c>
+      <c r="I438" s="31">
+        <v>0.16746920115224292</v>
+      </c>
+      <c r="J438" s="31">
+        <v>0.20923551831532569</v>
+      </c>
+      <c r="K438" s="31">
+        <v>0.91313450380422556</v>
+      </c>
+      <c r="L438" s="32">
+        <v>77.140089386986375</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B439" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D439" s="28">
+        <v>0</v>
+      </c>
+      <c r="E439" s="30">
+        <v>0.16087551567574315</v>
+      </c>
+      <c r="F439" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G439" s="31">
+        <v>23.067187245979767</v>
+      </c>
+      <c r="H439" s="31">
+        <v>0</v>
+      </c>
+      <c r="I439" s="31">
+        <v>0.16746920115224292</v>
+      </c>
+      <c r="J439" s="31">
+        <v>0.29365107187482425</v>
+      </c>
+      <c r="K439" s="31">
+        <v>1.0614330343335638</v>
+      </c>
+      <c r="L439" s="32">
+        <v>74.005147924558898</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B440" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D440" s="28">
+        <v>0</v>
+      </c>
+      <c r="E440" s="30">
+        <v>0.16615047212832157</v>
+      </c>
+      <c r="F440" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G440" s="31">
+        <v>23.699485710575015</v>
+      </c>
+      <c r="H440" s="31">
+        <v>0</v>
+      </c>
+      <c r="I440" s="31">
+        <v>0.16375509144380368</v>
+      </c>
+      <c r="J440" s="31">
+        <v>0.17694266371499162</v>
+      </c>
+      <c r="K440" s="31">
+        <v>1.2243578770162489</v>
+      </c>
+      <c r="L440" s="32">
+        <v>74.141283695116854</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B441" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D441" s="28">
+        <v>0</v>
+      </c>
+      <c r="E441" s="30">
+        <v>0.16340489608194336</v>
+      </c>
+      <c r="F441" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G441" s="31">
+        <v>24.645765871178209</v>
+      </c>
+      <c r="H441" s="31">
+        <v>1.0718243683467155E-2</v>
+      </c>
+      <c r="I441" s="31">
+        <v>0.12483583357767518</v>
+      </c>
+      <c r="J441" s="31">
+        <v>7.9871794577129965E-2</v>
+      </c>
+      <c r="K441" s="31">
+        <v>0.30368333625763794</v>
+      </c>
+      <c r="L441" s="32">
+        <v>94.319674827576861</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B442" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D442" s="28">
+        <v>0</v>
+      </c>
+      <c r="E442" s="30">
+        <v>0.16597881748614043</v>
+      </c>
+      <c r="F442" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G442" s="31">
+        <v>24.528679887609666</v>
+      </c>
+      <c r="H442" s="31">
+        <v>0</v>
+      </c>
+      <c r="I442" s="31">
+        <v>0.12501277868844579</v>
+      </c>
+      <c r="J442" s="31">
+        <v>0.21089131878908401</v>
+      </c>
+      <c r="K442" s="31">
+        <v>0.36560768359077378</v>
+      </c>
+      <c r="L442" s="32">
+        <v>92.531712616990106</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B443" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D443" s="28">
+        <v>0</v>
+      </c>
+      <c r="E443" s="30">
+        <v>0.16181848406554228</v>
+      </c>
+      <c r="F443" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G443" s="31">
+        <v>24.158855134464975</v>
+      </c>
+      <c r="H443" s="31">
+        <v>1.0718243683467155E-2</v>
+      </c>
+      <c r="I443" s="31">
+        <v>0.1487201695456834</v>
+      </c>
+      <c r="J443" s="31">
+        <v>0.2315868215094484</v>
+      </c>
+      <c r="K443" s="31">
+        <v>0.4641646979579353</v>
+      </c>
+      <c r="L443" s="32">
+        <v>91.52434320271513</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B444" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D444" s="28">
+        <v>0</v>
+      </c>
+      <c r="E444" s="30">
+        <v>0.16078980250452701</v>
+      </c>
+      <c r="F444" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G444" s="31">
+        <v>23.608869554010838</v>
+      </c>
+      <c r="H444" s="31">
+        <v>0</v>
+      </c>
+      <c r="I444" s="31">
+        <v>0.13899030561280765</v>
+      </c>
+      <c r="J444" s="31">
+        <v>0.18287749780610457</v>
+      </c>
+      <c r="K444" s="31">
+        <v>0.42547806160759344</v>
+      </c>
+      <c r="L444" s="32">
+        <v>87.531554174950941</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B445" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D445" s="28">
+        <v>0</v>
+      </c>
+      <c r="E445" s="30">
+        <v>0.1611326664172481</v>
+      </c>
+      <c r="F445" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G445" s="31">
+        <v>23.124495891614909</v>
+      </c>
+      <c r="H445" s="31">
+        <v>0</v>
+      </c>
+      <c r="I445" s="31">
+        <v>0.14412073313240792</v>
+      </c>
+      <c r="J445" s="31">
+        <v>5.4175116950886906E-2</v>
+      </c>
+      <c r="K445" s="31">
+        <v>0.49525670911672254</v>
+      </c>
+      <c r="L445" s="32">
+        <v>85.629749733960494</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B446" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D446" s="28">
+        <v>0</v>
+      </c>
+      <c r="E446" s="30">
+        <v>0.16340489608194336</v>
+      </c>
+      <c r="F446" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G446" s="31">
+        <v>23.010571045209836</v>
+      </c>
+      <c r="H446" s="31">
+        <v>0</v>
+      </c>
+      <c r="I446" s="31">
+        <v>0.18002525425353977</v>
+      </c>
+      <c r="J446" s="31">
+        <v>0.12696755584859423</v>
+      </c>
+      <c r="K446" s="31">
+        <v>1.2668935422101832</v>
+      </c>
+      <c r="L446" s="32">
+        <v>71.592520071536256</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B447" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D447" s="28">
+        <v>0</v>
+      </c>
+      <c r="E447" s="30">
+        <v>0.1647774445775271</v>
+      </c>
+      <c r="F447" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G447" s="31">
+        <v>23.182555506262812</v>
+      </c>
+      <c r="H447" s="31">
+        <v>0</v>
+      </c>
+      <c r="I447" s="31">
+        <v>0.18762874268158933</v>
+      </c>
+      <c r="J447" s="31">
+        <v>0.10570087637116271</v>
+      </c>
+      <c r="K447" s="31">
+        <v>1.2865762391042976</v>
+      </c>
+      <c r="L447" s="32">
+        <v>71.001346450348052</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B448" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D448" s="28">
+        <v>0</v>
+      </c>
+      <c r="E448" s="30">
+        <v>0.15903309488440873</v>
+      </c>
+      <c r="F448" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G448" s="31">
+        <v>18.554803111772404</v>
+      </c>
+      <c r="H448" s="31">
+        <v>9.6224180679573921E-3</v>
+      </c>
+      <c r="I448" s="31">
+        <v>0.17525063085328488</v>
+      </c>
+      <c r="J448" s="31">
+        <v>0.25807165189559633</v>
+      </c>
+      <c r="K448" s="31">
+        <v>1.6910592576087933</v>
+      </c>
+      <c r="L448" s="32">
+        <v>68.483777516683773</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B449" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D449" s="28">
+        <v>0</v>
+      </c>
+      <c r="E449" s="30">
+        <v>0.15890458617905426</v>
+      </c>
+      <c r="F449" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G449" s="31">
+        <v>18.817302560369175</v>
+      </c>
+      <c r="H449" s="31">
+        <v>2.4956545606320563E-2</v>
+      </c>
+      <c r="I449" s="31">
+        <v>0.16711548325345515</v>
+      </c>
+      <c r="J449" s="31">
+        <v>0.22758598025241933</v>
+      </c>
+      <c r="K449" s="31">
+        <v>2.485985757734734</v>
+      </c>
+      <c r="L449" s="32">
+        <v>63.306642424327627</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B450" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D450" s="28">
+        <v>0</v>
+      </c>
+      <c r="E450" s="30">
+        <v>0.15663495997358509</v>
+      </c>
+      <c r="F450" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G450" s="31">
+        <v>19.247716267084634</v>
+      </c>
+      <c r="H450" s="31">
+        <v>3.1280249980101184E-2</v>
+      </c>
+      <c r="I450" s="31">
+        <v>0.21149583738037486</v>
+      </c>
+      <c r="J450" s="31">
+        <v>0.1748723010334115</v>
+      </c>
+      <c r="K450" s="31">
+        <v>3.24124814882423</v>
+      </c>
+      <c r="L450" s="32">
+        <v>30.617692976812709</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B451" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D451" s="28">
+        <v>0</v>
+      </c>
+      <c r="E451" s="30">
+        <v>0.15060329627904148</v>
+      </c>
+      <c r="F451" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G451" s="31">
+        <v>18.554985535194248</v>
+      </c>
+      <c r="H451" s="31">
+        <v>0</v>
+      </c>
+      <c r="I451" s="31">
+        <v>0.22598968675146242</v>
+      </c>
+      <c r="J451" s="31">
+        <v>0.16672851456906265</v>
+      </c>
+      <c r="K451" s="31">
+        <v>3.157335723013726</v>
+      </c>
+      <c r="L451" s="32">
+        <v>21.641708362991036</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B452" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D452" s="28">
+        <v>0</v>
+      </c>
+      <c r="E452" s="30">
+        <v>0.15064604128782558</v>
+      </c>
+      <c r="F452" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G452" s="31">
+        <v>18.560944599319242</v>
+      </c>
+      <c r="H452" s="31">
+        <v>1.7899967034847919E-2</v>
+      </c>
+      <c r="I452" s="31">
+        <v>0.20919780984342334</v>
+      </c>
+      <c r="J452" s="31">
+        <v>0.16810885775340767</v>
+      </c>
+      <c r="K452" s="31">
+        <v>2.9948941771777715</v>
+      </c>
+      <c r="L452" s="32">
+        <v>24.894559852319681</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B453" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D453" s="28">
+        <v>0</v>
+      </c>
+      <c r="E453" s="30">
+        <v>0.17263590962027217</v>
+      </c>
+      <c r="F453" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G453" s="31">
+        <v>18.13413378161755</v>
+      </c>
+      <c r="H453" s="31">
+        <v>0</v>
+      </c>
+      <c r="I453" s="31">
+        <v>1.5946445618783858E-2</v>
+      </c>
+      <c r="J453" s="31">
+        <v>0.27544901877962152</v>
+      </c>
+      <c r="K453" s="31">
+        <v>0.90323560510775069</v>
+      </c>
+      <c r="L453" s="32">
+        <v>88.329420913790429</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B454" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D454" s="28">
+        <v>0</v>
+      </c>
+      <c r="E454" s="30">
+        <v>0.16606464387157632</v>
+      </c>
+      <c r="F454" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G454" s="31">
+        <v>17.677237872357637</v>
+      </c>
+      <c r="H454" s="31">
+        <v>6.1628309791424272</v>
+      </c>
+      <c r="I454" s="31">
+        <v>9.9882971449450172E-2</v>
+      </c>
+      <c r="J454" s="31">
+        <v>5.9978091118533597E-2</v>
+      </c>
+      <c r="K454" s="31">
+        <v>1.0072948410269744</v>
+      </c>
+      <c r="L454" s="32">
+        <v>74.027860754897475</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A455" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B455" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D455" s="28">
+        <v>0</v>
+      </c>
+      <c r="E455" s="30">
+        <v>0.16709470645894114</v>
+      </c>
+      <c r="F455" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G455" s="31">
+        <v>18.364739852012161</v>
+      </c>
+      <c r="H455" s="31">
+        <v>0</v>
+      </c>
+      <c r="I455" s="31">
+        <v>5.4206025913144801E-2</v>
+      </c>
+      <c r="J455" s="31">
+        <v>7.5313122831963536E-2</v>
+      </c>
+      <c r="K455" s="31">
+        <v>1.0511621911205562</v>
+      </c>
+      <c r="L455" s="32">
+        <v>73.272148999705763</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A456" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B456" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D456" s="28">
+        <v>0</v>
+      </c>
+      <c r="E456" s="30">
+        <v>0.16941333252492005</v>
+      </c>
+      <c r="F456" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G456" s="31">
+        <v>18.954234240686404</v>
+      </c>
+      <c r="H456" s="31">
+        <v>0</v>
+      </c>
+      <c r="I456" s="31">
+        <v>6.9788450243458297E-2</v>
+      </c>
+      <c r="J456" s="31">
+        <v>8.581161260088542E-2</v>
+      </c>
+      <c r="K456" s="31">
+        <v>0.84856594921353778</v>
+      </c>
+      <c r="L456" s="32">
+        <v>75.052755709556465</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A457" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B457" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D457" s="28">
+        <v>0</v>
+      </c>
+      <c r="E457" s="30">
+        <v>0.16066123625640794</v>
+      </c>
+      <c r="F457" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G457" s="31">
+        <v>18.31713203260415</v>
+      </c>
+      <c r="H457" s="31">
+        <v>9.0135907740665298E-3</v>
+      </c>
+      <c r="I457" s="31">
+        <v>0.10182990586174533</v>
+      </c>
+      <c r="J457" s="31">
+        <v>0.17445822404553635</v>
+      </c>
+      <c r="K457" s="31">
+        <v>1.2078084615442828</v>
+      </c>
+      <c r="L457" s="32">
+        <v>70.247608226006491</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A458" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B458" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D458" s="28">
+        <v>0</v>
+      </c>
+      <c r="E458" s="30">
+        <v>0.17005763742168109</v>
+      </c>
+      <c r="F458" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G458" s="31">
+        <v>19.203612358504401</v>
+      </c>
+      <c r="H458" s="31">
+        <v>1.3031385148125095E-2</v>
+      </c>
+      <c r="I458" s="31">
+        <v>0.11881948575711525</v>
+      </c>
+      <c r="J458" s="31">
+        <v>0.20344002969168756</v>
+      </c>
+      <c r="K458" s="31">
+        <v>1.0464212396975718</v>
+      </c>
+      <c r="L458" s="32">
+        <v>72.874393451456797</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A459" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B459" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D459" s="28">
+        <v>0</v>
+      </c>
+      <c r="E459" s="30">
+        <v>0.16627921802214465</v>
+      </c>
+      <c r="F459" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G459" s="31">
+        <v>18.707184235472116</v>
+      </c>
+      <c r="H459" s="31">
+        <v>9.6224180679573921E-3</v>
+      </c>
+      <c r="I459" s="31">
+        <v>0.15473445021271273</v>
+      </c>
+      <c r="J459" s="31">
+        <v>8.401588581362035E-2</v>
+      </c>
+      <c r="K459" s="31">
+        <v>1.4453862781812712</v>
+      </c>
+      <c r="L459" s="32">
+        <v>69.460679781757818</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A460" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B460" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D460" s="28">
+        <v>0</v>
+      </c>
+      <c r="E460" s="30">
+        <v>0.15261281741326391</v>
+      </c>
+      <c r="F460" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G460" s="31">
+        <v>18.877890643453302</v>
+      </c>
+      <c r="H460" s="31">
+        <v>0</v>
+      </c>
+      <c r="I460" s="31">
+        <v>0.23800714172217338</v>
+      </c>
+      <c r="J460" s="31">
+        <v>4.2153745278386286E-2</v>
+      </c>
+      <c r="K460" s="31">
+        <v>3.2214250742067772</v>
+      </c>
+      <c r="L460" s="32">
+        <v>11.999233068092552</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A461" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B461" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D461" s="28">
+        <v>0</v>
+      </c>
+      <c r="E461" s="30">
+        <v>0.15274111980675523</v>
+      </c>
+      <c r="F461" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G461" s="31">
+        <v>19.088212544316132</v>
+      </c>
+      <c r="H461" s="31">
+        <v>0</v>
+      </c>
+      <c r="I461" s="31">
+        <v>0.22634316505326946</v>
+      </c>
+      <c r="J461" s="31">
+        <v>0.11771564984377736</v>
+      </c>
+      <c r="K461" s="31">
+        <v>3.1462656361223904</v>
+      </c>
+      <c r="L461" s="32">
+        <v>21.738757201084226</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>290</v>
+      </c>
+      <c r="B462" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D462" s="28">
+        <v>0</v>
+      </c>
+      <c r="E462" s="30">
+        <v>0.19976617024546398</v>
+      </c>
+      <c r="F462" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G462" s="31">
+        <v>22.837880556851108</v>
+      </c>
+      <c r="H462" s="31">
+        <v>0</v>
+      </c>
+      <c r="I462" s="31">
+        <v>0.18143990711751326</v>
+      </c>
+      <c r="J462" s="31">
+        <v>6.965008462704251</v>
+      </c>
+      <c r="K462" s="31">
+        <v>0</v>
+      </c>
+      <c r="L462" s="32">
+        <v>67.60838615971403</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>290</v>
+      </c>
+      <c r="B463" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D463" s="28">
+        <v>0</v>
+      </c>
+      <c r="E463" s="30">
+        <v>0.20500641466149891</v>
+      </c>
+      <c r="F463" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G463" s="31">
+        <v>23.740229602483637</v>
+      </c>
+      <c r="H463" s="31">
+        <v>0.12375499396088767</v>
+      </c>
+      <c r="I463" s="31">
+        <v>0.18214722491537455</v>
+      </c>
+      <c r="J463" s="31">
+        <v>7.7181307604666003</v>
+      </c>
+      <c r="K463" s="31">
+        <v>0</v>
+      </c>
+      <c r="L463" s="32">
+        <v>69.152901130972865</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A464" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B464" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D464" s="28">
+        <v>0</v>
+      </c>
+      <c r="E464" s="30">
+        <v>0.21064406192663837</v>
+      </c>
+      <c r="F464" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G464" s="31">
+        <v>24.742111499280568</v>
+      </c>
+      <c r="H464" s="31">
+        <v>0.11287762677681067</v>
+      </c>
+      <c r="I464" s="31">
+        <v>0.20972812928674056</v>
+      </c>
+      <c r="J464" s="31">
+        <v>7.4729163275942554</v>
+      </c>
+      <c r="K464" s="31">
+        <v>0</v>
+      </c>
+      <c r="L464" s="32">
+        <v>69.120941283488719</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A465" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B465" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D465" s="28">
+        <v>0</v>
+      </c>
+      <c r="E465" s="30">
+        <v>0.20938574778817778</v>
+      </c>
+      <c r="F465" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G465" s="31">
+        <v>24.88309616736494</v>
+      </c>
+      <c r="H465" s="31">
+        <v>0.11239399870296546</v>
+      </c>
+      <c r="I465" s="31">
+        <v>0.20813716124339779</v>
+      </c>
+      <c r="J465" s="31">
+        <v>7.4991027006179465</v>
+      </c>
+      <c r="K465" s="31">
+        <v>0</v>
+      </c>
+      <c r="L465" s="32">
+        <v>69.409102189456576</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A466" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B466" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D466" s="28">
+        <v>0</v>
+      </c>
+      <c r="E466" s="30">
+        <v>0.21650691004069678</v>
+      </c>
+      <c r="F466" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G466" s="31">
+        <v>26.156550211724806</v>
+      </c>
+      <c r="H466" s="31">
+        <v>8.7828692205141834E-2</v>
+      </c>
+      <c r="I466" s="31">
+        <v>0.21679874580814198</v>
+      </c>
+      <c r="J466" s="31">
+        <v>7.6706292751482588</v>
+      </c>
+      <c r="K466" s="31">
+        <v>0</v>
+      </c>
+      <c r="L466" s="32">
+        <v>75.345355330477702</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A467" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B467" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D467" s="28">
+        <v>0</v>
+      </c>
+      <c r="E467" s="30">
+        <v>0.2182456876183797</v>
+      </c>
+      <c r="F467" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G467" s="31">
+        <v>26.33914252343499</v>
+      </c>
+      <c r="H467" s="31">
+        <v>8.5648482476360893E-2</v>
+      </c>
+      <c r="I467" s="31">
+        <v>0.22227807770160149</v>
+      </c>
+      <c r="J467" s="31">
+        <v>7.7380772634318582</v>
+      </c>
+      <c r="K467" s="31">
+        <v>0</v>
+      </c>
+      <c r="L467" s="32">
+        <v>75.792692202164318</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A468" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B468" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D468" s="28">
+        <v>0</v>
+      </c>
+      <c r="E468" s="30">
+        <v>0.20821456761260806</v>
+      </c>
+      <c r="F468" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G468" s="31">
+        <v>25.839460058303661</v>
+      </c>
+      <c r="H468" s="31">
+        <v>0.14319302506797796</v>
+      </c>
+      <c r="I468" s="31">
+        <v>0.1985907410397014</v>
+      </c>
+      <c r="J468" s="31">
+        <v>7.3244416126999425</v>
+      </c>
+      <c r="K468" s="31">
+        <v>0</v>
+      </c>
+      <c r="L468" s="32">
+        <v>80.402475126428129</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A469" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B469" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D469" s="28">
+        <v>0</v>
+      </c>
+      <c r="E469" s="30">
+        <v>0.17611924861647635</v>
+      </c>
+      <c r="F469" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G469" s="31">
+        <v>20.392788681269</v>
+      </c>
+      <c r="H469" s="31">
+        <v>0</v>
+      </c>
+      <c r="I469" s="31">
+        <v>0.15314247521449148</v>
+      </c>
+      <c r="J469" s="31">
+        <v>9.4673641181327994</v>
+      </c>
+      <c r="K469" s="31">
+        <v>0</v>
+      </c>
+      <c r="L469" s="32">
+        <v>65.074667201152693</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A470" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B470" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D470" s="28">
+        <v>0</v>
+      </c>
+      <c r="E470" s="30">
+        <v>0.17693677257009099</v>
+      </c>
+      <c r="F470" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G470" s="31">
+        <v>20.924532354057437</v>
+      </c>
+      <c r="H470" s="31">
+        <v>0</v>
+      </c>
+      <c r="I470" s="31">
+        <v>0.15951020036633656</v>
+      </c>
+      <c r="J470" s="31">
+        <v>8.4262978855679957</v>
+      </c>
+      <c r="K470" s="31">
+        <v>0</v>
+      </c>
+      <c r="L470" s="32">
+        <v>64.665049070465017</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A471" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B471" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D471" s="28">
+        <v>0</v>
+      </c>
+      <c r="E471" s="30">
+        <v>0.18913356838762524</v>
+      </c>
+      <c r="F471" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G471" s="31">
+        <v>21.685457885192491</v>
+      </c>
+      <c r="H471" s="31">
+        <v>8.2983338110433902E-2</v>
+      </c>
+      <c r="I471" s="31">
+        <v>0.16251701961831172</v>
+      </c>
+      <c r="J471" s="31">
+        <v>7.5019402246101867</v>
+      </c>
+      <c r="K471" s="31">
+        <v>0</v>
+      </c>
+      <c r="L471" s="32">
+        <v>65.247751011986381</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A472" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B472" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D472" s="28">
+        <v>0</v>
+      </c>
+      <c r="E472" s="30">
+        <v>0.20175752227747309</v>
+      </c>
+      <c r="F472" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G472" s="31">
+        <v>22.993078508821018</v>
+      </c>
+      <c r="H472" s="31">
+        <v>0</v>
+      </c>
+      <c r="I472" s="31">
+        <v>0.18037891962806449</v>
+      </c>
+      <c r="J472" s="31">
+        <v>7.2472778917420282</v>
+      </c>
+      <c r="K472" s="31">
+        <v>0</v>
+      </c>
+      <c r="L472" s="32">
+        <v>65.325349346189583</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A473" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B473" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D473" s="28">
+        <v>0</v>
+      </c>
+      <c r="E473" s="30">
+        <v>0.18835668468752817</v>
+      </c>
+      <c r="F473" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G473" s="31">
+        <v>21.502533410489143</v>
+      </c>
+      <c r="H473" s="31">
+        <v>0</v>
+      </c>
+      <c r="I473" s="31">
+        <v>0.16976833241822889</v>
+      </c>
+      <c r="J473" s="31">
+        <v>6.5513317913866675</v>
+      </c>
+      <c r="K473" s="31">
+        <v>0</v>
+      </c>
+      <c r="L473" s="32">
+        <v>63.363557498179148</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A474" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B474" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D474" s="28">
+        <v>0</v>
+      </c>
+      <c r="E474" s="30">
+        <v>0.2181587309620561</v>
+      </c>
+      <c r="F474" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G474" s="31">
+        <v>27.571041086314111</v>
+      </c>
+      <c r="H474" s="31">
+        <v>0.12170100571695719</v>
+      </c>
+      <c r="I474" s="31">
+        <v>0.21838955519942993</v>
+      </c>
+      <c r="J474" s="31">
+        <v>8.0375692234074876</v>
+      </c>
+      <c r="K474" s="31">
+        <v>0</v>
+      </c>
+      <c r="L474" s="32">
+        <v>87.840462876237041</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A475" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B475" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D475" s="28">
+        <v>0</v>
+      </c>
+      <c r="E475" s="30">
+        <v>0.21585506142784927</v>
+      </c>
+      <c r="F475" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G475" s="31">
+        <v>27.841443280685489</v>
+      </c>
+      <c r="H475" s="31">
+        <v>8.2256395871431798E-2</v>
+      </c>
+      <c r="I475" s="31">
+        <v>0.21556142946862536</v>
+      </c>
+      <c r="J475" s="31">
+        <v>8.7062711584612238</v>
+      </c>
+      <c r="K475" s="31">
+        <v>0</v>
+      </c>
+      <c r="L475" s="32">
+        <v>92.08706461561188</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A476" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B476" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D476" s="28">
+        <v>0</v>
+      </c>
+      <c r="E476" s="30">
+        <v>0.18132847233630905</v>
+      </c>
+      <c r="F476" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G476" s="31">
+        <v>24.220391584948629</v>
+      </c>
+      <c r="H476" s="31">
+        <v>5.4605697361409335E-2</v>
+      </c>
+      <c r="I476" s="31">
+        <v>0.17065259748539213</v>
+      </c>
+      <c r="J476" s="31">
+        <v>7.3396864482930617</v>
+      </c>
+      <c r="K476" s="31">
+        <v>0</v>
+      </c>
+      <c r="L476" s="32">
+        <v>106.2927396085433</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A477" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B477" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D477" s="28">
+        <v>0</v>
+      </c>
+      <c r="E477" s="30">
+        <v>0.19302026052905197</v>
+      </c>
+      <c r="F477" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G477" s="31">
+        <v>25.774721124075505</v>
+      </c>
+      <c r="H477" s="31">
+        <v>5.8368300546972125E-2</v>
+      </c>
+      <c r="I477" s="31">
+        <v>0.17967158743999415</v>
+      </c>
+      <c r="J477" s="31">
+        <v>7.807408782294913</v>
+      </c>
+      <c r="K477" s="31">
+        <v>0</v>
+      </c>
+      <c r="L477" s="32">
+        <v>111.96168636199316</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A478" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B478" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D478" s="28">
+        <v>0</v>
+      </c>
+      <c r="E478" s="30">
+        <v>0.20682694384836264</v>
+      </c>
+      <c r="F478" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G478" s="31">
+        <v>28.718153227594282</v>
+      </c>
+      <c r="H478" s="31">
+        <v>6.0188567179609485E-2</v>
+      </c>
+      <c r="I478" s="31">
+        <v>0.2074300549816096</v>
+      </c>
+      <c r="J478" s="31">
+        <v>8.1100267691791164</v>
+      </c>
+      <c r="K478" s="31">
+        <v>0</v>
+      </c>
+      <c r="L478" s="32">
+        <v>120.93247559524002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A479" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B479" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D479" s="28">
+        <v>0</v>
+      </c>
+      <c r="E479" s="30">
+        <v>0.21359613452522896</v>
+      </c>
+      <c r="F479" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G479" s="31">
+        <v>30.08305839202243</v>
+      </c>
+      <c r="H479" s="31">
+        <v>6.7103511658405085E-2</v>
+      </c>
+      <c r="I479" s="31">
+        <v>0.2090210359761405</v>
+      </c>
+      <c r="J479" s="31">
+        <v>8.5324340055701953</v>
+      </c>
+      <c r="K479" s="31">
+        <v>0</v>
+      </c>
+      <c r="L479" s="32">
+        <v>126.98346616053009</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A480" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B480" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D480" s="28">
+        <v>0</v>
+      </c>
+      <c r="E480" s="30">
+        <v>0.21025350853782665</v>
+      </c>
+      <c r="F480" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G480" s="31">
+        <v>29.770649376156062</v>
+      </c>
+      <c r="H480" s="31">
+        <v>4.938499865238892E-2</v>
+      </c>
+      <c r="I480" s="31">
+        <v>0.20407122163159863</v>
+      </c>
+      <c r="J480" s="31">
+        <v>8.8673353289779548</v>
+      </c>
+      <c r="K480" s="31">
+        <v>0</v>
+      </c>
+      <c r="L480" s="32">
+        <v>126.45233719841745</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A481" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B481" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D481" s="28">
+        <v>0</v>
+      </c>
+      <c r="E481" s="30">
+        <v>0.16314759657133979</v>
+      </c>
+      <c r="F481" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G481" s="31">
+        <v>21.12304485430489</v>
+      </c>
+      <c r="H481" s="31">
+        <v>0</v>
+      </c>
+      <c r="I481" s="31">
+        <v>0.15367313678502889</v>
+      </c>
+      <c r="J481" s="31">
+        <v>6.132454408448897</v>
+      </c>
+      <c r="K481" s="31">
+        <v>0</v>
+      </c>
+      <c r="L481" s="32">
+        <v>95.446656069379429</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A482" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B482" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D482" s="28">
+        <v>0</v>
+      </c>
+      <c r="E482" s="30">
+        <v>0.17091687435693642</v>
+      </c>
+      <c r="F482" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G482" s="31">
+        <v>21.983346446847595</v>
+      </c>
+      <c r="H482" s="31">
+        <v>6.9165229393714819E-2</v>
+      </c>
+      <c r="I482" s="31">
+        <v>0.15402690936661109</v>
+      </c>
+      <c r="J482" s="31">
+        <v>6.6053448065369595</v>
+      </c>
+      <c r="K482" s="31">
+        <v>0</v>
+      </c>
+      <c r="L482" s="32">
+        <v>98.285105699612387</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A483" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B483" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D483" s="28">
+        <v>0</v>
+      </c>
+      <c r="E483" s="30">
+        <v>0.17874453007018509</v>
+      </c>
+      <c r="F483" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G483" s="31">
+        <v>22.984598436877384</v>
+      </c>
+      <c r="H483" s="31">
+        <v>0</v>
+      </c>
+      <c r="I483" s="31">
+        <v>0.16693862376442842</v>
+      </c>
+      <c r="J483" s="31">
+        <v>6.8535687491596988</v>
+      </c>
+      <c r="K483" s="31">
+        <v>0</v>
+      </c>
+      <c r="L483" s="32">
+        <v>101.77682133702187</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A484" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B484" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D484" s="28">
+        <v>0</v>
+      </c>
+      <c r="E484" s="30">
+        <v>0.1811561571219038</v>
+      </c>
+      <c r="F484" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G484" s="31">
+        <v>23.668596548764551</v>
+      </c>
+      <c r="H484" s="31">
+        <v>5.2663329555812342E-2</v>
+      </c>
+      <c r="I484" s="31">
+        <v>0.17136000306352867</v>
+      </c>
+      <c r="J484" s="31">
+        <v>6.9889929449258226</v>
+      </c>
+      <c r="K484" s="31">
+        <v>0</v>
+      </c>
+      <c r="L484" s="32">
+        <v>103.87376287076245</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A485" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B485" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D485" s="28">
+        <v>0</v>
+      </c>
+      <c r="E485" s="30">
+        <v>0.17874453007018509</v>
+      </c>
+      <c r="F485" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G485" s="31">
+        <v>23.827058422725564</v>
+      </c>
+      <c r="H485" s="31">
+        <v>3.954559629097832E-2</v>
+      </c>
+      <c r="I485" s="31">
+        <v>0.16640804313881688</v>
+      </c>
+      <c r="J485" s="31">
+        <v>7.2466313812892436</v>
+      </c>
+      <c r="K485" s="31">
+        <v>0</v>
+      </c>
+      <c r="L485" s="32">
+        <v>104.94076221492678</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A486" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B486" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D486" s="28">
+        <v>0</v>
+      </c>
+      <c r="E486" s="30">
+        <v>0.22120332736248532</v>
+      </c>
+      <c r="F486" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G486" s="31">
+        <v>31.622139614495492</v>
+      </c>
+      <c r="H486" s="31">
+        <v>6.3464475496912601E-2</v>
+      </c>
+      <c r="I486" s="31">
+        <v>0.2249292432119159</v>
+      </c>
+      <c r="J486" s="31">
+        <v>9.4548458332384193</v>
+      </c>
+      <c r="K486" s="31">
+        <v>0</v>
+      </c>
+      <c r="L486" s="32">
+        <v>133.75225793590599</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A487" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B487" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D487" s="28">
+        <v>0</v>
+      </c>
+      <c r="E487" s="30">
+        <v>0.23440851704278665</v>
+      </c>
+      <c r="F487" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G487" s="31">
+        <v>33.850464034550946</v>
+      </c>
+      <c r="H487" s="31">
+        <v>5.3513147227507926E-2</v>
+      </c>
+      <c r="I487" s="31">
+        <v>0.23853728524518489</v>
+      </c>
+      <c r="J487" s="31">
+        <v>10.277837252596354</v>
+      </c>
+      <c r="K487" s="31">
+        <v>0</v>
+      </c>
+      <c r="L487" s="32">
+        <v>143.88064840842091</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A488" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B488" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D488" s="28">
+        <v>0</v>
+      </c>
+      <c r="E488" s="30">
+        <v>0.20916883683997523</v>
+      </c>
+      <c r="F488" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G488" s="31">
+        <v>18.021648436505945</v>
+      </c>
+      <c r="H488" s="31">
+        <v>1.1083500741924567E-2</v>
+      </c>
+      <c r="I488" s="31">
+        <v>0.16517000908762375</v>
+      </c>
+      <c r="J488" s="31">
+        <v>7.3240939957311416E-2</v>
+      </c>
+      <c r="K488" s="31">
+        <v>0</v>
+      </c>
+      <c r="L488" s="32">
+        <v>45.05221447556378</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A489" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B489" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D489" s="28">
+        <v>0</v>
+      </c>
+      <c r="E489" s="30">
+        <v>0.21194618023501291</v>
+      </c>
+      <c r="F489" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G489" s="31">
+        <v>17.949365117317988</v>
+      </c>
+      <c r="H489" s="31">
+        <v>9.9877023464835703E-3</v>
+      </c>
+      <c r="I489" s="31">
+        <v>0.15844894521899941</v>
+      </c>
+      <c r="J489" s="31">
+        <v>0.2437264565599381</v>
+      </c>
+      <c r="K489" s="31">
+        <v>0</v>
+      </c>
+      <c r="L489" s="32">
+        <v>40.213427599878308</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A490" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B490" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D490" s="28">
+        <v>0</v>
+      </c>
+      <c r="E490" s="30">
+        <v>0.21620270092220203</v>
+      </c>
+      <c r="F490" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G490" s="31">
+        <v>18.402232877286295</v>
+      </c>
+      <c r="H490" s="31">
+        <v>2.7510677448783216E-2</v>
+      </c>
+      <c r="I490" s="31">
+        <v>0.17808006897115508</v>
+      </c>
+      <c r="J490" s="31">
+        <v>0.20675177308909681</v>
+      </c>
+      <c r="K490" s="31">
+        <v>0</v>
+      </c>
+      <c r="L490" s="32">
+        <v>30.62254454412783</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A491" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B491" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D491" s="28">
+        <v>0</v>
+      </c>
+      <c r="E491" s="30">
+        <v>0.22063772898665659</v>
+      </c>
+      <c r="F491" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G491" s="31">
+        <v>18.556080071868607</v>
+      </c>
+      <c r="H491" s="31">
+        <v>0</v>
+      </c>
+      <c r="I491" s="31">
+        <v>0.16941462387307699</v>
+      </c>
+      <c r="J491" s="31">
+        <v>0.15706565063547712</v>
+      </c>
+      <c r="K491" s="31">
+        <v>0</v>
+      </c>
+      <c r="L491" s="32">
+        <v>24.216610778767354</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A492" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B492" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D492" s="28">
+        <v>0</v>
+      </c>
+      <c r="E492" s="30">
+        <v>0.22155142719895457</v>
+      </c>
+      <c r="F492" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G492" s="31">
+        <v>18.559728479700095</v>
+      </c>
+      <c r="H492" s="31">
+        <v>9.7470839762853429E-4</v>
+      </c>
+      <c r="I492" s="31">
+        <v>0.17189055346970117</v>
+      </c>
+      <c r="J492" s="31">
+        <v>0.19447024776315525</v>
+      </c>
+      <c r="K492" s="31">
+        <v>0</v>
+      </c>
+      <c r="L492" s="32">
+        <v>23.878740049928187</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B493" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D493" s="28">
+        <v>0</v>
+      </c>
+      <c r="E493" s="30">
+        <v>0.19760277995284331</v>
+      </c>
+      <c r="F493" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G493" s="31">
+        <v>17.442763099308532</v>
+      </c>
+      <c r="H493" s="31">
+        <v>2.4834909190831363E-2</v>
+      </c>
+      <c r="I493" s="31">
+        <v>0.15544198530273076</v>
+      </c>
+      <c r="J493" s="31">
+        <v>0.21737630871549843</v>
+      </c>
+      <c r="K493" s="31">
+        <v>0</v>
+      </c>
+      <c r="L493" s="32">
+        <v>62.119660843473682</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A494" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B494" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D494" s="28">
+        <v>0</v>
+      </c>
+      <c r="E494" s="30">
+        <v>0.1990304863204001</v>
+      </c>
+      <c r="F494" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G494" s="31">
+        <v>17.133299386511059</v>
+      </c>
+      <c r="H494" s="31">
+        <v>0</v>
+      </c>
+      <c r="I494" s="31">
+        <v>0.1538500232556976</v>
+      </c>
+      <c r="J494" s="31">
+        <v>8.0838762471218878E-2</v>
+      </c>
+      <c r="K494" s="31">
+        <v>0</v>
+      </c>
+      <c r="L494" s="32">
+        <v>56.55008769040429</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A495" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B495" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D495" s="28">
+        <v>0</v>
+      </c>
+      <c r="E495" s="30">
+        <v>0.20106476581386146</v>
+      </c>
+      <c r="F495" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G495" s="31">
+        <v>17.165041247257179</v>
+      </c>
+      <c r="H495" s="31">
+        <v>9.1353582491460906E-3</v>
+      </c>
+      <c r="I495" s="31">
+        <v>0.14412073313240792</v>
+      </c>
+      <c r="J495" s="31">
+        <v>9.5756671835701843E-2</v>
+      </c>
+      <c r="K495" s="31">
+        <v>0</v>
+      </c>
+      <c r="L495" s="32">
+        <v>52.945411334325044</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A496" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B496" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D496" s="28">
+        <v>0</v>
+      </c>
+      <c r="E496" s="30">
+        <v>0.20297013427044369</v>
+      </c>
+      <c r="F496" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G496" s="31">
+        <v>17.577370582371753</v>
+      </c>
+      <c r="H496" s="31">
+        <v>0</v>
+      </c>
+      <c r="I496" s="31">
+        <v>0.15774143459233678</v>
+      </c>
+      <c r="J496" s="31">
+        <v>0.10266246010968036</v>
+      </c>
+      <c r="K496" s="31">
+        <v>0</v>
+      </c>
+      <c r="L496" s="32">
+        <v>54.069129270143677</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A497" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B497" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D497" s="28">
+        <v>0</v>
+      </c>
+      <c r="E497" s="30">
+        <v>0.20756405932513039</v>
+      </c>
+      <c r="F497" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G497" s="31">
+        <v>17.639289831084923</v>
+      </c>
+      <c r="H497" s="31">
+        <v>4.5074854661840543E-3</v>
+      </c>
+      <c r="I497" s="31">
+        <v>0.15951020036633656</v>
+      </c>
+      <c r="J497" s="31">
+        <v>2.5846902209646805E-2</v>
+      </c>
+      <c r="K497" s="31">
+        <v>0</v>
+      </c>
+      <c r="L497" s="32">
+        <v>48.034351898520818</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A498" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B498" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D498" s="28">
+        <v>0</v>
+      </c>
+      <c r="E498" s="30">
+        <v>0.20973282963232434</v>
+      </c>
+      <c r="F498" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G498" s="31">
+        <v>17.67968192087071</v>
+      </c>
+      <c r="H498" s="31">
+        <v>0</v>
+      </c>
+      <c r="I498" s="31">
+        <v>0.15791831278863527</v>
+      </c>
+      <c r="J498" s="31">
+        <v>3.0545719548825952E-2</v>
+      </c>
+      <c r="K498" s="31">
+        <v>0</v>
+      </c>
+      <c r="L498" s="32">
+        <v>48.128513968345317</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A499" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B499" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D499" s="28">
+        <v>0</v>
+      </c>
+      <c r="E499" s="30">
+        <v>0.20864829828267917</v>
+      </c>
+      <c r="F499" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G499" s="31">
+        <v>17.699477510534283</v>
+      </c>
+      <c r="H499" s="31">
+        <v>7.5523024373575585E-3</v>
+      </c>
+      <c r="I499" s="31">
+        <v>0.15844894521899941</v>
+      </c>
+      <c r="J499" s="31">
+        <v>0.12337735184320293</v>
+      </c>
+      <c r="K499" s="31">
+        <v>0</v>
+      </c>
+      <c r="L499" s="32">
+        <v>46.862683911586274</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A500" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B500" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D500" s="28">
+        <v>0</v>
+      </c>
+      <c r="E500" s="30">
+        <v>0.21659383114214148</v>
+      </c>
+      <c r="F500" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G500" s="31">
+        <v>18.1363888748159</v>
+      </c>
+      <c r="H500" s="31">
+        <v>1.1692242343006348E-2</v>
+      </c>
+      <c r="I500" s="31">
+        <v>0.17118315220862737</v>
+      </c>
+      <c r="J500" s="31">
+        <v>0.15968850786963465</v>
+      </c>
+      <c r="K500" s="31">
+        <v>0</v>
+      </c>
+      <c r="L500" s="32">
+        <v>17.359432585038697</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A501" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B501" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D501" s="28">
+        <v>0</v>
+      </c>
+      <c r="E501" s="30">
+        <v>0.21820220905630422</v>
+      </c>
+      <c r="F501" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G501" s="31">
+        <v>18.474275648921534</v>
+      </c>
+      <c r="H501" s="31">
+        <v>1.0596489314346631E-2</v>
+      </c>
+      <c r="I501" s="31">
+        <v>0.18020208712067975</v>
+      </c>
+      <c r="J501" s="31">
+        <v>5.0444479978609291E-2</v>
+      </c>
+      <c r="K501" s="31">
+        <v>0</v>
+      </c>
+      <c r="L501" s="32">
+        <v>16.088700095449592</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A502" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B502" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D502" s="28">
+        <v>0</v>
+      </c>
+      <c r="E502" s="30">
+        <v>0.17167448411769243</v>
+      </c>
+      <c r="F502" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G502" s="31">
+        <v>16.9182465339386</v>
+      </c>
+      <c r="H502" s="31">
+        <v>1.6078151189929817E-2</v>
+      </c>
+      <c r="I502" s="31">
+        <v>0.15396249638843443</v>
+      </c>
+      <c r="J502" s="31">
+        <v>0.12341141883764664</v>
+      </c>
+      <c r="K502" s="31">
+        <v>0</v>
+      </c>
+      <c r="L502" s="32">
+        <v>34.87263300439259</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A503" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B503" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D503" s="28">
+        <v>0</v>
+      </c>
+      <c r="E503" s="30">
+        <v>0.1726272920523845</v>
+      </c>
+      <c r="F503" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G503" s="31">
+        <v>17.079099611505072</v>
+      </c>
+      <c r="H503" s="31">
+        <v>0</v>
+      </c>
+      <c r="I503" s="31">
+        <v>0.14826422842585049</v>
+      </c>
+      <c r="J503" s="31">
+        <v>0.22599202581512473</v>
+      </c>
+      <c r="K503" s="31">
+        <v>0</v>
+      </c>
+      <c r="L503" s="32">
+        <v>31.060832978819757</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A504" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B504" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D504" s="28">
+        <v>0</v>
+      </c>
+      <c r="E504" s="30">
+        <v>0.16919069022345887</v>
+      </c>
+      <c r="F504" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G504" s="31">
+        <v>16.737399961510011</v>
+      </c>
+      <c r="H504" s="31">
+        <v>3.170812594314011E-3</v>
+      </c>
+      <c r="I504" s="31">
+        <v>0.14742622158845622</v>
+      </c>
+      <c r="J504" s="31">
+        <v>0.20788006269257156</v>
+      </c>
+      <c r="K504" s="31">
+        <v>0.29791205593748388</v>
+      </c>
+      <c r="L504" s="32">
+        <v>31.902659913613221</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A505" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B505" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D505" s="28">
+        <v>0</v>
+      </c>
+      <c r="E505" s="30">
+        <v>0.1710947004696009</v>
+      </c>
+      <c r="F505" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G505" s="31">
+        <v>17.074054989611543</v>
+      </c>
+      <c r="H505" s="31">
+        <v>0</v>
+      </c>
+      <c r="I505" s="31">
+        <v>0.17725511891742798</v>
+      </c>
+      <c r="J505" s="31">
+        <v>0.13592872284530061</v>
+      </c>
+      <c r="K505" s="31">
+        <v>0.19791417181997994</v>
+      </c>
+      <c r="L505" s="32">
+        <v>24.006008077661338</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A506" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B506" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D506" s="28">
+        <v>0</v>
+      </c>
+      <c r="E506" s="30">
+        <v>0.17569543097530496</v>
+      </c>
+      <c r="F506" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G506" s="31">
+        <v>17.154405805792493</v>
+      </c>
+      <c r="H506" s="31">
+        <v>1.5738533721680232E-2</v>
+      </c>
+      <c r="I506" s="31">
+        <v>0.16569324437267169</v>
+      </c>
+      <c r="J506" s="31">
+        <v>0.1341033570021114</v>
+      </c>
+      <c r="K506" s="31">
+        <v>0.21171260559205546</v>
+      </c>
+      <c r="L506" s="32">
+        <v>22.529073563710604</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A507" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B507" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D507" s="28">
+        <v>0</v>
+      </c>
+      <c r="E507" s="30">
+        <v>0.18379926725952508</v>
+      </c>
+      <c r="F507" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G507" s="31">
+        <v>21.717598589293335</v>
+      </c>
+      <c r="H507" s="31">
+        <v>0</v>
+      </c>
+      <c r="I507" s="31">
+        <v>0.17440666015217018</v>
+      </c>
+      <c r="J507" s="31">
+        <v>7.6814026916359675</v>
+      </c>
+      <c r="K507" s="31">
+        <v>1.5973820990116001</v>
+      </c>
+      <c r="L507" s="32">
+        <v>93.959730996717639</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A508" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B508" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D508" s="28">
+        <v>0</v>
+      </c>
+      <c r="E508" s="30">
+        <v>0.17648383221850955</v>
+      </c>
+      <c r="F508" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G508" s="31">
+        <v>17.312635432515346</v>
+      </c>
+      <c r="H508" s="31">
+        <v>0</v>
+      </c>
+      <c r="I508" s="31">
+        <v>0.16569324437267169</v>
+      </c>
+      <c r="J508" s="31">
+        <v>6.6155624930382198E-2</v>
+      </c>
+      <c r="K508" s="31">
+        <v>0</v>
+      </c>
+      <c r="L508" s="32">
+        <v>17.656633180964128</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A509" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B509" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D509" s="28">
+        <v>0</v>
+      </c>
+      <c r="E509" s="30">
+        <v>0.18534000714636389</v>
+      </c>
+      <c r="F509" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G509" s="31">
+        <v>22.231576564469414</v>
+      </c>
+      <c r="H509" s="31">
+        <v>0</v>
+      </c>
+      <c r="I509" s="31">
+        <v>0.17457421870435516</v>
+      </c>
+      <c r="J509" s="31">
+        <v>5.9640425435362951</v>
+      </c>
+      <c r="K509" s="31">
+        <v>1.2685601876230377</v>
+      </c>
+      <c r="L509" s="32">
+        <v>99.033588618678266</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A510" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B510" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D510" s="28">
+        <v>0</v>
+      </c>
+      <c r="E510" s="30">
+        <v>0.17623483533704598</v>
+      </c>
+      <c r="F510" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G510" s="31">
+        <v>17.55925872151623</v>
+      </c>
+      <c r="H510" s="31">
+        <v>1.9134588395504751E-2</v>
+      </c>
+      <c r="I510" s="31">
+        <v>0.16217415852122885</v>
+      </c>
+      <c r="J510" s="31">
+        <v>0.10385074232089087</v>
+      </c>
+      <c r="K510" s="31">
+        <v>0</v>
+      </c>
+      <c r="L510" s="32">
+        <v>18.648737357505528</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A511" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B511" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D511" s="28">
+        <v>0</v>
+      </c>
+      <c r="E511" s="30">
+        <v>0.16460250171517313</v>
+      </c>
+      <c r="F511" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G511" s="31">
+        <v>16.364041866637464</v>
+      </c>
+      <c r="H511" s="31">
+        <v>0</v>
+      </c>
+      <c r="I511" s="31">
+        <v>0.13401719664298284</v>
+      </c>
+      <c r="J511" s="31">
+        <v>0.11480508010367768</v>
+      </c>
+      <c r="K511" s="31">
+        <v>0</v>
+      </c>
+      <c r="L511" s="32">
+        <v>47.524989104046746</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A512" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B512" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D512" s="28">
+        <v>0</v>
+      </c>
+      <c r="E512" s="30">
+        <v>0.16745357606853292</v>
+      </c>
+      <c r="F512" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G512" s="31">
+        <v>16.495744466473852</v>
+      </c>
+      <c r="H512" s="31">
+        <v>0</v>
+      </c>
+      <c r="I512" s="31">
+        <v>0.14239803919283717</v>
+      </c>
+      <c r="J512" s="31">
+        <v>0.16721676201492905</v>
+      </c>
+      <c r="K512" s="31">
+        <v>0</v>
+      </c>
+      <c r="L512" s="32">
+        <v>44.620445767544169</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A513" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B513" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D513" s="28">
+        <v>0</v>
+      </c>
+      <c r="E513" s="30">
+        <v>0.16439603526657309</v>
+      </c>
+      <c r="F513" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G513" s="31">
+        <v>16.53522670892972</v>
+      </c>
+      <c r="H513" s="31">
+        <v>0</v>
+      </c>
+      <c r="I513" s="31">
+        <v>0.1465882080190975</v>
+      </c>
+      <c r="J513" s="31">
+        <v>0.16226331944452971</v>
+      </c>
+      <c r="K513" s="31">
+        <v>0</v>
+      </c>
+      <c r="L513" s="32">
+        <v>40.673058707573702</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A514" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B514" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D514" s="28">
+        <v>0</v>
+      </c>
+      <c r="E514" s="30">
+        <v>0.16828061495387198</v>
+      </c>
+      <c r="F514" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G514" s="31">
+        <v>17.545896499806425</v>
+      </c>
+      <c r="H514" s="31">
+        <v>2.0266547356571542E-2</v>
+      </c>
+      <c r="I514" s="31">
+        <v>0.15262175546103382</v>
+      </c>
+      <c r="J514" s="31">
+        <v>0.12693203120540736</v>
+      </c>
+      <c r="K514" s="31">
+        <v>0</v>
+      </c>
+      <c r="L514" s="32">
+        <v>36.459019246298581</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A515" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B515" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D515" s="28">
+        <v>0</v>
+      </c>
+      <c r="E515" s="30">
+        <v>0.16683348582254789</v>
+      </c>
+      <c r="F515" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G515" s="31">
+        <v>16.998428302441493</v>
+      </c>
+      <c r="H515" s="31">
+        <v>0</v>
+      </c>
+      <c r="I515" s="31">
+        <v>0.1531245353283984</v>
+      </c>
+      <c r="J515" s="31">
+        <v>2.8710670662679533E-2</v>
+      </c>
+      <c r="K515" s="31">
+        <v>0</v>
+      </c>
+      <c r="L515" s="32">
+        <v>34.892156736627214</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>291</v>
+      </c>
+      <c r="B516" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D516" s="28">
+        <v>0</v>
+      </c>
+      <c r="E516" s="30">
+        <v>0.17271016290846306</v>
+      </c>
+      <c r="F516" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G516" s="31">
+        <v>17.203898713400555</v>
+      </c>
+      <c r="H516" s="31">
+        <v>0</v>
+      </c>
+      <c r="I516" s="31">
+        <v>0.16787166657966582</v>
+      </c>
+      <c r="J516" s="31">
+        <v>9.6286499678751677E-2</v>
+      </c>
+      <c r="K516" s="31">
+        <v>0.21599133705203155</v>
+      </c>
+      <c r="L516" s="32">
+        <v>20.672536350670974</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>291</v>
+      </c>
+      <c r="B517" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D517" s="28">
+        <v>0</v>
+      </c>
+      <c r="E517" s="30">
+        <v>0.17126033854673037</v>
+      </c>
+      <c r="F517" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G517" s="31">
+        <v>17.070807808931331</v>
+      </c>
+      <c r="H517" s="31">
+        <v>0</v>
+      </c>
+      <c r="I517" s="31">
+        <v>0.16435265424127476</v>
+      </c>
+      <c r="J517" s="31">
+        <v>8.8200103444738109E-2</v>
+      </c>
+      <c r="K517" s="31">
+        <v>0.24399925833938044</v>
+      </c>
+      <c r="L517" s="32">
+        <v>14.995647665370646</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A518" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B518" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D518" s="28">
+        <v>0</v>
+      </c>
+      <c r="E518" s="30">
+        <v>0.18538166243899323</v>
+      </c>
+      <c r="F518" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G518" s="31">
+        <v>18.307024368531511</v>
+      </c>
+      <c r="H518" s="31">
+        <v>0</v>
+      </c>
+      <c r="I518" s="31">
+        <v>0.17524445022030921</v>
+      </c>
+      <c r="J518" s="31">
+        <v>9.6286499678751677E-2</v>
+      </c>
+      <c r="K518" s="31">
+        <v>0.31864852267847854</v>
+      </c>
+      <c r="L518" s="32">
+        <v>15.975268762455412</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A519" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B519" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D519" s="28">
+        <v>0</v>
+      </c>
+      <c r="E519" s="30">
+        <v>0.16948033267571916</v>
+      </c>
+      <c r="F519" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G519" s="31">
+        <v>22.29339024697898</v>
+      </c>
+      <c r="H519" s="31">
+        <v>4.1428721904517893E-2</v>
+      </c>
+      <c r="I519" s="31">
+        <v>0.15848736978428329</v>
+      </c>
+      <c r="J519" s="31">
+        <v>6.9195323969838638</v>
+      </c>
+      <c r="K519" s="31">
+        <v>0.66275759470837603</v>
+      </c>
+      <c r="L519" s="32">
+        <v>94.650844907370583</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A520" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B520" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D520" s="28">
+        <v>0</v>
+      </c>
+      <c r="E520" s="30">
+        <v>0.1721715538016223</v>
+      </c>
+      <c r="F520" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G520" s="31">
+        <v>23.365588960625242</v>
+      </c>
+      <c r="H520" s="31">
+        <v>3.8713300490451491E-2</v>
+      </c>
+      <c r="I520" s="31">
+        <v>0.16586081692734272</v>
+      </c>
+      <c r="J520" s="31">
+        <v>7.2460051795620455</v>
+      </c>
+      <c r="K520" s="31">
+        <v>0.55331561381262051</v>
+      </c>
+      <c r="L520" s="32">
+        <v>98.522038498614151</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A521" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B521" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D521" s="28">
+        <v>0</v>
+      </c>
+      <c r="E521" s="30">
+        <v>0.1721715538016223</v>
+      </c>
+      <c r="F521" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G521" s="31">
+        <v>23.726758435166211</v>
+      </c>
+      <c r="H521" s="31">
+        <v>8.2662747047707701E-3</v>
+      </c>
+      <c r="I521" s="31">
+        <v>0.16150384299035847</v>
+      </c>
+      <c r="J521" s="31">
+        <v>6.7315972750327484</v>
+      </c>
+      <c r="K521" s="31">
+        <v>0.64224175497681224</v>
+      </c>
+      <c r="L521" s="32">
+        <v>98.769255193053496</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A522" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B522" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D522" s="28">
+        <v>0</v>
+      </c>
+      <c r="E522" s="30">
+        <v>0.1693975740909206</v>
+      </c>
+      <c r="F522" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G522" s="31">
+        <v>25.071304892289021</v>
+      </c>
+      <c r="H522" s="31">
+        <v>0.10914582522080082</v>
+      </c>
+      <c r="I522" s="31">
+        <v>0.17005004327858028</v>
+      </c>
+      <c r="J522" s="31">
+        <v>5.7997673811257897</v>
+      </c>
+      <c r="K522" s="31">
+        <v>0.59925115911164806</v>
+      </c>
+      <c r="L522" s="32">
+        <v>102.46224339470234</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A523" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B523" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D523" s="28">
+        <v>0</v>
+      </c>
+      <c r="E523" s="30">
+        <v>0.16861151111302913</v>
+      </c>
+      <c r="F523" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G523" s="31">
+        <v>25.737319520517179</v>
+      </c>
+      <c r="H523" s="31">
+        <v>9.4345325013850415E-2</v>
+      </c>
+      <c r="I523" s="31">
+        <v>0.15865495391793313</v>
+      </c>
+      <c r="J523" s="31">
+        <v>5.3666446194672321</v>
+      </c>
+      <c r="K523" s="31">
+        <v>0.59558393607902427</v>
+      </c>
+      <c r="L523" s="32">
+        <v>107.39955126010308</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A524" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B524" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D524" s="28">
+        <v>0</v>
+      </c>
+      <c r="E524" s="30">
+        <v>0.16237361621710991</v>
+      </c>
+      <c r="F524" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G524" s="31">
+        <v>25.192978722068297</v>
+      </c>
+      <c r="H524" s="31">
+        <v>4.2446960931613313E-2</v>
+      </c>
+      <c r="I524" s="31">
+        <v>0.17306618204066165</v>
+      </c>
+      <c r="J524" s="31">
+        <v>5.566731452146211</v>
+      </c>
+      <c r="K524" s="31">
+        <v>0.55975905644785851</v>
+      </c>
+      <c r="L524" s="32">
+        <v>107.77820540775396</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A525" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B525" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D525" s="28">
+        <v>0</v>
+      </c>
+      <c r="E525" s="30">
+        <v>0.15611098372715038</v>
+      </c>
+      <c r="F525" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G525" s="31">
+        <v>19.538882014972874</v>
+      </c>
+      <c r="H525" s="31">
+        <v>0.27600433109292988</v>
+      </c>
+      <c r="I525" s="31">
+        <v>0.1425656491772305</v>
+      </c>
+      <c r="J525" s="31">
+        <v>2.9500472036123933</v>
+      </c>
+      <c r="K525" s="31">
+        <v>0.83074903929105282</v>
+      </c>
+      <c r="L525" s="32">
+        <v>86.021704242199917</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A526" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B526" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D526" s="28">
+        <v>0</v>
+      </c>
+      <c r="E526" s="30">
+        <v>0.16311634487098525</v>
+      </c>
+      <c r="F526" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G526" s="31">
+        <v>20.524463472175519</v>
+      </c>
+      <c r="H526" s="31">
+        <v>0.53838496586218265</v>
+      </c>
+      <c r="I526" s="31">
+        <v>0.14088953721576103</v>
+      </c>
+      <c r="J526" s="31">
+        <v>4.7845033591135406</v>
+      </c>
+      <c r="K526" s="31">
+        <v>0.83209216068313208</v>
+      </c>
+      <c r="L526" s="32">
+        <v>88.488946084918169</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A527" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B527" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D527" s="28">
+        <v>0</v>
+      </c>
+      <c r="E527" s="30">
+        <v>0.16633753021516609</v>
+      </c>
+      <c r="F527" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G527" s="31">
+        <v>20.677137440020974</v>
+      </c>
+      <c r="H527" s="31">
+        <v>0.56912697600527873</v>
+      </c>
+      <c r="I527" s="31">
+        <v>0.15144859301243299</v>
+      </c>
+      <c r="J527" s="31">
+        <v>6.6685144925557784</v>
+      </c>
+      <c r="K527" s="31">
+        <v>0.77236809052982536</v>
+      </c>
+      <c r="L527" s="32">
+        <v>89.807128168068004</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A528" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B528" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D528" s="28">
+        <v>0</v>
+      </c>
+      <c r="E528" s="30">
+        <v>0.1710947004696009</v>
+      </c>
+      <c r="F528" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G528" s="31">
+        <v>22.506787726254242</v>
+      </c>
+      <c r="H528" s="31">
+        <v>2.5133633235131701E-2</v>
+      </c>
+      <c r="I528" s="31">
+        <v>0.15798461576766223</v>
+      </c>
+      <c r="J528" s="31">
+        <v>7.562975385329449</v>
+      </c>
+      <c r="K528" s="31">
+        <v>0.81461704547987523</v>
+      </c>
+      <c r="L528" s="32">
+        <v>95.551152771536465</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A529" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B529" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D529" s="28">
+        <v>0</v>
+      </c>
+      <c r="E529" s="30">
+        <v>0.17001833364645969</v>
+      </c>
+      <c r="F529" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G529" s="31">
+        <v>22.28413359882321</v>
+      </c>
+      <c r="H529" s="31">
+        <v>2.2417187747070185E-2</v>
+      </c>
+      <c r="I529" s="31">
+        <v>0.16418507926309656</v>
+      </c>
+      <c r="J529" s="31">
+        <v>7.2371402840621224</v>
+      </c>
+      <c r="K529" s="31">
+        <v>0.75433431404322049</v>
+      </c>
+      <c r="L529" s="32">
+        <v>94.704761523844169</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A530" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B530" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D530" s="28">
+        <v>0</v>
+      </c>
+      <c r="E530" s="30">
+        <v>0.16489158497009629</v>
+      </c>
+      <c r="F530" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G530" s="31">
+        <v>27.243537423522607</v>
+      </c>
+      <c r="H530" s="31">
+        <v>5.489016519672113E-2</v>
+      </c>
+      <c r="I530" s="31">
+        <v>0.15714668702105555</v>
+      </c>
+      <c r="J530" s="31">
+        <v>5.5954487039370298</v>
+      </c>
+      <c r="K530" s="31">
+        <v>0.59787610578537809</v>
+      </c>
+      <c r="L530" s="32">
+        <v>117.05649064332472</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A531" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B531" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D531" s="28">
+        <v>0</v>
+      </c>
+      <c r="E531" s="30">
+        <v>0.16088885844579637</v>
+      </c>
+      <c r="F531" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G531" s="31">
+        <v>26.623809804629182</v>
+      </c>
+      <c r="H531" s="31">
+        <v>3.6563470825198979E-2</v>
+      </c>
+      <c r="I531" s="31">
+        <v>0.16049836161569553</v>
+      </c>
+      <c r="J531" s="31">
+        <v>5.5860851353345184</v>
+      </c>
+      <c r="K531" s="31">
+        <v>0.36797128352043912</v>
+      </c>
+      <c r="L531" s="32">
+        <v>118.1424773585947</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A532" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B532" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D532" s="28">
+        <v>0</v>
+      </c>
+      <c r="E532" s="30">
+        <v>0.18321654152814643</v>
+      </c>
+      <c r="F532" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G532" s="31">
+        <v>22.533396064662689</v>
+      </c>
+      <c r="H532" s="31">
+        <v>3.2150327429617299E-2</v>
+      </c>
+      <c r="I532" s="31">
+        <v>0.18043859838532475</v>
+      </c>
+      <c r="J532" s="31">
+        <v>5.5878330567639001</v>
+      </c>
+      <c r="K532" s="31">
+        <v>1.1650495583653244</v>
+      </c>
+      <c r="L532" s="32">
+        <v>101.98667802135813</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A533" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B533" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D533" s="28">
+        <v>0</v>
+      </c>
+      <c r="E533" s="30">
+        <v>0.17353902980054123</v>
+      </c>
+      <c r="F533" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G533" s="31">
+        <v>22.95535484990728</v>
+      </c>
+      <c r="H533" s="31">
+        <v>1.4946082591311468E-2</v>
+      </c>
+      <c r="I533" s="31">
+        <v>0.18194652841470138</v>
+      </c>
+      <c r="J533" s="31">
+        <v>4.9519211100284473</v>
+      </c>
+      <c r="K533" s="31">
+        <v>1.2102954064032654</v>
+      </c>
+      <c r="L533" s="32">
+        <v>107.6502283005657</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A534" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B534" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D534" s="28">
+        <v>0</v>
+      </c>
+      <c r="E534" s="30">
+        <v>0.16588299528222589</v>
+      </c>
+      <c r="F534" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G534" s="31">
+        <v>24.854770963353765</v>
+      </c>
+      <c r="H534" s="31">
+        <v>0</v>
+      </c>
+      <c r="I534" s="31">
+        <v>0.1782604387249441</v>
+      </c>
+      <c r="J534" s="31">
+        <v>3.9187785614096975</v>
+      </c>
+      <c r="K534" s="31">
+        <v>1.0995814730501845</v>
+      </c>
+      <c r="L534" s="32">
+        <v>120.22533496043719</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A535" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B535" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D535" s="28">
+        <v>0</v>
+      </c>
+      <c r="E535" s="30">
+        <v>0.16060026385881646</v>
+      </c>
+      <c r="F535" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G535" s="31">
+        <v>25.938973083720217</v>
+      </c>
+      <c r="H535" s="31">
+        <v>1.4719665315775314E-2</v>
+      </c>
+      <c r="I535" s="31">
+        <v>0.17122299649772607</v>
+      </c>
+      <c r="J535" s="31">
+        <v>3.344343095863084</v>
+      </c>
+      <c r="K535" s="31">
+        <v>0.87051572391485865</v>
+      </c>
+      <c r="L535" s="32">
+        <v>128.97399202134983</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A536" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B536" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D536" s="28">
+        <v>0</v>
+      </c>
+      <c r="E536" s="30">
+        <v>0.1573457125848492</v>
+      </c>
+      <c r="F536" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G536" s="31">
+        <v>24.885664411932201</v>
+      </c>
+      <c r="H536" s="31">
+        <v>1.9247785625041116E-2</v>
+      </c>
+      <c r="I536" s="31">
+        <v>0.17306618204066165</v>
+      </c>
+      <c r="J536" s="31">
+        <v>3.4401819963206095</v>
+      </c>
+      <c r="K536" s="31">
+        <v>0.72903136351248954</v>
+      </c>
+      <c r="L536" s="32">
+        <v>125.40752938084022</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A537" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B537" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D537" s="28">
+        <v>0</v>
+      </c>
+      <c r="E537" s="30">
+        <v>0.17743856027996541</v>
+      </c>
+      <c r="F537" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G537" s="31">
+        <v>20.686871191880577</v>
+      </c>
+      <c r="H537" s="31">
+        <v>0.10666060031830464</v>
+      </c>
+      <c r="I537" s="31">
+        <v>0.15547080933194884</v>
+      </c>
+      <c r="J537" s="31">
+        <v>3.2939791232133357</v>
+      </c>
+      <c r="K537" s="31">
+        <v>1.9958310244960169</v>
+      </c>
+      <c r="L537" s="32">
+        <v>87.488075189167361</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A538" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B538" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D538" s="28">
+        <v>0</v>
+      </c>
+      <c r="E538" s="30">
+        <v>0.18317492365927704</v>
+      </c>
+      <c r="F538" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G538" s="31">
+        <v>21.354639486453248</v>
+      </c>
+      <c r="H538" s="31">
+        <v>0.22218450495739783</v>
+      </c>
+      <c r="I538" s="31">
+        <v>0.16200658004242913</v>
+      </c>
+      <c r="J538" s="31">
+        <v>5.1152233076401838</v>
+      </c>
+      <c r="K538" s="31">
+        <v>2.0421121181983453</v>
+      </c>
+      <c r="L538" s="32">
+        <v>89.74430524202414</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A539" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B539" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D539" s="28">
+        <v>0</v>
+      </c>
+      <c r="E539" s="30">
+        <v>0.18067916855559313</v>
+      </c>
+      <c r="F539" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G539" s="31">
+        <v>21.59974841184891</v>
+      </c>
+      <c r="H539" s="31">
+        <v>0.21970581208243301</v>
+      </c>
+      <c r="I539" s="31">
+        <v>0.162844469743642</v>
+      </c>
+      <c r="J539" s="31">
+        <v>5.1425443115567964</v>
+      </c>
+      <c r="K539" s="31">
+        <v>1.5528999538699262</v>
+      </c>
+      <c r="L539" s="32">
+        <v>90.449041824978224</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A540" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B540" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D540" s="28">
+        <v>0</v>
+      </c>
+      <c r="E540" s="30">
+        <v>0.19209754999952028</v>
+      </c>
+      <c r="F540" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G540" s="31">
+        <v>22.739595512628096</v>
+      </c>
+      <c r="H540" s="31">
+        <v>0</v>
+      </c>
+      <c r="I540" s="31">
+        <v>0.17524445022030921</v>
+      </c>
+      <c r="J540" s="31">
+        <v>8.0166384431752391</v>
+      </c>
+      <c r="K540" s="31">
+        <v>1.7022618665819123</v>
+      </c>
+      <c r="L540" s="32">
+        <v>97.899806020936182</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A541" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B541" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D541" s="28">
+        <v>0</v>
+      </c>
+      <c r="E541" s="30">
+        <v>0.19979569295605601</v>
+      </c>
+      <c r="F541" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G541" s="31">
+        <v>23.188504556187073</v>
+      </c>
+      <c r="H541" s="31">
+        <v>4.3691442703115514E-2</v>
+      </c>
+      <c r="I541" s="31">
+        <v>0.17088786835293446</v>
+      </c>
+      <c r="J541" s="31">
+        <v>6.7793198913032491</v>
+      </c>
+      <c r="K541" s="31">
+        <v>1.6827772994753305</v>
+      </c>
+      <c r="L541" s="32">
+        <v>100.71409132053726</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A542" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B542" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D542" s="28">
+        <v>0</v>
+      </c>
+      <c r="E542" s="30">
+        <v>0.19226464184578868</v>
+      </c>
+      <c r="F542" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G542" s="31">
+        <v>23.28054881250695</v>
+      </c>
+      <c r="H542" s="31">
+        <v>0</v>
+      </c>
+      <c r="I542" s="31">
+        <v>0.18010349986117671</v>
+      </c>
+      <c r="J542" s="31">
+        <v>6.2379133557419841</v>
+      </c>
+      <c r="K542" s="31">
+        <v>1.564455554973571</v>
+      </c>
+      <c r="L542" s="32">
+        <v>103.40870886441779</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A543" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B543" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D543" s="28">
+        <v>0</v>
+      </c>
+      <c r="E543" s="30">
+        <v>0.1533146629824246</v>
+      </c>
+      <c r="F543" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G543" s="31">
+        <v>25.495615968190201</v>
+      </c>
+      <c r="H543" s="31">
+        <v>4.6972177327351296E-2</v>
+      </c>
+      <c r="I543" s="31">
+        <v>0.18060614724348092</v>
+      </c>
+      <c r="J543" s="31">
+        <v>3.0419821430370373</v>
+      </c>
+      <c r="K543" s="31">
+        <v>0.72541135501291043</v>
+      </c>
+      <c r="L543" s="32">
+        <v>128.10128836962053</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A544" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B544" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D544" s="28">
+        <v>0</v>
+      </c>
+      <c r="E544" s="30">
+        <v>0.16080639925107792</v>
+      </c>
+      <c r="F544" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G544" s="31">
+        <v>26.781132276033226</v>
+      </c>
+      <c r="H544" s="31">
+        <v>2.320950197865836E-2</v>
+      </c>
+      <c r="I544" s="31">
+        <v>0.1874754185790278</v>
+      </c>
+      <c r="J544" s="31">
+        <v>3.6391236580718695</v>
+      </c>
+      <c r="K544" s="31">
+        <v>0.74891772016113833</v>
+      </c>
+      <c r="L544" s="32">
+        <v>135.08646422031222</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A545" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B545" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D545" s="28">
+        <v>0</v>
+      </c>
+      <c r="E545" s="30">
+        <v>0.14285809872810207</v>
+      </c>
+      <c r="F545" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G545" s="31">
+        <v>16.853590242731041</v>
+      </c>
+      <c r="H545" s="31">
+        <v>1.1210045978457855E-2</v>
+      </c>
+      <c r="I545" s="31">
+        <v>0.12027115752555796</v>
+      </c>
+      <c r="J545" s="31">
+        <v>5.3892598442683716E-2</v>
+      </c>
+      <c r="K545" s="31">
+        <v>3.60198063297682</v>
+      </c>
+      <c r="L545" s="32">
+        <v>58.45653443154643</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A546" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B546" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D546" s="28">
+        <v>0</v>
+      </c>
+      <c r="E546" s="30">
+        <v>0.13893363513060145</v>
+      </c>
+      <c r="F546" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G546" s="31">
+        <v>16.332790496905005</v>
+      </c>
+      <c r="H546" s="31">
+        <v>0</v>
+      </c>
+      <c r="I546" s="31">
+        <v>0.16066594251800245</v>
+      </c>
+      <c r="J546" s="31">
+        <v>0.1706058518312818</v>
+      </c>
+      <c r="K546" s="31">
+        <v>3.3830721654397182</v>
+      </c>
+      <c r="L546" s="32">
+        <v>43.191768671630392</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A547" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B547" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D547" s="28">
+        <v>0</v>
+      </c>
+      <c r="E547" s="30">
+        <v>0.14433148255512235</v>
+      </c>
+      <c r="F547" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G547" s="31">
+        <v>17.148667539527587</v>
+      </c>
+      <c r="H547" s="31">
+        <v>1.0077849963225529E-2</v>
+      </c>
+      <c r="I547" s="31">
+        <v>0.15697910046389846</v>
+      </c>
+      <c r="J547" s="31">
+        <v>0.29971706296445005</v>
+      </c>
+      <c r="K547" s="31">
+        <v>3.9114638511534245</v>
+      </c>
+      <c r="L547" s="32">
+        <v>43.085611335091023</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A548" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B548" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D548" s="28">
+        <v>0</v>
+      </c>
+      <c r="E548" s="30">
+        <v>0.14212175658281054</v>
+      </c>
+      <c r="F548" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G548" s="31">
+        <v>17.167272830390704</v>
+      </c>
+      <c r="H548" s="31">
+        <v>0</v>
+      </c>
+      <c r="I548" s="31">
+        <v>0.16435265424127476</v>
+      </c>
+      <c r="J548" s="31">
+        <v>0.12940944258280554</v>
+      </c>
+      <c r="K548" s="31">
+        <v>4.0112424019175066</v>
+      </c>
+      <c r="L548" s="32">
+        <v>39.138664140496829</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A549" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B549" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D549" s="28">
+        <v>0</v>
+      </c>
+      <c r="E549" s="30">
+        <v>0.13758613262421421</v>
+      </c>
+      <c r="F549" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G549" s="31">
+        <v>16.758192603370418</v>
+      </c>
+      <c r="H549" s="31">
+        <v>0</v>
+      </c>
+      <c r="I549" s="31">
+        <v>0.15496804077428458</v>
+      </c>
+      <c r="J549" s="31">
+        <v>0.12732320453053977</v>
+      </c>
+      <c r="K549" s="31">
+        <v>3.5168133244253625</v>
+      </c>
+      <c r="L549" s="32">
+        <v>33.653107040373143</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A550" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B550" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D550" s="28">
+        <v>0</v>
+      </c>
+      <c r="E550" s="30">
+        <v>0.14114032977835217</v>
+      </c>
+      <c r="F550" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G550" s="31">
+        <v>17.517549404776037</v>
+      </c>
+      <c r="H550" s="31">
+        <v>1.5738533721680232E-2</v>
+      </c>
+      <c r="I550" s="31">
+        <v>0.17021760883200829</v>
+      </c>
+      <c r="J550" s="31">
+        <v>0.13345143447898949</v>
+      </c>
+      <c r="K550" s="31">
+        <v>3.976982281266106</v>
+      </c>
+      <c r="L550" s="32">
+        <v>41.580861454970965</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A551" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B551" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D551" s="28">
+        <v>0</v>
+      </c>
+      <c r="E551" s="30">
+        <v>0.13807604285497849</v>
+      </c>
+      <c r="F551" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G551" s="31">
+        <v>17.096377920628036</v>
+      </c>
+      <c r="H551" s="31">
+        <v>1.4606456233530678E-2</v>
+      </c>
+      <c r="I551" s="31">
+        <v>0.16217415852122885</v>
+      </c>
+      <c r="J551" s="31">
+        <v>0.11415306176139318</v>
+      </c>
+      <c r="K551" s="31">
+        <v>3.6676105430828212</v>
+      </c>
+      <c r="L551" s="32">
+        <v>40.562103726017654</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A552" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B552" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D552" s="28">
+        <v>0</v>
+      </c>
+      <c r="E552" s="30">
+        <v>0.14744502251409583</v>
+      </c>
+      <c r="F552" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G552" s="31">
+        <v>16.001762382720781</v>
+      </c>
+      <c r="H552" s="31">
+        <v>2.1624858995914379E-2</v>
+      </c>
+      <c r="I552" s="31">
+        <v>9.3947469584350851E-2</v>
+      </c>
+      <c r="J552" s="31">
+        <v>0.17099689502363269</v>
+      </c>
+      <c r="K552" s="31">
+        <v>3.2345148433296651</v>
+      </c>
+      <c r="L552" s="32">
+        <v>65.010844611860207</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A553" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B553" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D553" s="28">
+        <v>0</v>
+      </c>
+      <c r="E553" s="30">
+        <v>0.14888028759380798</v>
+      </c>
+      <c r="F553" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G553" s="31">
+        <v>16.368406194826335</v>
+      </c>
+      <c r="H553" s="31">
+        <v>0</v>
+      </c>
+      <c r="I553" s="31">
+        <v>0.10283455223129623</v>
+      </c>
+      <c r="J553" s="31">
+        <v>0.10541570365610511</v>
+      </c>
+      <c r="K553" s="31">
+        <v>3.5879053603719009</v>
+      </c>
+      <c r="L553" s="32">
+        <v>62.595143774730801</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A554" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B554" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D554" s="28">
+        <v>0</v>
+      </c>
+      <c r="E554" s="30">
+        <v>0.15998196563518594</v>
+      </c>
+      <c r="F554" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G554" s="31">
+        <v>16.751223244327218</v>
+      </c>
+      <c r="H554" s="31">
+        <v>0</v>
+      </c>
+      <c r="I554" s="31">
+        <v>0.14273325889234528</v>
+      </c>
+      <c r="J554" s="31">
+        <v>0.10332908439895475</v>
+      </c>
+      <c r="K554" s="31">
+        <v>3.554285369076386</v>
+      </c>
+      <c r="L554" s="32">
+        <v>51.903728442668836</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A555" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B555" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D555" s="28">
+        <v>0</v>
+      </c>
+      <c r="E555" s="30">
+        <v>0.1428990134620958</v>
+      </c>
+      <c r="F555" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G555" s="31">
+        <v>16.49609338642497</v>
+      </c>
+      <c r="H555" s="31">
+        <v>0</v>
+      </c>
+      <c r="I555" s="31">
+        <v>0.14390651935834853</v>
+      </c>
+      <c r="J555" s="31">
+        <v>0.1016336818445307</v>
+      </c>
+      <c r="K555" s="31">
+        <v>3.5548775127954744</v>
+      </c>
+      <c r="L555" s="32">
+        <v>49.335123914333238</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A556" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B556" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D556" s="28">
+        <v>0</v>
+      </c>
+      <c r="E556" s="30">
+        <v>0.14347189530521565</v>
+      </c>
+      <c r="F556" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G556" s="31">
+        <v>16.918652745874201</v>
+      </c>
+      <c r="H556" s="31">
+        <v>9.6249632602368063E-3</v>
+      </c>
+      <c r="I556" s="31">
+        <v>0.15262175546103382</v>
+      </c>
+      <c r="J556" s="31">
+        <v>0.11089292149296263</v>
+      </c>
+      <c r="K556" s="31">
+        <v>3.6727922290144672</v>
+      </c>
+      <c r="L556" s="32">
+        <v>50.904238999047045</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A557" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B557" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D557" s="28">
+        <v>0</v>
+      </c>
+      <c r="E557" s="30">
+        <v>0.13791272792972065</v>
+      </c>
+      <c r="F557" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G557" s="31">
+        <v>17.492322860239746</v>
+      </c>
+      <c r="H557" s="31">
+        <v>8.3795003808069934E-3</v>
+      </c>
+      <c r="I557" s="31">
+        <v>0.16100110351478061</v>
+      </c>
+      <c r="J557" s="31">
+        <v>0.10319866959475735</v>
+      </c>
+      <c r="K557" s="31">
+        <v>4.2094538110112039</v>
+      </c>
+      <c r="L557" s="32">
+        <v>36.932817794667358</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A558" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B558" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D558" s="28">
+        <v>0</v>
+      </c>
+      <c r="E558" s="30">
+        <v>0.13811687338551218</v>
+      </c>
+      <c r="F558" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G558" s="31">
+        <v>17.426869286812899</v>
+      </c>
+      <c r="H558" s="31">
+        <v>1.2455427370518263E-2</v>
+      </c>
+      <c r="I558" s="31">
+        <v>0.16200658004242913</v>
+      </c>
+      <c r="J558" s="31">
+        <v>0.37209914906603625</v>
+      </c>
+      <c r="K558" s="31">
+        <v>4.2422373902499171</v>
+      </c>
+      <c r="L558" s="32">
+        <v>40.677929122793088</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A559" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B559" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D559" s="28">
+        <v>0</v>
+      </c>
+      <c r="E559" s="30">
+        <v>0.15105536731192831</v>
+      </c>
+      <c r="F559" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G559" s="31">
+        <v>18.077085138485028</v>
+      </c>
+      <c r="H559" s="31">
+        <v>1.0530731925130944E-2</v>
+      </c>
+      <c r="I559" s="31">
+        <v>0.15597357546610591</v>
+      </c>
+      <c r="J559" s="31">
+        <v>4.7369245865779487E-2</v>
+      </c>
+      <c r="K559" s="31">
+        <v>4.5652998307450838</v>
+      </c>
+      <c r="L559" s="32">
+        <v>45.547779725882258</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A560" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B560" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D560" s="28">
+        <v>0</v>
+      </c>
+      <c r="E560" s="30">
+        <v>0.15261610277060106</v>
+      </c>
+      <c r="F560" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G560" s="31">
+        <v>18.286682025709926</v>
+      </c>
+      <c r="H560" s="31">
+        <v>1.6530970332481364E-2</v>
+      </c>
+      <c r="I560" s="31">
+        <v>0.16033078044411003</v>
+      </c>
+      <c r="J560" s="31">
+        <v>0.13749330193974743</v>
+      </c>
+      <c r="K560" s="31">
+        <v>4.6208671091210043</v>
+      </c>
+      <c r="L560" s="32">
+        <v>42.41543793277603</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A561" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B561" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D561" s="28">
+        <v>0</v>
+      </c>
+      <c r="E561" s="30">
+        <v>0.15249284902973356</v>
+      </c>
+      <c r="F561" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G561" s="31">
+        <v>18.259651686023499</v>
+      </c>
+      <c r="H561" s="31">
+        <v>1.1776132874160008E-2</v>
+      </c>
+      <c r="I561" s="31">
+        <v>0.16401750401563975</v>
+      </c>
+      <c r="J561" s="31">
+        <v>0.17360381985767337</v>
+      </c>
+      <c r="K561" s="31">
+        <v>4.9206216376320988</v>
+      </c>
+      <c r="L561" s="32">
+        <v>37.626611569387229</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A562" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B562" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D562" s="28">
+        <v>0</v>
+      </c>
+      <c r="E562" s="30">
+        <v>0.15002913442212257</v>
+      </c>
+      <c r="F562" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G562" s="31">
+        <v>18.319355527336711</v>
+      </c>
+      <c r="H562" s="31">
+        <v>0</v>
+      </c>
+      <c r="I562" s="31">
+        <v>0.17222837446941505</v>
+      </c>
+      <c r="J562" s="31">
+        <v>0.21061656287725436</v>
+      </c>
+      <c r="K562" s="31">
+        <v>4.8547603652536448</v>
+      </c>
+      <c r="L562" s="32">
+        <v>35.074661171205854</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A563" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B563" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D563" s="28">
+        <v>0</v>
+      </c>
+      <c r="E563" s="30">
+        <v>0.14801902275188991</v>
+      </c>
+      <c r="F563" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G563" s="31">
+        <v>18.641994757787007</v>
+      </c>
+      <c r="H563" s="31">
+        <v>0</v>
+      </c>
+      <c r="I563" s="31">
+        <v>0.16803923563371534</v>
+      </c>
+      <c r="J563" s="31">
+        <v>0.12797515748272012</v>
+      </c>
+      <c r="K563" s="31">
+        <v>5.0381195279074369</v>
+      </c>
+      <c r="L563" s="32">
+        <v>34.247323840986297</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A564" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B564" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D564" s="28">
+        <v>0</v>
+      </c>
+      <c r="E564" s="30">
+        <v>0.15821040817799775</v>
+      </c>
+      <c r="F564" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G564" s="31">
+        <v>17.605180859213025</v>
+      </c>
+      <c r="H564" s="31">
+        <v>1.8455398795614749E-2</v>
+      </c>
+      <c r="I564" s="31">
+        <v>0.15329212807896275</v>
+      </c>
+      <c r="J564" s="31">
+        <v>4.4107448184807226E-2</v>
+      </c>
+      <c r="K564" s="31">
+        <v>4.5899851498139617</v>
+      </c>
+      <c r="L564" s="32">
+        <v>59.738621045841938</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A565" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B565" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D565" s="28">
+        <v>0</v>
+      </c>
+      <c r="E565" s="30">
+        <v>0.15676942517956818</v>
+      </c>
+      <c r="F565" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G565" s="31">
+        <v>17.599455633112974</v>
+      </c>
+      <c r="H565" s="31">
+        <v>2.1398476685867644E-2</v>
+      </c>
+      <c r="I565" s="31">
+        <v>0.15061061175650362</v>
+      </c>
+      <c r="J565" s="31">
+        <v>6.563381732337592E-2</v>
+      </c>
+      <c r="K565" s="31">
+        <v>3.8682786234490392</v>
+      </c>
+      <c r="L565" s="32">
+        <v>54.295295788785651</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A566" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B566" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D566" s="28">
+        <v>0</v>
+      </c>
+      <c r="E566" s="30">
+        <v>0.15306808856973422</v>
+      </c>
+      <c r="F566" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G566" s="31">
+        <v>17.549078063046093</v>
+      </c>
+      <c r="H566" s="31">
+        <v>4.4164254105035243E-3</v>
+      </c>
+      <c r="I566" s="31">
+        <v>0.14977262376860978</v>
+      </c>
+      <c r="J566" s="31">
+        <v>3.967127346487407E-2</v>
+      </c>
+      <c r="K566" s="31">
+        <v>4.6653970308638595</v>
+      </c>
+      <c r="L566" s="32">
+        <v>48.363893029807187</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A567" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B567" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D567" s="28">
+        <v>0</v>
+      </c>
+      <c r="E567" s="30">
+        <v>0.15290372002169444</v>
+      </c>
+      <c r="F567" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G567" s="31">
+        <v>17.539417521906891</v>
+      </c>
+      <c r="H567" s="31">
+        <v>0</v>
+      </c>
+      <c r="I567" s="31">
+        <v>0.16033078044411003</v>
+      </c>
+      <c r="J567" s="31">
+        <v>5.0761429605200394E-2</v>
+      </c>
+      <c r="K567" s="31">
+        <v>4.1844980460786552</v>
+      </c>
+      <c r="L567" s="32">
+        <v>48.185942833952566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A568" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B568" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D568" s="28">
+        <v>0</v>
+      </c>
+      <c r="E568" s="30">
+        <v>0.15064482017942907</v>
+      </c>
+      <c r="F568" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G568" s="31">
+        <v>17.320511749612781</v>
+      </c>
+      <c r="H568" s="31">
+        <v>0</v>
+      </c>
+      <c r="I568" s="31">
+        <v>0.15966045306498225</v>
+      </c>
+      <c r="J568" s="31">
+        <v>4.8804411207307018E-2</v>
+      </c>
+      <c r="K568" s="31">
+        <v>4.4030998148063931</v>
+      </c>
+      <c r="L568" s="32">
+        <v>44.475470057490071</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A569" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B569" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D569" s="28">
+        <v>0</v>
+      </c>
+      <c r="E569" s="30">
+        <v>0.1523696017660553</v>
+      </c>
+      <c r="F569" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G569" s="31">
+        <v>17.768308992780334</v>
+      </c>
+      <c r="H569" s="31">
+        <v>8.1530487324168385E-3</v>
+      </c>
+      <c r="I569" s="31">
+        <v>0.15681151363746282</v>
+      </c>
+      <c r="J569" s="31">
+        <v>4.3976974594258728E-2</v>
+      </c>
+      <c r="K569" s="31">
+        <v>4.5028074259370898</v>
+      </c>
+      <c r="L569" s="32">
+        <v>45.00574384020544</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A570" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B570" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D570" s="28">
+        <v>0</v>
+      </c>
+      <c r="E570" s="30">
+        <v>0.1554115915563542</v>
+      </c>
+      <c r="F570" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G570" s="31">
+        <v>18.008824239403758</v>
+      </c>
+      <c r="H570" s="31">
+        <v>1.1776132874160008E-2</v>
+      </c>
+      <c r="I570" s="31">
+        <v>0.15882253778230446</v>
+      </c>
+      <c r="J570" s="31">
+        <v>0.21165902411778476</v>
+      </c>
+      <c r="K570" s="31">
+        <v>4.5746960293088677</v>
+      </c>
+      <c r="L570" s="32">
+        <v>46.309761233759168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/index/data/IC_raw_data.xlsx
+++ b/index/data/IC_raw_data.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B97571-5BCA-4E99-9AAD-B25701BB3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519ADD57-3EA6-4477-A911-B454D2C0CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2234,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="C359" sqref="C359"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="C355" sqref="C286:C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
